--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cac khach hang khong phat sinh don hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang khong phat sinh don hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2223,9 +2223,6 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t>Click vào Button In</t>
-  </si>
-  <si>
     <t>SQL_CMN_000002</t>
   </si>
   <si>
@@ -2290,9 +2287,6 @@
     <t>@SQL0003</t>
   </si>
   <si>
-    <t>@SQL0004</t>
-  </si>
-  <si>
     <t>Tạo tài liệu mới Customize Hoàng Trần (CustomizeIndex =51)
 Màn hình in báo cáo khách hàng không phát sinh đơn hàng</t>
   </si>
@@ -2306,13 +2300,7 @@
     <t>Thực thi @SQL0003 phụ thuộc @DivisionID của @SQL0001</t>
   </si>
   <si>
-    <t>thực thi @SQL0001, @SQL0002 đổ nguồn cho DropdownCheckList</t>
-  </si>
-  <si>
     <t>@FormID</t>
-  </si>
-  <si>
-    <t>Truyền tham số @DivisionID để gọi tab mới load báo cáo khi in</t>
   </si>
   <si>
     <t>CustomizeIndex</t>
@@ -2327,81 +2315,74 @@
     <t>Đổ nguồn DropdownCheckList đơn vị</t>
   </si>
   <si>
-    <t>Đổ nguồn DropDowncheckList chọn kỳ</t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownCheckList chọn kỳ</t>
-  </si>
-  <si>
-    <t>Menu [Báo cáo] -&gt; MenuItem[Báo cáo biểu đồ _CRMF3000] 
+    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMT3000 để mởi màn hình CRMF3040</t>
+  </si>
+  <si>
+    <t>Click vào Link Báo cáo Khách hàng không phát sinh đơn hàng</t>
+  </si>
+  <si>
+    <t>Click vào BttnClose thực thi đóng màn hình CRMF3040 trở về màn hình CRMF30401</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>BttnClose</t>
+  </si>
+  <si>
+    <t>Menu [Báo cáo] -&gt; Page[Báo cáo biểu đồ _CRMF3000] 
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
 -&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
   </si>
   <si>
-    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMT3000 để mởi màn hình CRMF3040</t>
-  </si>
-  <si>
-    <t>Click vào Link Báo cáo Khách hàng không phát sinh đơn hàng</t>
-  </si>
-  <si>
-    <t>Câu SQL phụ thuộc và DivisionID của Đơn vị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXEC CRMP30401(
- @DivisionID       VARCHAR(50),  
-  @DivisionIDList    NVARCHAR(2000), 
-  @FromDate         DATETIME,
-  @ToDate           DATETIME,
-  @IsDate           TINYINT,
-@Period  Nvarchar(Max),
-@FromAccountID       Varchar(50),
-  @ToAccountID         Varchar(50,
-  @UserID  VARCHAR(50))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @DivisionIDList  @FromDate @ToDate   @IsDate  
-@Period
-@FromAccountID @ToAccountID 
-@UserID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biến môi trường @@DivisionIDList  @@FromDate @@ToDate   @@IsDate 
-@@Period
-@@FromAccountID @@ToAccountID
-Biến môi trường
-</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0004 để load tab báo cáo xem trước khi in</t>
-  </si>
-  <si>
-    <t>Click BttnPrint</t>
-  </si>
-  <si>
-    <t>NV1</t>
-  </si>
-  <si>
-    <t>Click vào BttnClose thực thi đóng màn hình CRMF3040 trở về màn hình CRMF30401</t>
-  </si>
-  <si>
-    <t>Click vào BttnView thực thi @SQL0004 Load tab màn hình báo cáo view trước khi In</t>
-  </si>
-  <si>
-    <t>Tham khảo luồng nghiệp vụ 1</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Đóng</t>
-  </si>
-  <si>
-    <t>BttnClose</t>
-  </si>
-  <si>
-    <t>Load tab màn hình Báo cáo để xem trước khi in</t>
+    <t>GetDate()</t>
+  </si>
+  <si>
+    <t>MM/YYYY</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownChecklist đơn vị</t>
+  </si>
+  <si>
+    <t>ID SQL</t>
+  </si>
+  <si>
+    <t>Đổ nguồn combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox Khách hàng phụ thuộc
+nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho phép In báo cáo khách hàng không phát sinh đơn hàng </t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
+  </si>
+  <si>
+    <t>Click vào Button In thực hiện truyền các tham số trên màn hình vào Store CRMP30401 để mở tab mới Load màn hình view trước khi In
+Tham khảo thêm Store CRMP30401</t>
   </si>
 </sst>
 </file>
@@ -3237,9 +3218,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3260,207 +3238,204 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3484,6 +3459,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3566,19 +3547,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3598,8 +3579,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2419350" y="1209675"/>
-          <a:ext cx="4867275" cy="2828925"/>
+          <a:off x="2628900" y="1571625"/>
+          <a:ext cx="4905375" cy="2847975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4410,65 +4391,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="151" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="150"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="150" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="146" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="116"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="117"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
@@ -4479,56 +4460,56 @@
       <c r="R13" s="117"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="118"/>
       <c r="L16" s="118"/>
       <c r="M16" s="118"/>
@@ -4539,384 +4520,384 @@
       <c r="R16" s="118"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
-      <c r="AN28" s="139"/>
-      <c r="AO28" s="139"/>
-      <c r="AP28" s="139"/>
-      <c r="AQ28" s="139"/>
-      <c r="AR28" s="139"/>
-      <c r="AS28" s="139"/>
-      <c r="AT28" s="139"/>
-      <c r="AU28" s="139"/>
-      <c r="AV28" s="139"/>
-      <c r="AW28" s="139"/>
-      <c r="AX28" s="139"/>
-      <c r="AY28" s="139"/>
-      <c r="AZ28" s="139"/>
-      <c r="BA28" s="139"/>
-      <c r="BB28" s="139"/>
-      <c r="BC28" s="139"/>
-      <c r="BD28" s="139"/>
-      <c r="BE28" s="139"/>
-      <c r="BF28" s="139"/>
-      <c r="BG28" s="139"/>
-      <c r="BH28" s="139"/>
-      <c r="BI28" s="139"/>
-      <c r="BJ28" s="139"/>
-      <c r="BK28" s="139"/>
-      <c r="BL28" s="139"/>
-      <c r="BM28" s="139"/>
-      <c r="BN28" s="139"/>
-      <c r="BO28" s="139"/>
-      <c r="BP28" s="139"/>
-      <c r="BQ28" s="139"/>
-      <c r="BR28" s="139"/>
-      <c r="BS28" s="139"/>
-      <c r="BT28" s="139"/>
-      <c r="BU28" s="139"/>
-      <c r="BV28" s="139"/>
-      <c r="BW28" s="139"/>
-      <c r="BX28" s="139"/>
-      <c r="BY28" s="139"/>
-      <c r="BZ28" s="139"/>
-      <c r="CA28" s="139"/>
-      <c r="CB28" s="139"/>
-      <c r="CC28" s="139"/>
-      <c r="CD28" s="139"/>
-      <c r="CE28" s="139"/>
-      <c r="CF28" s="139"/>
-      <c r="CG28" s="139"/>
-      <c r="CH28" s="139"/>
-      <c r="CI28" s="139"/>
-      <c r="CJ28" s="139"/>
-      <c r="CK28" s="139"/>
-      <c r="CL28" s="139"/>
-      <c r="CM28" s="139"/>
-      <c r="CN28" s="139"/>
-      <c r="CO28" s="139"/>
-      <c r="CP28" s="139"/>
-      <c r="CQ28" s="139"/>
-      <c r="CR28" s="139"/>
-      <c r="CS28" s="139"/>
-      <c r="CT28" s="139"/>
-      <c r="CU28" s="139"/>
-      <c r="CV28" s="139"/>
-      <c r="CW28" s="139"/>
-      <c r="CX28" s="139"/>
-      <c r="CY28" s="139"/>
-      <c r="CZ28" s="139"/>
-      <c r="DA28" s="139"/>
-      <c r="DB28" s="139"/>
-      <c r="DC28" s="139"/>
-      <c r="DD28" s="139"/>
-      <c r="DE28" s="139"/>
-      <c r="DF28" s="139"/>
-      <c r="DG28" s="139"/>
-      <c r="DH28" s="139"/>
-      <c r="DI28" s="139"/>
-      <c r="DJ28" s="139"/>
-      <c r="DK28" s="139"/>
-      <c r="DL28" s="139"/>
-      <c r="DM28" s="139"/>
-      <c r="DN28" s="139"/>
-      <c r="DO28" s="139"/>
-      <c r="DP28" s="139"/>
-      <c r="DQ28" s="139"/>
-      <c r="DR28" s="139"/>
-      <c r="DS28" s="139"/>
-      <c r="DT28" s="139"/>
-      <c r="DU28" s="139"/>
-      <c r="DV28" s="139"/>
-      <c r="DW28" s="139"/>
-      <c r="DX28" s="139"/>
-      <c r="DY28" s="139"/>
-      <c r="DZ28" s="139"/>
-      <c r="EA28" s="139"/>
-      <c r="EB28" s="139"/>
-      <c r="EC28" s="139"/>
-      <c r="ED28" s="139"/>
-      <c r="EE28" s="139"/>
-      <c r="EF28" s="139"/>
-      <c r="EG28" s="139"/>
-      <c r="EH28" s="139"/>
-      <c r="EI28" s="139"/>
-      <c r="EJ28" s="139"/>
-      <c r="EK28" s="139"/>
-      <c r="EL28" s="139"/>
-      <c r="EM28" s="139"/>
-      <c r="EN28" s="139"/>
-      <c r="EO28" s="139"/>
-      <c r="EP28" s="139"/>
-      <c r="EQ28" s="139"/>
-      <c r="ER28" s="139"/>
-      <c r="ES28" s="139"/>
-      <c r="ET28" s="139"/>
-      <c r="EU28" s="139"/>
-      <c r="EV28" s="139"/>
-      <c r="EW28" s="139"/>
-      <c r="EX28" s="139"/>
-      <c r="EY28" s="139"/>
-      <c r="EZ28" s="139"/>
-      <c r="FA28" s="139"/>
-      <c r="FB28" s="139"/>
-      <c r="FC28" s="139"/>
-      <c r="FD28" s="139"/>
-      <c r="FE28" s="139"/>
-      <c r="FF28" s="139"/>
-      <c r="FG28" s="139"/>
-      <c r="FH28" s="139"/>
-      <c r="FI28" s="139"/>
-      <c r="FJ28" s="139"/>
-      <c r="FK28" s="139"/>
-      <c r="FL28" s="139"/>
-      <c r="FM28" s="139"/>
-      <c r="FN28" s="139"/>
-      <c r="FO28" s="139"/>
-      <c r="FP28" s="139"/>
-      <c r="FQ28" s="139"/>
-      <c r="FR28" s="139"/>
-      <c r="FS28" s="139"/>
-      <c r="FT28" s="139"/>
-      <c r="FU28" s="139"/>
-      <c r="FV28" s="139"/>
-      <c r="FW28" s="139"/>
-      <c r="FX28" s="139"/>
-      <c r="FY28" s="139"/>
-      <c r="FZ28" s="139"/>
-      <c r="GA28" s="139"/>
-      <c r="GB28" s="139"/>
-      <c r="GC28" s="139"/>
-      <c r="GD28" s="139"/>
-      <c r="GE28" s="139"/>
-      <c r="GF28" s="139"/>
-      <c r="GG28" s="139"/>
-      <c r="GH28" s="139"/>
-      <c r="GI28" s="139"/>
-      <c r="GJ28" s="139"/>
-      <c r="GK28" s="139"/>
-      <c r="GL28" s="139"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="119"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="140"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="120"/>
       <c r="L30" s="120"/>
       <c r="M30" s="120"/>
@@ -4927,16 +4908,16 @@
       <c r="R30" s="120"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="120"/>
       <c r="L31" s="120"/>
       <c r="M31" s="120"/>
@@ -4948,6 +4929,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4961,28 +4964,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5009,14 +4990,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5209,11 +5190,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="206" t="s">
+      <c r="E27" s="204" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="208"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="206"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5537,10 +5518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5551,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5567,8 +5548,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5607,36 +5588,36 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="127">
+      <c r="A5" s="126">
         <v>1</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="127">
         <v>1</v>
       </c>
       <c r="C5" s="37">
         <v>42401</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="E5" s="166" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="90">
@@ -5647,12 +5628,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="91">
@@ -5663,12 +5644,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="92">
@@ -5679,12 +5660,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="93">
@@ -5695,12 +5676,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="94">
@@ -5711,12 +5692,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="95">
@@ -5727,12 +5708,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="96">
@@ -5743,12 +5724,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="97">
@@ -5759,12 +5740,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="98">
@@ -5775,12 +5756,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5791,12 +5772,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="90">
@@ -5807,12 +5788,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="91">
@@ -5823,12 +5804,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="92">
@@ -5839,12 +5820,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="93">
@@ -5855,12 +5836,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="94">
@@ -5871,12 +5852,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="95">
@@ -5887,12 +5868,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="96">
@@ -5903,12 +5884,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="97">
@@ -5919,12 +5900,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="98">
@@ -5935,12 +5916,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5951,12 +5932,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5967,12 +5948,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="90">
@@ -5983,12 +5964,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="91">
@@ -5999,12 +5980,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="92">
@@ -6015,12 +5996,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="93">
@@ -6031,12 +6012,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="94">
@@ -6047,12 +6028,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="95">
@@ -6063,12 +6044,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="96">
@@ -6079,12 +6060,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="97">
@@ -6095,12 +6076,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="98">
@@ -6111,12 +6092,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6127,12 +6108,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="90">
@@ -6143,12 +6124,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="91">
@@ -6159,12 +6140,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="92">
@@ -6175,12 +6156,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="93">
@@ -6191,12 +6172,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="94">
@@ -6207,12 +6188,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="95">
@@ -6223,23 +6204,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6255,23 +6245,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6297,7 +6278,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6316,10 +6297,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6349,8 +6330,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6380,20 +6361,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="174" t="s">
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="175"/>
+      <c r="J4" s="173"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6404,10 +6385,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="183" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="184"/>
+      <c r="I5" s="181" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="182"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6418,8 +6399,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="184"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6430,8 +6411,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="184"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6442,8 +6423,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6454,8 +6435,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6466,8 +6447,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="188"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6478,10 +6459,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6492,10 +6473,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="177" t="s">
+      <c r="I12" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="J12" s="178"/>
+      <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6506,8 +6487,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="180"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6518,8 +6499,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="180"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="178"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6530,8 +6511,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="180"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6542,8 +6523,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="180"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6554,8 +6535,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="180"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="178"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6566,8 +6547,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="180"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="178"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6578,8 +6559,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="180"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="178"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6590,8 +6571,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="180"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6602,8 +6583,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="180"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6614,8 +6595,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="180"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="178"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6626,8 +6607,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6638,8 +6619,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="180"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6650,8 +6631,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="180"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6662,8 +6643,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="180"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6674,8 +6655,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="178"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6686,8 +6667,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="180"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="178"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6698,8 +6679,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="180"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6710,8 +6691,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="178"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6722,8 +6703,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="180"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="178"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6734,8 +6715,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6746,8 +6727,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="180"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="178"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6758,8 +6739,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6770,8 +6751,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="180"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6782,8 +6763,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="180"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="178"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6794,8 +6775,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="180"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="178"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6806,8 +6787,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="180"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="178"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6818,8 +6799,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="180"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="178"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6830,8 +6811,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="180"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="178"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6842,8 +6823,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="179"/>
-      <c r="J41" s="180"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="178"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6854,8 +6835,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="180"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6866,8 +6847,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="182"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6901,7 +6882,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:P2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6926,13 +6907,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6940,15 +6921,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="189" t="s">
+      <c r="H1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191" t="s">
-        <v>204</v>
-      </c>
-      <c r="K1" s="192"/>
-      <c r="L1" s="193"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="189" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="190"/>
+      <c r="L1" s="191"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6964,11 +6945,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6976,16 +6957,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="189" t="s">
+      <c r="H2" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="190"/>
-      <c r="J2" s="191" t="str">
+      <c r="I2" s="188"/>
+      <c r="J2" s="189" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng không phát sinh đơn hàng</v>
       </c>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7004,8 +6985,8 @@
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>210</v>
+      <c r="B4" s="132" t="s">
+        <v>206</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>162</v>
@@ -7064,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7096,11 +7077,13 @@
       <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="40" t="s">
         <v>169</v>
       </c>
@@ -7110,10 +7093,12 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="88"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135">
+        <v>1</v>
+      </c>
+      <c r="P6" s="135"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
@@ -7131,10 +7116,10 @@
       <c r="E7" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="135" t="s">
         <v>171</v>
       </c>
       <c r="H7" s="40" t="s">
@@ -7148,10 +7133,12 @@
       <c r="L7" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" s="135"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -7169,10 +7156,10 @@
       <c r="E8" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="135" t="s">
         <v>172</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -7186,10 +7173,12 @@
       <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="88"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="135"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -7204,11 +7193,13 @@
       <c r="D9" s="33">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="126" t="s">
+      <c r="E9" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="126"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="40" t="s">
         <v>169</v>
       </c>
@@ -7218,10 +7209,12 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135">
+        <v>0</v>
+      </c>
+      <c r="P9" s="135"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -7239,27 +7232,31 @@
       <c r="E10" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="135" t="s">
         <v>174</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="62"/>
+        <v>177</v>
+      </c>
+      <c r="J10" s="62">
+        <v>50</v>
+      </c>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
+      <c r="M10" s="135" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -7277,27 +7274,33 @@
       <c r="E11" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="135" t="s">
         <v>175</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
+      <c r="M11" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="135" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -7313,13 +7316,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="G12" s="135" t="s">
         <v>196</v>
-      </c>
-      <c r="G12" s="132" t="s">
-        <v>197</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>170</v>
@@ -7334,10 +7337,10 @@
       <c r="L12" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -7353,13 +7356,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="132" t="s">
-        <v>197</v>
+      <c r="G13" s="135" t="s">
+        <v>196</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>170</v>
@@ -7374,10 +7377,10 @@
       <c r="L13" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -7395,10 +7398,10 @@
       <c r="E14" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="132"/>
+      <c r="G14" s="135"/>
       <c r="H14" s="40" t="s">
         <v>168</v>
       </c>
@@ -7406,10 +7409,10 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7425,12 +7428,12 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" s="132"/>
+        <v>213</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="135"/>
       <c r="H15" s="40" t="s">
         <v>168</v>
       </c>
@@ -7438,10 +7441,10 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -7451,17 +7454,17 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -7471,17 +7474,17 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="59"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="40"/>
       <c r="M17" s="62"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8228,7 +8231,7 @@
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="G25:G53 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H9 H14:H53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H53 H5:H9">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
@@ -8251,7 +8254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
@@ -9216,7 +9219,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9242,10 +9245,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="123"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
@@ -9278,8 +9281,8 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="124"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
@@ -9315,8 +9318,8 @@
       <c r="A4" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>210</v>
+      <c r="B4" s="132" t="s">
+        <v>206</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>32</v>
@@ -9330,15 +9333,15 @@
       <c r="F4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="167" t="s">
+      <c r="G4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9351,44 +9354,34 @@
         <v>161</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="130" t="s">
-        <v>208</v>
+      <c r="E5" s="129" t="s">
+        <v>205</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="194" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="195"/>
-      <c r="I5" s="198" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="199"/>
-      <c r="K5" s="200"/>
+      <c r="G5" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="196"/>
+      <c r="I5" s="192" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="193"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33">
-        <v>51</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="130" t="s">
-        <v>134</v>
-      </c>
+      <c r="E6" s="129"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="194" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="199"/>
-      <c r="K6" s="200"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="194"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9399,11 +9392,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="200"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="194"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9414,11 +9407,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9429,11 +9422,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9444,11 +9437,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="200"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9459,11 +9452,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9474,11 +9467,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="200"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9489,11 +9482,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="200"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9504,11 +9497,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9519,11 +9512,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="200"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9534,11 +9527,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="200"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9549,11 +9542,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="200"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9564,11 +9557,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9579,11 +9572,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="200"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9594,11 +9587,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="200"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9609,11 +9602,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="200"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9624,11 +9617,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="200"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9639,11 +9632,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="200"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9654,11 +9647,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9669,11 +9662,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9684,11 +9677,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9699,11 +9692,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="200"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9714,11 +9707,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="200"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9729,11 +9722,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="200"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9744,11 +9737,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="200"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9759,11 +9752,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="200"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9774,11 +9767,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="200"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9796,11 +9789,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="200"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9818,11 +9811,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="200"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="194"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9840,11 +9833,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="200"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="194"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9862,11 +9855,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="200"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="194"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9884,11 +9877,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="200"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="194"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9906,11 +9899,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="200"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="193"/>
+      <c r="K38" s="194"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9928,11 +9921,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="200"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="193"/>
+      <c r="K39" s="194"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9950,11 +9943,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="200"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
+      <c r="K40" s="194"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9972,11 +9965,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="200"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="193"/>
+      <c r="K41" s="194"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9994,11 +9987,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
-      <c r="K42" s="200"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="194"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10016,11 +10009,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="200"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="194"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10038,11 +10031,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
-      <c r="K44" s="200"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="194"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10060,11 +10053,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="200"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
+      <c r="K45" s="194"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10082,11 +10075,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="200"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
+      <c r="K46" s="194"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10104,11 +10097,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
-      <c r="K47" s="200"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="194"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10126,11 +10119,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="200"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="194"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10148,11 +10141,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="200"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="194"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10170,11 +10163,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199"/>
-      <c r="K50" s="200"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="193"/>
+      <c r="K50" s="194"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10192,11 +10185,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199"/>
-      <c r="K51" s="200"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="192"/>
+      <c r="J51" s="193"/>
+      <c r="K51" s="194"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10214,11 +10207,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="200"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="193"/>
+      <c r="K52" s="194"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10236,11 +10229,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
-      <c r="K53" s="200"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="193"/>
+      <c r="K53" s="194"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10258,11 +10251,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="198"/>
-      <c r="J54" s="199"/>
-      <c r="K54" s="200"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="193"/>
+      <c r="K54" s="194"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10280,11 +10273,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="198"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="193"/>
+      <c r="K55" s="194"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10302,11 +10295,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="194"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10318,6 +10311,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -10332,99 +10418,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10442,8 +10435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10472,24 +10465,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="204" t="str">
+      <c r="J1" s="202" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="204"/>
+      <c r="K1" s="202"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10516,22 +10509,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="204" t="str">
+      <c r="J2" s="202" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="204"/>
+      <c r="K2" s="202"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10561,8 +10554,8 @@
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>210</v>
+      <c r="B4" s="132" t="s">
+        <v>206</v>
       </c>
       <c r="C4" s="122" t="s">
         <v>162</v>
@@ -10588,12 +10581,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="174" t="s">
+      <c r="K4" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="175"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="173"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10621,42 +10614,42 @@
         <v>161</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="134" t="s">
-        <v>212</v>
+      <c r="G5" s="135" t="s">
+        <v>221</v>
       </c>
       <c r="H5" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="131" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="201" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="203"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="201"/>
       <c r="O5" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="125" t="s">
         <v>188</v>
-      </c>
-      <c r="P5" s="125" t="s">
-        <v>189</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="134" t="s">
-        <v>212</v>
+        <v>189</v>
+      </c>
+      <c r="S5" s="135" t="s">
+        <v>208</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -10674,38 +10667,38 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="134" t="s">
-        <v>213</v>
+      <c r="G6" s="135" t="s">
+        <v>223</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="K6" s="201" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="203"/>
+        <v>222</v>
+      </c>
+      <c r="J6" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="199" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="201"/>
       <c r="O6" s="125" t="s">
         <v>134</v>
       </c>
       <c r="P6" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="S6" s="134" t="s">
-        <v>214</v>
+        <v>189</v>
+      </c>
+      <c r="S6" s="135" t="s">
+        <v>224</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10723,84 +10716,62 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="132" t="s">
-        <v>200</v>
+      <c r="G7" s="135" t="s">
+        <v>199</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="201" t="s">
-        <v>211</v>
-      </c>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="203"/>
+      <c r="J7" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="199" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="201"/>
       <c r="O7" s="125" t="s">
         <v>134</v>
       </c>
       <c r="P7" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="75"/>
       <c r="S7" s="82" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="120.75" customHeight="1">
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="33">
-        <v>51</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="201" t="s">
-        <v>219</v>
-      </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="R8" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>222</v>
-      </c>
+      <c r="G8" s="131"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="82"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -10817,10 +10788,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="82"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="203"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="201"/>
       <c r="O9" s="89"/>
       <c r="P9" s="89"/>
       <c r="Q9" s="76"/>
@@ -10842,10 +10813,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="202"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="203"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="201"/>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="76"/>
@@ -10867,10 +10838,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="203"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="201"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
       <c r="Q11" s="76"/>
@@ -10892,10 +10863,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
-      <c r="N12" s="203"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="201"/>
       <c r="O12" s="85"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="76"/>
@@ -10917,10 +10888,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="201"/>
       <c r="O13" s="85"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="76"/>
@@ -10942,10 +10913,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="203"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="201"/>
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
       <c r="Q14" s="76"/>
@@ -10967,10 +10938,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
-      <c r="M15" s="202"/>
-      <c r="N15" s="203"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="201"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -10992,10 +10963,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="202"/>
-      <c r="M16" s="202"/>
-      <c r="N16" s="203"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="201"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -11017,10 +10988,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="203"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="201"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -11042,10 +11013,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="203"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="201"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -11067,10 +11038,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="203"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="201"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -11092,10 +11063,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="202"/>
-      <c r="N20" s="203"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="201"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -11117,10 +11088,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="202"/>
-      <c r="M21" s="202"/>
-      <c r="N21" s="203"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="201"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -11142,10 +11113,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="203"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="201"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -11167,10 +11138,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="203"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="201"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -11192,10 +11163,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="203"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="201"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -11217,10 +11188,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="202"/>
-      <c r="M25" s="202"/>
-      <c r="N25" s="203"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="201"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -11242,10 +11213,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
-      <c r="N26" s="203"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="201"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -11267,10 +11238,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="202"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="203"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="201"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -11292,10 +11263,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="203"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="201"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -11317,10 +11288,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="203"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="201"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -11342,10 +11313,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="202"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="203"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="200"/>
+      <c r="N30" s="201"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -11367,10 +11338,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="200"/>
+      <c r="N31" s="201"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -11392,10 +11363,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="203"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="201"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -11417,10 +11388,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="203"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="201"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -11442,10 +11413,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="82"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="202"/>
-      <c r="M34" s="202"/>
-      <c r="N34" s="203"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="201"/>
       <c r="O34" s="85"/>
       <c r="P34" s="85"/>
       <c r="Q34" s="76"/>
@@ -11467,10 +11438,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="203"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="200"/>
+      <c r="M35" s="200"/>
+      <c r="N35" s="201"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -11492,10 +11463,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="203"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="200"/>
+      <c r="M36" s="200"/>
+      <c r="N36" s="201"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -11517,10 +11488,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="202"/>
-      <c r="M37" s="202"/>
-      <c r="N37" s="203"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="200"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="201"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -11542,10 +11513,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="202"/>
-      <c r="M38" s="202"/>
-      <c r="N38" s="203"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="200"/>
+      <c r="M38" s="200"/>
+      <c r="N38" s="201"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -11567,10 +11538,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="202"/>
-      <c r="M39" s="202"/>
-      <c r="N39" s="203"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="200"/>
+      <c r="M39" s="200"/>
+      <c r="N39" s="201"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -11592,10 +11563,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="202"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="203"/>
+      <c r="K40" s="199"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="200"/>
+      <c r="N40" s="201"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -11617,10 +11588,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="203"/>
+      <c r="K41" s="199"/>
+      <c r="L41" s="200"/>
+      <c r="M41" s="200"/>
+      <c r="N41" s="201"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -11642,10 +11613,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="201"/>
-      <c r="L42" s="202"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="203"/>
+      <c r="K42" s="199"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="200"/>
+      <c r="N42" s="201"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -11667,10 +11638,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="201"/>
-      <c r="L43" s="202"/>
-      <c r="M43" s="202"/>
-      <c r="N43" s="203"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="200"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="201"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -11692,10 +11663,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="201"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="202"/>
-      <c r="N44" s="203"/>
+      <c r="K44" s="199"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="201"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -11717,10 +11688,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="202"/>
-      <c r="M45" s="202"/>
-      <c r="N45" s="203"/>
+      <c r="K45" s="199"/>
+      <c r="L45" s="200"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="201"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -11742,10 +11713,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="201"/>
-      <c r="L46" s="202"/>
-      <c r="M46" s="202"/>
-      <c r="N46" s="203"/>
+      <c r="K46" s="199"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="201"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -11767,10 +11738,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="201"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="203"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="200"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="201"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -11792,10 +11763,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="201"/>
-      <c r="L48" s="202"/>
-      <c r="M48" s="202"/>
-      <c r="N48" s="203"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="200"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="201"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11817,10 +11788,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="201"/>
-      <c r="L49" s="202"/>
-      <c r="M49" s="202"/>
-      <c r="N49" s="203"/>
+      <c r="K49" s="199"/>
+      <c r="L49" s="200"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="201"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11842,10 +11813,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="201"/>
-      <c r="L50" s="202"/>
-      <c r="M50" s="202"/>
-      <c r="N50" s="203"/>
+      <c r="K50" s="199"/>
+      <c r="L50" s="200"/>
+      <c r="M50" s="200"/>
+      <c r="N50" s="201"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11867,10 +11838,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="202"/>
-      <c r="M51" s="202"/>
-      <c r="N51" s="203"/>
+      <c r="K51" s="199"/>
+      <c r="L51" s="200"/>
+      <c r="M51" s="200"/>
+      <c r="N51" s="201"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11892,10 +11863,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="202"/>
-      <c r="M52" s="202"/>
-      <c r="N52" s="203"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="200"/>
+      <c r="M52" s="200"/>
+      <c r="N52" s="201"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11917,10 +11888,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="201"/>
-      <c r="L53" s="202"/>
-      <c r="M53" s="202"/>
-      <c r="N53" s="203"/>
+      <c r="K53" s="199"/>
+      <c r="L53" s="200"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="201"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11942,10 +11913,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="202"/>
-      <c r="M54" s="202"/>
-      <c r="N54" s="203"/>
+      <c r="K54" s="199"/>
+      <c r="L54" s="200"/>
+      <c r="M54" s="200"/>
+      <c r="N54" s="201"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11967,10 +11938,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="201"/>
-      <c r="L55" s="202"/>
-      <c r="M55" s="202"/>
-      <c r="N55" s="203"/>
+      <c r="K55" s="199"/>
+      <c r="L55" s="200"/>
+      <c r="M55" s="200"/>
+      <c r="N55" s="201"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -11992,10 +11963,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="201"/>
-      <c r="L56" s="202"/>
-      <c r="M56" s="202"/>
-      <c r="N56" s="203"/>
+      <c r="K56" s="199"/>
+      <c r="L56" s="200"/>
+      <c r="M56" s="200"/>
+      <c r="N56" s="201"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -12017,10 +11988,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="201"/>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="K57" s="199"/>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200"/>
+      <c r="N57" s="201"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -12042,10 +12013,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="201"/>
-      <c r="L58" s="202"/>
-      <c r="M58" s="202"/>
-      <c r="N58" s="203"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="200"/>
+      <c r="M58" s="200"/>
+      <c r="N58" s="201"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -12067,10 +12038,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="201"/>
-      <c r="L59" s="202"/>
-      <c r="M59" s="202"/>
-      <c r="N59" s="203"/>
+      <c r="K59" s="199"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="201"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -12092,10 +12063,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="201"/>
-      <c r="L60" s="202"/>
-      <c r="M60" s="202"/>
-      <c r="N60" s="203"/>
+      <c r="K60" s="199"/>
+      <c r="L60" s="200"/>
+      <c r="M60" s="200"/>
+      <c r="N60" s="201"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -12117,10 +12088,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="201"/>
-      <c r="L61" s="202"/>
-      <c r="M61" s="202"/>
-      <c r="N61" s="203"/>
+      <c r="K61" s="199"/>
+      <c r="L61" s="200"/>
+      <c r="M61" s="200"/>
+      <c r="N61" s="201"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -12142,10 +12113,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="201"/>
-      <c r="L62" s="202"/>
-      <c r="M62" s="202"/>
-      <c r="N62" s="203"/>
+      <c r="K62" s="199"/>
+      <c r="L62" s="200"/>
+      <c r="M62" s="200"/>
+      <c r="N62" s="201"/>
       <c r="O62" s="84"/>
       <c r="P62" s="84"/>
       <c r="Q62" s="76"/>
@@ -12167,10 +12138,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="201"/>
-      <c r="L63" s="202"/>
-      <c r="M63" s="202"/>
-      <c r="N63" s="203"/>
+      <c r="K63" s="199"/>
+      <c r="L63" s="200"/>
+      <c r="M63" s="200"/>
+      <c r="N63" s="201"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -12191,10 +12162,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="201"/>
-      <c r="L64" s="202"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="203"/>
+      <c r="K64" s="199"/>
+      <c r="L64" s="200"/>
+      <c r="M64" s="200"/>
+      <c r="N64" s="201"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -12213,10 +12184,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="201"/>
-      <c r="L65" s="202"/>
-      <c r="M65" s="202"/>
-      <c r="N65" s="203"/>
+      <c r="K65" s="199"/>
+      <c r="L65" s="200"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="201"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -12235,10 +12206,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="201"/>
-      <c r="L66" s="202"/>
-      <c r="M66" s="202"/>
-      <c r="N66" s="203"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="200"/>
+      <c r="M66" s="200"/>
+      <c r="N66" s="201"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -12257,10 +12228,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="201"/>
-      <c r="L67" s="202"/>
-      <c r="M67" s="202"/>
-      <c r="N67" s="203"/>
+      <c r="K67" s="199"/>
+      <c r="L67" s="200"/>
+      <c r="M67" s="200"/>
+      <c r="N67" s="201"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -12279,10 +12250,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="201"/>
-      <c r="L68" s="202"/>
-      <c r="M68" s="202"/>
-      <c r="N68" s="203"/>
+      <c r="K68" s="199"/>
+      <c r="L68" s="200"/>
+      <c r="M68" s="200"/>
+      <c r="N68" s="201"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -12301,10 +12272,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="201"/>
-      <c r="L69" s="202"/>
-      <c r="M69" s="202"/>
-      <c r="N69" s="203"/>
+      <c r="K69" s="199"/>
+      <c r="L69" s="200"/>
+      <c r="M69" s="200"/>
+      <c r="N69" s="201"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -12323,10 +12294,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="201"/>
-      <c r="L70" s="202"/>
-      <c r="M70" s="202"/>
-      <c r="N70" s="203"/>
+      <c r="K70" s="199"/>
+      <c r="L70" s="200"/>
+      <c r="M70" s="200"/>
+      <c r="N70" s="201"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -12345,10 +12316,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="201"/>
-      <c r="L71" s="202"/>
-      <c r="M71" s="202"/>
-      <c r="N71" s="203"/>
+      <c r="K71" s="199"/>
+      <c r="L71" s="200"/>
+      <c r="M71" s="200"/>
+      <c r="N71" s="201"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -12367,10 +12338,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="201"/>
-      <c r="L72" s="202"/>
-      <c r="M72" s="202"/>
-      <c r="N72" s="203"/>
+      <c r="K72" s="199"/>
+      <c r="L72" s="200"/>
+      <c r="M72" s="200"/>
+      <c r="N72" s="201"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -12389,10 +12360,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="201"/>
-      <c r="L73" s="202"/>
-      <c r="M73" s="202"/>
-      <c r="N73" s="203"/>
+      <c r="K73" s="199"/>
+      <c r="L73" s="200"/>
+      <c r="M73" s="200"/>
+      <c r="N73" s="201"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -12411,10 +12382,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="201"/>
-      <c r="L74" s="202"/>
-      <c r="M74" s="202"/>
-      <c r="N74" s="203"/>
+      <c r="K74" s="199"/>
+      <c r="L74" s="200"/>
+      <c r="M74" s="200"/>
+      <c r="N74" s="201"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -12433,10 +12404,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="201"/>
-      <c r="L75" s="202"/>
-      <c r="M75" s="202"/>
-      <c r="N75" s="203"/>
+      <c r="K75" s="199"/>
+      <c r="L75" s="200"/>
+      <c r="M75" s="200"/>
+      <c r="N75" s="201"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -12455,10 +12426,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="201"/>
-      <c r="L76" s="202"/>
-      <c r="M76" s="202"/>
-      <c r="N76" s="203"/>
+      <c r="K76" s="199"/>
+      <c r="L76" s="200"/>
+      <c r="M76" s="200"/>
+      <c r="N76" s="201"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -12477,10 +12448,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="201"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="203"/>
+      <c r="K77" s="199"/>
+      <c r="L77" s="200"/>
+      <c r="M77" s="200"/>
+      <c r="N77" s="201"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -12499,10 +12470,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="201"/>
-      <c r="L78" s="202"/>
-      <c r="M78" s="202"/>
-      <c r="N78" s="203"/>
+      <c r="K78" s="199"/>
+      <c r="L78" s="200"/>
+      <c r="M78" s="200"/>
+      <c r="N78" s="201"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -12521,10 +12492,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="201"/>
-      <c r="L79" s="202"/>
-      <c r="M79" s="202"/>
-      <c r="N79" s="203"/>
+      <c r="K79" s="199"/>
+      <c r="L79" s="200"/>
+      <c r="M79" s="200"/>
+      <c r="N79" s="201"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -12543,10 +12514,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="201"/>
-      <c r="L80" s="202"/>
-      <c r="M80" s="202"/>
-      <c r="N80" s="203"/>
+      <c r="K80" s="199"/>
+      <c r="L80" s="200"/>
+      <c r="M80" s="200"/>
+      <c r="N80" s="201"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -12565,10 +12536,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="201"/>
-      <c r="L81" s="202"/>
-      <c r="M81" s="202"/>
-      <c r="N81" s="203"/>
+      <c r="K81" s="199"/>
+      <c r="L81" s="200"/>
+      <c r="M81" s="200"/>
+      <c r="N81" s="201"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -12587,10 +12558,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="201"/>
-      <c r="L82" s="202"/>
-      <c r="M82" s="202"/>
-      <c r="N82" s="203"/>
+      <c r="K82" s="199"/>
+      <c r="L82" s="200"/>
+      <c r="M82" s="200"/>
+      <c r="N82" s="201"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -12609,10 +12580,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="201"/>
-      <c r="L83" s="202"/>
-      <c r="M83" s="202"/>
-      <c r="N83" s="203"/>
+      <c r="K83" s="199"/>
+      <c r="L83" s="200"/>
+      <c r="M83" s="200"/>
+      <c r="N83" s="201"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -12631,10 +12602,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="201"/>
-      <c r="L84" s="202"/>
-      <c r="M84" s="202"/>
-      <c r="N84" s="203"/>
+      <c r="K84" s="199"/>
+      <c r="L84" s="200"/>
+      <c r="M84" s="200"/>
+      <c r="N84" s="201"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -12653,10 +12624,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="201"/>
-      <c r="L85" s="202"/>
-      <c r="M85" s="202"/>
-      <c r="N85" s="203"/>
+      <c r="K85" s="199"/>
+      <c r="L85" s="200"/>
+      <c r="M85" s="200"/>
+      <c r="N85" s="201"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -12675,10 +12646,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="201"/>
-      <c r="L86" s="202"/>
-      <c r="M86" s="202"/>
-      <c r="N86" s="203"/>
+      <c r="K86" s="199"/>
+      <c r="L86" s="200"/>
+      <c r="M86" s="200"/>
+      <c r="N86" s="201"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -12697,10 +12668,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="201"/>
-      <c r="L87" s="202"/>
-      <c r="M87" s="202"/>
-      <c r="N87" s="203"/>
+      <c r="K87" s="199"/>
+      <c r="L87" s="200"/>
+      <c r="M87" s="200"/>
+      <c r="N87" s="201"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -12719,10 +12690,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="201"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="202"/>
-      <c r="N88" s="203"/>
+      <c r="K88" s="199"/>
+      <c r="L88" s="200"/>
+      <c r="M88" s="200"/>
+      <c r="N88" s="201"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -12741,10 +12712,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="201"/>
-      <c r="L89" s="202"/>
-      <c r="M89" s="202"/>
-      <c r="N89" s="203"/>
+      <c r="K89" s="199"/>
+      <c r="L89" s="200"/>
+      <c r="M89" s="200"/>
+      <c r="N89" s="201"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -12763,10 +12734,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="201"/>
-      <c r="L90" s="202"/>
-      <c r="M90" s="202"/>
-      <c r="N90" s="203"/>
+      <c r="K90" s="199"/>
+      <c r="L90" s="200"/>
+      <c r="M90" s="200"/>
+      <c r="N90" s="201"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12785,10 +12756,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="201"/>
-      <c r="L91" s="202"/>
-      <c r="M91" s="202"/>
-      <c r="N91" s="203"/>
+      <c r="K91" s="199"/>
+      <c r="L91" s="200"/>
+      <c r="M91" s="200"/>
+      <c r="N91" s="201"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12807,10 +12778,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="201"/>
-      <c r="L92" s="202"/>
-      <c r="M92" s="202"/>
-      <c r="N92" s="203"/>
+      <c r="K92" s="199"/>
+      <c r="L92" s="200"/>
+      <c r="M92" s="200"/>
+      <c r="N92" s="201"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12829,10 +12800,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="201"/>
-      <c r="L93" s="202"/>
-      <c r="M93" s="202"/>
-      <c r="N93" s="203"/>
+      <c r="K93" s="199"/>
+      <c r="L93" s="200"/>
+      <c r="M93" s="200"/>
+      <c r="N93" s="201"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12851,10 +12822,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="201"/>
-      <c r="L94" s="202"/>
-      <c r="M94" s="202"/>
-      <c r="N94" s="203"/>
+      <c r="K94" s="199"/>
+      <c r="L94" s="200"/>
+      <c r="M94" s="200"/>
+      <c r="N94" s="201"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12867,47 +12838,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -12924,43 +12891,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12990,7 +12961,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -13006,10 +12977,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13039,8 +13010,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13097,7 +13068,9 @@
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -13176,7 +13149,9 @@
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>227</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
       <c r="F12" s="43"/>
@@ -13226,7 +13201,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13238,7 +13213,9 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>229</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -13297,7 +13274,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -13334,12 +13311,8 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
-      <c r="A26" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>226</v>
-      </c>
+      <c r="A26" s="73"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -13352,7 +13325,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13621,26 +13594,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="80" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="207" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="208"/>
+      <c r="D49" s="208"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="208"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="208"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="208"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14081,8 +14054,9 @@
       <c r="J87" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B49:H50"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -14120,10 +14094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14153,8 +14127,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="RB">#REF!</definedName>
     <definedName name="RMG">#REF!</definedName>
@@ -2315,9 +2316,6 @@
     <t>Đổ nguồn DropdownCheckList đơn vị</t>
   </si>
   <si>
-    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMT3000 để mởi màn hình CRMF3040</t>
-  </si>
-  <si>
     <t>Click vào Link Báo cáo Khách hàng không phát sinh đơn hàng</t>
   </si>
   <si>
@@ -2331,58 +2329,61 @@
   </si>
   <si>
     <t>BttnClose</t>
+  </si>
+  <si>
+    <t>GetDate()</t>
+  </si>
+  <si>
+    <t>MM/YYYY</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
+  </si>
+  <si>
+    <t>Đổ nguồn DropdownChecklist đơn vị</t>
+  </si>
+  <si>
+    <t>ID SQL</t>
+  </si>
+  <si>
+    <t>Đổ nguồn combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Đổ nguồn Combobox chọn kỳ</t>
+  </si>
+  <si>
+    <t>Tham khảo sheet Code Standar</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
+  </si>
+  <si>
+    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
   </si>
   <si>
     <t>Menu [Báo cáo] -&gt; Page[Báo cáo biểu đồ _CRMF3000] 
 -&gt; Click vào Link Báo cáo KH mới theo nhân viên 
--&gt;Pop [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
-  </si>
-  <si>
-    <t>GetDate()</t>
-  </si>
-  <si>
-    <t>MM/YYYY</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu không chọn DivisionID thì mặt định truyền là biến môi trường </t>
-  </si>
-  <si>
-    <t>Đổ nguồn DropdownChecklist đơn vị</t>
-  </si>
-  <si>
-    <t>ID SQL</t>
-  </si>
-  <si>
-    <t>Đổ nguồn combobox chọn kỳ</t>
-  </si>
-  <si>
-    <t>Đổ nguồn Combobox chọn kỳ</t>
-  </si>
-  <si>
-    <t>Đổ nguồn Combobox Khách hàng phụ thuộc
-nếu DivisionID từ DropdownChecklist đơn vị rỗng thì truyền biến môi trường vào để load combobox, ngược lại khác rỗng thì truyền DivisionID từ DropdownChecklist đơn vị để load combobox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cho phép In báo cáo khách hàng không phát sinh đơn hàng </t>
-  </si>
-  <si>
-    <t>Tham khảo sheet Code Standar</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
-  </si>
-  <si>
-    <t>Click vào Button In thực hiện truyền các tham số trên màn hình vào Store CRMP30401 để mở tab mới Load màn hình view trước khi In
-Tham khảo thêm Store CRMP30401</t>
+-&gt;Popup [Báo cáo khách hàng mới theo nhân viên_CRMF3010]</t>
+  </si>
+  <si>
+    <t>Nhận tham số @FormID từ màn hình Báo cáo biểu đồ CRMF3000 để mởi màn hình CRMF3040</t>
+  </si>
+  <si>
+    <t>- Nếu [Đơn vị]= Null thì Dùng @DivisionID = Biến môi trường
+- Nếu [Đơn vị] != Null thì Dùng @DivisionID = danh sách Dropdown [Đơn vị]</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click vào Button In thực hiện truyền các tham số trên màn hình vào Store CRMP30401(Tham khảo bên màn hình CRMR30401) mở tab mới Load màn hình view trước khi In
+</t>
+  </si>
+  <si>
+    <t>Cho phép người tùy chỉnh điều kiện lọc báo cáo theo yêu cầu.</t>
   </si>
 </sst>
 </file>
@@ -3107,9 +3108,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3247,9 +3245,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3295,23 +3314,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3352,9 +3356,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3416,6 +3417,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3424,18 +3437,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3448,6 +3449,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3459,12 +3466,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3940,1017 +3941,995 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="115" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="115" customWidth="1"/>
-    <col min="3" max="5" width="8" style="115"/>
-    <col min="6" max="6" width="61.7109375" style="115" customWidth="1"/>
-    <col min="7" max="7" width="8" style="115"/>
-    <col min="8" max="8" width="8" style="115" customWidth="1"/>
-    <col min="9" max="256" width="8" style="115"/>
-    <col min="257" max="257" width="10.28515625" style="115" customWidth="1"/>
-    <col min="258" max="258" width="13.42578125" style="115" customWidth="1"/>
-    <col min="259" max="261" width="8" style="115"/>
-    <col min="262" max="262" width="61.7109375" style="115" customWidth="1"/>
-    <col min="263" max="263" width="8" style="115"/>
-    <col min="264" max="264" width="8" style="115" customWidth="1"/>
-    <col min="265" max="512" width="8" style="115"/>
-    <col min="513" max="513" width="10.28515625" style="115" customWidth="1"/>
-    <col min="514" max="514" width="13.42578125" style="115" customWidth="1"/>
-    <col min="515" max="517" width="8" style="115"/>
-    <col min="518" max="518" width="61.7109375" style="115" customWidth="1"/>
-    <col min="519" max="519" width="8" style="115"/>
-    <col min="520" max="520" width="8" style="115" customWidth="1"/>
-    <col min="521" max="768" width="8" style="115"/>
-    <col min="769" max="769" width="10.28515625" style="115" customWidth="1"/>
-    <col min="770" max="770" width="13.42578125" style="115" customWidth="1"/>
-    <col min="771" max="773" width="8" style="115"/>
-    <col min="774" max="774" width="61.7109375" style="115" customWidth="1"/>
-    <col min="775" max="775" width="8" style="115"/>
-    <col min="776" max="776" width="8" style="115" customWidth="1"/>
-    <col min="777" max="1024" width="8" style="115"/>
-    <col min="1025" max="1025" width="10.28515625" style="115" customWidth="1"/>
-    <col min="1026" max="1026" width="13.42578125" style="115" customWidth="1"/>
-    <col min="1027" max="1029" width="8" style="115"/>
-    <col min="1030" max="1030" width="61.7109375" style="115" customWidth="1"/>
-    <col min="1031" max="1031" width="8" style="115"/>
-    <col min="1032" max="1032" width="8" style="115" customWidth="1"/>
-    <col min="1033" max="1280" width="8" style="115"/>
-    <col min="1281" max="1281" width="10.28515625" style="115" customWidth="1"/>
-    <col min="1282" max="1282" width="13.42578125" style="115" customWidth="1"/>
-    <col min="1283" max="1285" width="8" style="115"/>
-    <col min="1286" max="1286" width="61.7109375" style="115" customWidth="1"/>
-    <col min="1287" max="1287" width="8" style="115"/>
-    <col min="1288" max="1288" width="8" style="115" customWidth="1"/>
-    <col min="1289" max="1536" width="8" style="115"/>
-    <col min="1537" max="1537" width="10.28515625" style="115" customWidth="1"/>
-    <col min="1538" max="1538" width="13.42578125" style="115" customWidth="1"/>
-    <col min="1539" max="1541" width="8" style="115"/>
-    <col min="1542" max="1542" width="61.7109375" style="115" customWidth="1"/>
-    <col min="1543" max="1543" width="8" style="115"/>
-    <col min="1544" max="1544" width="8" style="115" customWidth="1"/>
-    <col min="1545" max="1792" width="8" style="115"/>
-    <col min="1793" max="1793" width="10.28515625" style="115" customWidth="1"/>
-    <col min="1794" max="1794" width="13.42578125" style="115" customWidth="1"/>
-    <col min="1795" max="1797" width="8" style="115"/>
-    <col min="1798" max="1798" width="61.7109375" style="115" customWidth="1"/>
-    <col min="1799" max="1799" width="8" style="115"/>
-    <col min="1800" max="1800" width="8" style="115" customWidth="1"/>
-    <col min="1801" max="2048" width="8" style="115"/>
-    <col min="2049" max="2049" width="10.28515625" style="115" customWidth="1"/>
-    <col min="2050" max="2050" width="13.42578125" style="115" customWidth="1"/>
-    <col min="2051" max="2053" width="8" style="115"/>
-    <col min="2054" max="2054" width="61.7109375" style="115" customWidth="1"/>
-    <col min="2055" max="2055" width="8" style="115"/>
-    <col min="2056" max="2056" width="8" style="115" customWidth="1"/>
-    <col min="2057" max="2304" width="8" style="115"/>
-    <col min="2305" max="2305" width="10.28515625" style="115" customWidth="1"/>
-    <col min="2306" max="2306" width="13.42578125" style="115" customWidth="1"/>
-    <col min="2307" max="2309" width="8" style="115"/>
-    <col min="2310" max="2310" width="61.7109375" style="115" customWidth="1"/>
-    <col min="2311" max="2311" width="8" style="115"/>
-    <col min="2312" max="2312" width="8" style="115" customWidth="1"/>
-    <col min="2313" max="2560" width="8" style="115"/>
-    <col min="2561" max="2561" width="10.28515625" style="115" customWidth="1"/>
-    <col min="2562" max="2562" width="13.42578125" style="115" customWidth="1"/>
-    <col min="2563" max="2565" width="8" style="115"/>
-    <col min="2566" max="2566" width="61.7109375" style="115" customWidth="1"/>
-    <col min="2567" max="2567" width="8" style="115"/>
-    <col min="2568" max="2568" width="8" style="115" customWidth="1"/>
-    <col min="2569" max="2816" width="8" style="115"/>
-    <col min="2817" max="2817" width="10.28515625" style="115" customWidth="1"/>
-    <col min="2818" max="2818" width="13.42578125" style="115" customWidth="1"/>
-    <col min="2819" max="2821" width="8" style="115"/>
-    <col min="2822" max="2822" width="61.7109375" style="115" customWidth="1"/>
-    <col min="2823" max="2823" width="8" style="115"/>
-    <col min="2824" max="2824" width="8" style="115" customWidth="1"/>
-    <col min="2825" max="3072" width="8" style="115"/>
-    <col min="3073" max="3073" width="10.28515625" style="115" customWidth="1"/>
-    <col min="3074" max="3074" width="13.42578125" style="115" customWidth="1"/>
-    <col min="3075" max="3077" width="8" style="115"/>
-    <col min="3078" max="3078" width="61.7109375" style="115" customWidth="1"/>
-    <col min="3079" max="3079" width="8" style="115"/>
-    <col min="3080" max="3080" width="8" style="115" customWidth="1"/>
-    <col min="3081" max="3328" width="8" style="115"/>
-    <col min="3329" max="3329" width="10.28515625" style="115" customWidth="1"/>
-    <col min="3330" max="3330" width="13.42578125" style="115" customWidth="1"/>
-    <col min="3331" max="3333" width="8" style="115"/>
-    <col min="3334" max="3334" width="61.7109375" style="115" customWidth="1"/>
-    <col min="3335" max="3335" width="8" style="115"/>
-    <col min="3336" max="3336" width="8" style="115" customWidth="1"/>
-    <col min="3337" max="3584" width="8" style="115"/>
-    <col min="3585" max="3585" width="10.28515625" style="115" customWidth="1"/>
-    <col min="3586" max="3586" width="13.42578125" style="115" customWidth="1"/>
-    <col min="3587" max="3589" width="8" style="115"/>
-    <col min="3590" max="3590" width="61.7109375" style="115" customWidth="1"/>
-    <col min="3591" max="3591" width="8" style="115"/>
-    <col min="3592" max="3592" width="8" style="115" customWidth="1"/>
-    <col min="3593" max="3840" width="8" style="115"/>
-    <col min="3841" max="3841" width="10.28515625" style="115" customWidth="1"/>
-    <col min="3842" max="3842" width="13.42578125" style="115" customWidth="1"/>
-    <col min="3843" max="3845" width="8" style="115"/>
-    <col min="3846" max="3846" width="61.7109375" style="115" customWidth="1"/>
-    <col min="3847" max="3847" width="8" style="115"/>
-    <col min="3848" max="3848" width="8" style="115" customWidth="1"/>
-    <col min="3849" max="4096" width="8" style="115"/>
-    <col min="4097" max="4097" width="10.28515625" style="115" customWidth="1"/>
-    <col min="4098" max="4098" width="13.42578125" style="115" customWidth="1"/>
-    <col min="4099" max="4101" width="8" style="115"/>
-    <col min="4102" max="4102" width="61.7109375" style="115" customWidth="1"/>
-    <col min="4103" max="4103" width="8" style="115"/>
-    <col min="4104" max="4104" width="8" style="115" customWidth="1"/>
-    <col min="4105" max="4352" width="8" style="115"/>
-    <col min="4353" max="4353" width="10.28515625" style="115" customWidth="1"/>
-    <col min="4354" max="4354" width="13.42578125" style="115" customWidth="1"/>
-    <col min="4355" max="4357" width="8" style="115"/>
-    <col min="4358" max="4358" width="61.7109375" style="115" customWidth="1"/>
-    <col min="4359" max="4359" width="8" style="115"/>
-    <col min="4360" max="4360" width="8" style="115" customWidth="1"/>
-    <col min="4361" max="4608" width="8" style="115"/>
-    <col min="4609" max="4609" width="10.28515625" style="115" customWidth="1"/>
-    <col min="4610" max="4610" width="13.42578125" style="115" customWidth="1"/>
-    <col min="4611" max="4613" width="8" style="115"/>
-    <col min="4614" max="4614" width="61.7109375" style="115" customWidth="1"/>
-    <col min="4615" max="4615" width="8" style="115"/>
-    <col min="4616" max="4616" width="8" style="115" customWidth="1"/>
-    <col min="4617" max="4864" width="8" style="115"/>
-    <col min="4865" max="4865" width="10.28515625" style="115" customWidth="1"/>
-    <col min="4866" max="4866" width="13.42578125" style="115" customWidth="1"/>
-    <col min="4867" max="4869" width="8" style="115"/>
-    <col min="4870" max="4870" width="61.7109375" style="115" customWidth="1"/>
-    <col min="4871" max="4871" width="8" style="115"/>
-    <col min="4872" max="4872" width="8" style="115" customWidth="1"/>
-    <col min="4873" max="5120" width="8" style="115"/>
-    <col min="5121" max="5121" width="10.28515625" style="115" customWidth="1"/>
-    <col min="5122" max="5122" width="13.42578125" style="115" customWidth="1"/>
-    <col min="5123" max="5125" width="8" style="115"/>
-    <col min="5126" max="5126" width="61.7109375" style="115" customWidth="1"/>
-    <col min="5127" max="5127" width="8" style="115"/>
-    <col min="5128" max="5128" width="8" style="115" customWidth="1"/>
-    <col min="5129" max="5376" width="8" style="115"/>
-    <col min="5377" max="5377" width="10.28515625" style="115" customWidth="1"/>
-    <col min="5378" max="5378" width="13.42578125" style="115" customWidth="1"/>
-    <col min="5379" max="5381" width="8" style="115"/>
-    <col min="5382" max="5382" width="61.7109375" style="115" customWidth="1"/>
-    <col min="5383" max="5383" width="8" style="115"/>
-    <col min="5384" max="5384" width="8" style="115" customWidth="1"/>
-    <col min="5385" max="5632" width="8" style="115"/>
-    <col min="5633" max="5633" width="10.28515625" style="115" customWidth="1"/>
-    <col min="5634" max="5634" width="13.42578125" style="115" customWidth="1"/>
-    <col min="5635" max="5637" width="8" style="115"/>
-    <col min="5638" max="5638" width="61.7109375" style="115" customWidth="1"/>
-    <col min="5639" max="5639" width="8" style="115"/>
-    <col min="5640" max="5640" width="8" style="115" customWidth="1"/>
-    <col min="5641" max="5888" width="8" style="115"/>
-    <col min="5889" max="5889" width="10.28515625" style="115" customWidth="1"/>
-    <col min="5890" max="5890" width="13.42578125" style="115" customWidth="1"/>
-    <col min="5891" max="5893" width="8" style="115"/>
-    <col min="5894" max="5894" width="61.7109375" style="115" customWidth="1"/>
-    <col min="5895" max="5895" width="8" style="115"/>
-    <col min="5896" max="5896" width="8" style="115" customWidth="1"/>
-    <col min="5897" max="6144" width="8" style="115"/>
-    <col min="6145" max="6145" width="10.28515625" style="115" customWidth="1"/>
-    <col min="6146" max="6146" width="13.42578125" style="115" customWidth="1"/>
-    <col min="6147" max="6149" width="8" style="115"/>
-    <col min="6150" max="6150" width="61.7109375" style="115" customWidth="1"/>
-    <col min="6151" max="6151" width="8" style="115"/>
-    <col min="6152" max="6152" width="8" style="115" customWidth="1"/>
-    <col min="6153" max="6400" width="8" style="115"/>
-    <col min="6401" max="6401" width="10.28515625" style="115" customWidth="1"/>
-    <col min="6402" max="6402" width="13.42578125" style="115" customWidth="1"/>
-    <col min="6403" max="6405" width="8" style="115"/>
-    <col min="6406" max="6406" width="61.7109375" style="115" customWidth="1"/>
-    <col min="6407" max="6407" width="8" style="115"/>
-    <col min="6408" max="6408" width="8" style="115" customWidth="1"/>
-    <col min="6409" max="6656" width="8" style="115"/>
-    <col min="6657" max="6657" width="10.28515625" style="115" customWidth="1"/>
-    <col min="6658" max="6658" width="13.42578125" style="115" customWidth="1"/>
-    <col min="6659" max="6661" width="8" style="115"/>
-    <col min="6662" max="6662" width="61.7109375" style="115" customWidth="1"/>
-    <col min="6663" max="6663" width="8" style="115"/>
-    <col min="6664" max="6664" width="8" style="115" customWidth="1"/>
-    <col min="6665" max="6912" width="8" style="115"/>
-    <col min="6913" max="6913" width="10.28515625" style="115" customWidth="1"/>
-    <col min="6914" max="6914" width="13.42578125" style="115" customWidth="1"/>
-    <col min="6915" max="6917" width="8" style="115"/>
-    <col min="6918" max="6918" width="61.7109375" style="115" customWidth="1"/>
-    <col min="6919" max="6919" width="8" style="115"/>
-    <col min="6920" max="6920" width="8" style="115" customWidth="1"/>
-    <col min="6921" max="7168" width="8" style="115"/>
-    <col min="7169" max="7169" width="10.28515625" style="115" customWidth="1"/>
-    <col min="7170" max="7170" width="13.42578125" style="115" customWidth="1"/>
-    <col min="7171" max="7173" width="8" style="115"/>
-    <col min="7174" max="7174" width="61.7109375" style="115" customWidth="1"/>
-    <col min="7175" max="7175" width="8" style="115"/>
-    <col min="7176" max="7176" width="8" style="115" customWidth="1"/>
-    <col min="7177" max="7424" width="8" style="115"/>
-    <col min="7425" max="7425" width="10.28515625" style="115" customWidth="1"/>
-    <col min="7426" max="7426" width="13.42578125" style="115" customWidth="1"/>
-    <col min="7427" max="7429" width="8" style="115"/>
-    <col min="7430" max="7430" width="61.7109375" style="115" customWidth="1"/>
-    <col min="7431" max="7431" width="8" style="115"/>
-    <col min="7432" max="7432" width="8" style="115" customWidth="1"/>
-    <col min="7433" max="7680" width="8" style="115"/>
-    <col min="7681" max="7681" width="10.28515625" style="115" customWidth="1"/>
-    <col min="7682" max="7682" width="13.42578125" style="115" customWidth="1"/>
-    <col min="7683" max="7685" width="8" style="115"/>
-    <col min="7686" max="7686" width="61.7109375" style="115" customWidth="1"/>
-    <col min="7687" max="7687" width="8" style="115"/>
-    <col min="7688" max="7688" width="8" style="115" customWidth="1"/>
-    <col min="7689" max="7936" width="8" style="115"/>
-    <col min="7937" max="7937" width="10.28515625" style="115" customWidth="1"/>
-    <col min="7938" max="7938" width="13.42578125" style="115" customWidth="1"/>
-    <col min="7939" max="7941" width="8" style="115"/>
-    <col min="7942" max="7942" width="61.7109375" style="115" customWidth="1"/>
-    <col min="7943" max="7943" width="8" style="115"/>
-    <col min="7944" max="7944" width="8" style="115" customWidth="1"/>
-    <col min="7945" max="8192" width="8" style="115"/>
-    <col min="8193" max="8193" width="10.28515625" style="115" customWidth="1"/>
-    <col min="8194" max="8194" width="13.42578125" style="115" customWidth="1"/>
-    <col min="8195" max="8197" width="8" style="115"/>
-    <col min="8198" max="8198" width="61.7109375" style="115" customWidth="1"/>
-    <col min="8199" max="8199" width="8" style="115"/>
-    <col min="8200" max="8200" width="8" style="115" customWidth="1"/>
-    <col min="8201" max="8448" width="8" style="115"/>
-    <col min="8449" max="8449" width="10.28515625" style="115" customWidth="1"/>
-    <col min="8450" max="8450" width="13.42578125" style="115" customWidth="1"/>
-    <col min="8451" max="8453" width="8" style="115"/>
-    <col min="8454" max="8454" width="61.7109375" style="115" customWidth="1"/>
-    <col min="8455" max="8455" width="8" style="115"/>
-    <col min="8456" max="8456" width="8" style="115" customWidth="1"/>
-    <col min="8457" max="8704" width="8" style="115"/>
-    <col min="8705" max="8705" width="10.28515625" style="115" customWidth="1"/>
-    <col min="8706" max="8706" width="13.42578125" style="115" customWidth="1"/>
-    <col min="8707" max="8709" width="8" style="115"/>
-    <col min="8710" max="8710" width="61.7109375" style="115" customWidth="1"/>
-    <col min="8711" max="8711" width="8" style="115"/>
-    <col min="8712" max="8712" width="8" style="115" customWidth="1"/>
-    <col min="8713" max="8960" width="8" style="115"/>
-    <col min="8961" max="8961" width="10.28515625" style="115" customWidth="1"/>
-    <col min="8962" max="8962" width="13.42578125" style="115" customWidth="1"/>
-    <col min="8963" max="8965" width="8" style="115"/>
-    <col min="8966" max="8966" width="61.7109375" style="115" customWidth="1"/>
-    <col min="8967" max="8967" width="8" style="115"/>
-    <col min="8968" max="8968" width="8" style="115" customWidth="1"/>
-    <col min="8969" max="9216" width="8" style="115"/>
-    <col min="9217" max="9217" width="10.28515625" style="115" customWidth="1"/>
-    <col min="9218" max="9218" width="13.42578125" style="115" customWidth="1"/>
-    <col min="9219" max="9221" width="8" style="115"/>
-    <col min="9222" max="9222" width="61.7109375" style="115" customWidth="1"/>
-    <col min="9223" max="9223" width="8" style="115"/>
-    <col min="9224" max="9224" width="8" style="115" customWidth="1"/>
-    <col min="9225" max="9472" width="8" style="115"/>
-    <col min="9473" max="9473" width="10.28515625" style="115" customWidth="1"/>
-    <col min="9474" max="9474" width="13.42578125" style="115" customWidth="1"/>
-    <col min="9475" max="9477" width="8" style="115"/>
-    <col min="9478" max="9478" width="61.7109375" style="115" customWidth="1"/>
-    <col min="9479" max="9479" width="8" style="115"/>
-    <col min="9480" max="9480" width="8" style="115" customWidth="1"/>
-    <col min="9481" max="9728" width="8" style="115"/>
-    <col min="9729" max="9729" width="10.28515625" style="115" customWidth="1"/>
-    <col min="9730" max="9730" width="13.42578125" style="115" customWidth="1"/>
-    <col min="9731" max="9733" width="8" style="115"/>
-    <col min="9734" max="9734" width="61.7109375" style="115" customWidth="1"/>
-    <col min="9735" max="9735" width="8" style="115"/>
-    <col min="9736" max="9736" width="8" style="115" customWidth="1"/>
-    <col min="9737" max="9984" width="8" style="115"/>
-    <col min="9985" max="9985" width="10.28515625" style="115" customWidth="1"/>
-    <col min="9986" max="9986" width="13.42578125" style="115" customWidth="1"/>
-    <col min="9987" max="9989" width="8" style="115"/>
-    <col min="9990" max="9990" width="61.7109375" style="115" customWidth="1"/>
-    <col min="9991" max="9991" width="8" style="115"/>
-    <col min="9992" max="9992" width="8" style="115" customWidth="1"/>
-    <col min="9993" max="10240" width="8" style="115"/>
-    <col min="10241" max="10241" width="10.28515625" style="115" customWidth="1"/>
-    <col min="10242" max="10242" width="13.42578125" style="115" customWidth="1"/>
-    <col min="10243" max="10245" width="8" style="115"/>
-    <col min="10246" max="10246" width="61.7109375" style="115" customWidth="1"/>
-    <col min="10247" max="10247" width="8" style="115"/>
-    <col min="10248" max="10248" width="8" style="115" customWidth="1"/>
-    <col min="10249" max="10496" width="8" style="115"/>
-    <col min="10497" max="10497" width="10.28515625" style="115" customWidth="1"/>
-    <col min="10498" max="10498" width="13.42578125" style="115" customWidth="1"/>
-    <col min="10499" max="10501" width="8" style="115"/>
-    <col min="10502" max="10502" width="61.7109375" style="115" customWidth="1"/>
-    <col min="10503" max="10503" width="8" style="115"/>
-    <col min="10504" max="10504" width="8" style="115" customWidth="1"/>
-    <col min="10505" max="10752" width="8" style="115"/>
-    <col min="10753" max="10753" width="10.28515625" style="115" customWidth="1"/>
-    <col min="10754" max="10754" width="13.42578125" style="115" customWidth="1"/>
-    <col min="10755" max="10757" width="8" style="115"/>
-    <col min="10758" max="10758" width="61.7109375" style="115" customWidth="1"/>
-    <col min="10759" max="10759" width="8" style="115"/>
-    <col min="10760" max="10760" width="8" style="115" customWidth="1"/>
-    <col min="10761" max="11008" width="8" style="115"/>
-    <col min="11009" max="11009" width="10.28515625" style="115" customWidth="1"/>
-    <col min="11010" max="11010" width="13.42578125" style="115" customWidth="1"/>
-    <col min="11011" max="11013" width="8" style="115"/>
-    <col min="11014" max="11014" width="61.7109375" style="115" customWidth="1"/>
-    <col min="11015" max="11015" width="8" style="115"/>
-    <col min="11016" max="11016" width="8" style="115" customWidth="1"/>
-    <col min="11017" max="11264" width="8" style="115"/>
-    <col min="11265" max="11265" width="10.28515625" style="115" customWidth="1"/>
-    <col min="11266" max="11266" width="13.42578125" style="115" customWidth="1"/>
-    <col min="11267" max="11269" width="8" style="115"/>
-    <col min="11270" max="11270" width="61.7109375" style="115" customWidth="1"/>
-    <col min="11271" max="11271" width="8" style="115"/>
-    <col min="11272" max="11272" width="8" style="115" customWidth="1"/>
-    <col min="11273" max="11520" width="8" style="115"/>
-    <col min="11521" max="11521" width="10.28515625" style="115" customWidth="1"/>
-    <col min="11522" max="11522" width="13.42578125" style="115" customWidth="1"/>
-    <col min="11523" max="11525" width="8" style="115"/>
-    <col min="11526" max="11526" width="61.7109375" style="115" customWidth="1"/>
-    <col min="11527" max="11527" width="8" style="115"/>
-    <col min="11528" max="11528" width="8" style="115" customWidth="1"/>
-    <col min="11529" max="11776" width="8" style="115"/>
-    <col min="11777" max="11777" width="10.28515625" style="115" customWidth="1"/>
-    <col min="11778" max="11778" width="13.42578125" style="115" customWidth="1"/>
-    <col min="11779" max="11781" width="8" style="115"/>
-    <col min="11782" max="11782" width="61.7109375" style="115" customWidth="1"/>
-    <col min="11783" max="11783" width="8" style="115"/>
-    <col min="11784" max="11784" width="8" style="115" customWidth="1"/>
-    <col min="11785" max="12032" width="8" style="115"/>
-    <col min="12033" max="12033" width="10.28515625" style="115" customWidth="1"/>
-    <col min="12034" max="12034" width="13.42578125" style="115" customWidth="1"/>
-    <col min="12035" max="12037" width="8" style="115"/>
-    <col min="12038" max="12038" width="61.7109375" style="115" customWidth="1"/>
-    <col min="12039" max="12039" width="8" style="115"/>
-    <col min="12040" max="12040" width="8" style="115" customWidth="1"/>
-    <col min="12041" max="12288" width="8" style="115"/>
-    <col min="12289" max="12289" width="10.28515625" style="115" customWidth="1"/>
-    <col min="12290" max="12290" width="13.42578125" style="115" customWidth="1"/>
-    <col min="12291" max="12293" width="8" style="115"/>
-    <col min="12294" max="12294" width="61.7109375" style="115" customWidth="1"/>
-    <col min="12295" max="12295" width="8" style="115"/>
-    <col min="12296" max="12296" width="8" style="115" customWidth="1"/>
-    <col min="12297" max="12544" width="8" style="115"/>
-    <col min="12545" max="12545" width="10.28515625" style="115" customWidth="1"/>
-    <col min="12546" max="12546" width="13.42578125" style="115" customWidth="1"/>
-    <col min="12547" max="12549" width="8" style="115"/>
-    <col min="12550" max="12550" width="61.7109375" style="115" customWidth="1"/>
-    <col min="12551" max="12551" width="8" style="115"/>
-    <col min="12552" max="12552" width="8" style="115" customWidth="1"/>
-    <col min="12553" max="12800" width="8" style="115"/>
-    <col min="12801" max="12801" width="10.28515625" style="115" customWidth="1"/>
-    <col min="12802" max="12802" width="13.42578125" style="115" customWidth="1"/>
-    <col min="12803" max="12805" width="8" style="115"/>
-    <col min="12806" max="12806" width="61.7109375" style="115" customWidth="1"/>
-    <col min="12807" max="12807" width="8" style="115"/>
-    <col min="12808" max="12808" width="8" style="115" customWidth="1"/>
-    <col min="12809" max="13056" width="8" style="115"/>
-    <col min="13057" max="13057" width="10.28515625" style="115" customWidth="1"/>
-    <col min="13058" max="13058" width="13.42578125" style="115" customWidth="1"/>
-    <col min="13059" max="13061" width="8" style="115"/>
-    <col min="13062" max="13062" width="61.7109375" style="115" customWidth="1"/>
-    <col min="13063" max="13063" width="8" style="115"/>
-    <col min="13064" max="13064" width="8" style="115" customWidth="1"/>
-    <col min="13065" max="13312" width="8" style="115"/>
-    <col min="13313" max="13313" width="10.28515625" style="115" customWidth="1"/>
-    <col min="13314" max="13314" width="13.42578125" style="115" customWidth="1"/>
-    <col min="13315" max="13317" width="8" style="115"/>
-    <col min="13318" max="13318" width="61.7109375" style="115" customWidth="1"/>
-    <col min="13319" max="13319" width="8" style="115"/>
-    <col min="13320" max="13320" width="8" style="115" customWidth="1"/>
-    <col min="13321" max="13568" width="8" style="115"/>
-    <col min="13569" max="13569" width="10.28515625" style="115" customWidth="1"/>
-    <col min="13570" max="13570" width="13.42578125" style="115" customWidth="1"/>
-    <col min="13571" max="13573" width="8" style="115"/>
-    <col min="13574" max="13574" width="61.7109375" style="115" customWidth="1"/>
-    <col min="13575" max="13575" width="8" style="115"/>
-    <col min="13576" max="13576" width="8" style="115" customWidth="1"/>
-    <col min="13577" max="13824" width="8" style="115"/>
-    <col min="13825" max="13825" width="10.28515625" style="115" customWidth="1"/>
-    <col min="13826" max="13826" width="13.42578125" style="115" customWidth="1"/>
-    <col min="13827" max="13829" width="8" style="115"/>
-    <col min="13830" max="13830" width="61.7109375" style="115" customWidth="1"/>
-    <col min="13831" max="13831" width="8" style="115"/>
-    <col min="13832" max="13832" width="8" style="115" customWidth="1"/>
-    <col min="13833" max="14080" width="8" style="115"/>
-    <col min="14081" max="14081" width="10.28515625" style="115" customWidth="1"/>
-    <col min="14082" max="14082" width="13.42578125" style="115" customWidth="1"/>
-    <col min="14083" max="14085" width="8" style="115"/>
-    <col min="14086" max="14086" width="61.7109375" style="115" customWidth="1"/>
-    <col min="14087" max="14087" width="8" style="115"/>
-    <col min="14088" max="14088" width="8" style="115" customWidth="1"/>
-    <col min="14089" max="14336" width="8" style="115"/>
-    <col min="14337" max="14337" width="10.28515625" style="115" customWidth="1"/>
-    <col min="14338" max="14338" width="13.42578125" style="115" customWidth="1"/>
-    <col min="14339" max="14341" width="8" style="115"/>
-    <col min="14342" max="14342" width="61.7109375" style="115" customWidth="1"/>
-    <col min="14343" max="14343" width="8" style="115"/>
-    <col min="14344" max="14344" width="8" style="115" customWidth="1"/>
-    <col min="14345" max="14592" width="8" style="115"/>
-    <col min="14593" max="14593" width="10.28515625" style="115" customWidth="1"/>
-    <col min="14594" max="14594" width="13.42578125" style="115" customWidth="1"/>
-    <col min="14595" max="14597" width="8" style="115"/>
-    <col min="14598" max="14598" width="61.7109375" style="115" customWidth="1"/>
-    <col min="14599" max="14599" width="8" style="115"/>
-    <col min="14600" max="14600" width="8" style="115" customWidth="1"/>
-    <col min="14601" max="14848" width="8" style="115"/>
-    <col min="14849" max="14849" width="10.28515625" style="115" customWidth="1"/>
-    <col min="14850" max="14850" width="13.42578125" style="115" customWidth="1"/>
-    <col min="14851" max="14853" width="8" style="115"/>
-    <col min="14854" max="14854" width="61.7109375" style="115" customWidth="1"/>
-    <col min="14855" max="14855" width="8" style="115"/>
-    <col min="14856" max="14856" width="8" style="115" customWidth="1"/>
-    <col min="14857" max="15104" width="8" style="115"/>
-    <col min="15105" max="15105" width="10.28515625" style="115" customWidth="1"/>
-    <col min="15106" max="15106" width="13.42578125" style="115" customWidth="1"/>
-    <col min="15107" max="15109" width="8" style="115"/>
-    <col min="15110" max="15110" width="61.7109375" style="115" customWidth="1"/>
-    <col min="15111" max="15111" width="8" style="115"/>
-    <col min="15112" max="15112" width="8" style="115" customWidth="1"/>
-    <col min="15113" max="15360" width="8" style="115"/>
-    <col min="15361" max="15361" width="10.28515625" style="115" customWidth="1"/>
-    <col min="15362" max="15362" width="13.42578125" style="115" customWidth="1"/>
-    <col min="15363" max="15365" width="8" style="115"/>
-    <col min="15366" max="15366" width="61.7109375" style="115" customWidth="1"/>
-    <col min="15367" max="15367" width="8" style="115"/>
-    <col min="15368" max="15368" width="8" style="115" customWidth="1"/>
-    <col min="15369" max="15616" width="8" style="115"/>
-    <col min="15617" max="15617" width="10.28515625" style="115" customWidth="1"/>
-    <col min="15618" max="15618" width="13.42578125" style="115" customWidth="1"/>
-    <col min="15619" max="15621" width="8" style="115"/>
-    <col min="15622" max="15622" width="61.7109375" style="115" customWidth="1"/>
-    <col min="15623" max="15623" width="8" style="115"/>
-    <col min="15624" max="15624" width="8" style="115" customWidth="1"/>
-    <col min="15625" max="15872" width="8" style="115"/>
-    <col min="15873" max="15873" width="10.28515625" style="115" customWidth="1"/>
-    <col min="15874" max="15874" width="13.42578125" style="115" customWidth="1"/>
-    <col min="15875" max="15877" width="8" style="115"/>
-    <col min="15878" max="15878" width="61.7109375" style="115" customWidth="1"/>
-    <col min="15879" max="15879" width="8" style="115"/>
-    <col min="15880" max="15880" width="8" style="115" customWidth="1"/>
-    <col min="15881" max="16128" width="8" style="115"/>
-    <col min="16129" max="16129" width="10.28515625" style="115" customWidth="1"/>
-    <col min="16130" max="16130" width="13.42578125" style="115" customWidth="1"/>
-    <col min="16131" max="16133" width="8" style="115"/>
-    <col min="16134" max="16134" width="61.7109375" style="115" customWidth="1"/>
-    <col min="16135" max="16135" width="8" style="115"/>
-    <col min="16136" max="16136" width="8" style="115" customWidth="1"/>
-    <col min="16137" max="16384" width="8" style="115"/>
+    <col min="1" max="1" width="10.28515625" style="114" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="114" customWidth="1"/>
+    <col min="3" max="5" width="8" style="114"/>
+    <col min="6" max="6" width="61.7109375" style="114" customWidth="1"/>
+    <col min="7" max="7" width="8" style="114"/>
+    <col min="8" max="8" width="8" style="114" customWidth="1"/>
+    <col min="9" max="256" width="8" style="114"/>
+    <col min="257" max="257" width="10.28515625" style="114" customWidth="1"/>
+    <col min="258" max="258" width="13.42578125" style="114" customWidth="1"/>
+    <col min="259" max="261" width="8" style="114"/>
+    <col min="262" max="262" width="61.7109375" style="114" customWidth="1"/>
+    <col min="263" max="263" width="8" style="114"/>
+    <col min="264" max="264" width="8" style="114" customWidth="1"/>
+    <col min="265" max="512" width="8" style="114"/>
+    <col min="513" max="513" width="10.28515625" style="114" customWidth="1"/>
+    <col min="514" max="514" width="13.42578125" style="114" customWidth="1"/>
+    <col min="515" max="517" width="8" style="114"/>
+    <col min="518" max="518" width="61.7109375" style="114" customWidth="1"/>
+    <col min="519" max="519" width="8" style="114"/>
+    <col min="520" max="520" width="8" style="114" customWidth="1"/>
+    <col min="521" max="768" width="8" style="114"/>
+    <col min="769" max="769" width="10.28515625" style="114" customWidth="1"/>
+    <col min="770" max="770" width="13.42578125" style="114" customWidth="1"/>
+    <col min="771" max="773" width="8" style="114"/>
+    <col min="774" max="774" width="61.7109375" style="114" customWidth="1"/>
+    <col min="775" max="775" width="8" style="114"/>
+    <col min="776" max="776" width="8" style="114" customWidth="1"/>
+    <col min="777" max="1024" width="8" style="114"/>
+    <col min="1025" max="1025" width="10.28515625" style="114" customWidth="1"/>
+    <col min="1026" max="1026" width="13.42578125" style="114" customWidth="1"/>
+    <col min="1027" max="1029" width="8" style="114"/>
+    <col min="1030" max="1030" width="61.7109375" style="114" customWidth="1"/>
+    <col min="1031" max="1031" width="8" style="114"/>
+    <col min="1032" max="1032" width="8" style="114" customWidth="1"/>
+    <col min="1033" max="1280" width="8" style="114"/>
+    <col min="1281" max="1281" width="10.28515625" style="114" customWidth="1"/>
+    <col min="1282" max="1282" width="13.42578125" style="114" customWidth="1"/>
+    <col min="1283" max="1285" width="8" style="114"/>
+    <col min="1286" max="1286" width="61.7109375" style="114" customWidth="1"/>
+    <col min="1287" max="1287" width="8" style="114"/>
+    <col min="1288" max="1288" width="8" style="114" customWidth="1"/>
+    <col min="1289" max="1536" width="8" style="114"/>
+    <col min="1537" max="1537" width="10.28515625" style="114" customWidth="1"/>
+    <col min="1538" max="1538" width="13.42578125" style="114" customWidth="1"/>
+    <col min="1539" max="1541" width="8" style="114"/>
+    <col min="1542" max="1542" width="61.7109375" style="114" customWidth="1"/>
+    <col min="1543" max="1543" width="8" style="114"/>
+    <col min="1544" max="1544" width="8" style="114" customWidth="1"/>
+    <col min="1545" max="1792" width="8" style="114"/>
+    <col min="1793" max="1793" width="10.28515625" style="114" customWidth="1"/>
+    <col min="1794" max="1794" width="13.42578125" style="114" customWidth="1"/>
+    <col min="1795" max="1797" width="8" style="114"/>
+    <col min="1798" max="1798" width="61.7109375" style="114" customWidth="1"/>
+    <col min="1799" max="1799" width="8" style="114"/>
+    <col min="1800" max="1800" width="8" style="114" customWidth="1"/>
+    <col min="1801" max="2048" width="8" style="114"/>
+    <col min="2049" max="2049" width="10.28515625" style="114" customWidth="1"/>
+    <col min="2050" max="2050" width="13.42578125" style="114" customWidth="1"/>
+    <col min="2051" max="2053" width="8" style="114"/>
+    <col min="2054" max="2054" width="61.7109375" style="114" customWidth="1"/>
+    <col min="2055" max="2055" width="8" style="114"/>
+    <col min="2056" max="2056" width="8" style="114" customWidth="1"/>
+    <col min="2057" max="2304" width="8" style="114"/>
+    <col min="2305" max="2305" width="10.28515625" style="114" customWidth="1"/>
+    <col min="2306" max="2306" width="13.42578125" style="114" customWidth="1"/>
+    <col min="2307" max="2309" width="8" style="114"/>
+    <col min="2310" max="2310" width="61.7109375" style="114" customWidth="1"/>
+    <col min="2311" max="2311" width="8" style="114"/>
+    <col min="2312" max="2312" width="8" style="114" customWidth="1"/>
+    <col min="2313" max="2560" width="8" style="114"/>
+    <col min="2561" max="2561" width="10.28515625" style="114" customWidth="1"/>
+    <col min="2562" max="2562" width="13.42578125" style="114" customWidth="1"/>
+    <col min="2563" max="2565" width="8" style="114"/>
+    <col min="2566" max="2566" width="61.7109375" style="114" customWidth="1"/>
+    <col min="2567" max="2567" width="8" style="114"/>
+    <col min="2568" max="2568" width="8" style="114" customWidth="1"/>
+    <col min="2569" max="2816" width="8" style="114"/>
+    <col min="2817" max="2817" width="10.28515625" style="114" customWidth="1"/>
+    <col min="2818" max="2818" width="13.42578125" style="114" customWidth="1"/>
+    <col min="2819" max="2821" width="8" style="114"/>
+    <col min="2822" max="2822" width="61.7109375" style="114" customWidth="1"/>
+    <col min="2823" max="2823" width="8" style="114"/>
+    <col min="2824" max="2824" width="8" style="114" customWidth="1"/>
+    <col min="2825" max="3072" width="8" style="114"/>
+    <col min="3073" max="3073" width="10.28515625" style="114" customWidth="1"/>
+    <col min="3074" max="3074" width="13.42578125" style="114" customWidth="1"/>
+    <col min="3075" max="3077" width="8" style="114"/>
+    <col min="3078" max="3078" width="61.7109375" style="114" customWidth="1"/>
+    <col min="3079" max="3079" width="8" style="114"/>
+    <col min="3080" max="3080" width="8" style="114" customWidth="1"/>
+    <col min="3081" max="3328" width="8" style="114"/>
+    <col min="3329" max="3329" width="10.28515625" style="114" customWidth="1"/>
+    <col min="3330" max="3330" width="13.42578125" style="114" customWidth="1"/>
+    <col min="3331" max="3333" width="8" style="114"/>
+    <col min="3334" max="3334" width="61.7109375" style="114" customWidth="1"/>
+    <col min="3335" max="3335" width="8" style="114"/>
+    <col min="3336" max="3336" width="8" style="114" customWidth="1"/>
+    <col min="3337" max="3584" width="8" style="114"/>
+    <col min="3585" max="3585" width="10.28515625" style="114" customWidth="1"/>
+    <col min="3586" max="3586" width="13.42578125" style="114" customWidth="1"/>
+    <col min="3587" max="3589" width="8" style="114"/>
+    <col min="3590" max="3590" width="61.7109375" style="114" customWidth="1"/>
+    <col min="3591" max="3591" width="8" style="114"/>
+    <col min="3592" max="3592" width="8" style="114" customWidth="1"/>
+    <col min="3593" max="3840" width="8" style="114"/>
+    <col min="3841" max="3841" width="10.28515625" style="114" customWidth="1"/>
+    <col min="3842" max="3842" width="13.42578125" style="114" customWidth="1"/>
+    <col min="3843" max="3845" width="8" style="114"/>
+    <col min="3846" max="3846" width="61.7109375" style="114" customWidth="1"/>
+    <col min="3847" max="3847" width="8" style="114"/>
+    <col min="3848" max="3848" width="8" style="114" customWidth="1"/>
+    <col min="3849" max="4096" width="8" style="114"/>
+    <col min="4097" max="4097" width="10.28515625" style="114" customWidth="1"/>
+    <col min="4098" max="4098" width="13.42578125" style="114" customWidth="1"/>
+    <col min="4099" max="4101" width="8" style="114"/>
+    <col min="4102" max="4102" width="61.7109375" style="114" customWidth="1"/>
+    <col min="4103" max="4103" width="8" style="114"/>
+    <col min="4104" max="4104" width="8" style="114" customWidth="1"/>
+    <col min="4105" max="4352" width="8" style="114"/>
+    <col min="4353" max="4353" width="10.28515625" style="114" customWidth="1"/>
+    <col min="4354" max="4354" width="13.42578125" style="114" customWidth="1"/>
+    <col min="4355" max="4357" width="8" style="114"/>
+    <col min="4358" max="4358" width="61.7109375" style="114" customWidth="1"/>
+    <col min="4359" max="4359" width="8" style="114"/>
+    <col min="4360" max="4360" width="8" style="114" customWidth="1"/>
+    <col min="4361" max="4608" width="8" style="114"/>
+    <col min="4609" max="4609" width="10.28515625" style="114" customWidth="1"/>
+    <col min="4610" max="4610" width="13.42578125" style="114" customWidth="1"/>
+    <col min="4611" max="4613" width="8" style="114"/>
+    <col min="4614" max="4614" width="61.7109375" style="114" customWidth="1"/>
+    <col min="4615" max="4615" width="8" style="114"/>
+    <col min="4616" max="4616" width="8" style="114" customWidth="1"/>
+    <col min="4617" max="4864" width="8" style="114"/>
+    <col min="4865" max="4865" width="10.28515625" style="114" customWidth="1"/>
+    <col min="4866" max="4866" width="13.42578125" style="114" customWidth="1"/>
+    <col min="4867" max="4869" width="8" style="114"/>
+    <col min="4870" max="4870" width="61.7109375" style="114" customWidth="1"/>
+    <col min="4871" max="4871" width="8" style="114"/>
+    <col min="4872" max="4872" width="8" style="114" customWidth="1"/>
+    <col min="4873" max="5120" width="8" style="114"/>
+    <col min="5121" max="5121" width="10.28515625" style="114" customWidth="1"/>
+    <col min="5122" max="5122" width="13.42578125" style="114" customWidth="1"/>
+    <col min="5123" max="5125" width="8" style="114"/>
+    <col min="5126" max="5126" width="61.7109375" style="114" customWidth="1"/>
+    <col min="5127" max="5127" width="8" style="114"/>
+    <col min="5128" max="5128" width="8" style="114" customWidth="1"/>
+    <col min="5129" max="5376" width="8" style="114"/>
+    <col min="5377" max="5377" width="10.28515625" style="114" customWidth="1"/>
+    <col min="5378" max="5378" width="13.42578125" style="114" customWidth="1"/>
+    <col min="5379" max="5381" width="8" style="114"/>
+    <col min="5382" max="5382" width="61.7109375" style="114" customWidth="1"/>
+    <col min="5383" max="5383" width="8" style="114"/>
+    <col min="5384" max="5384" width="8" style="114" customWidth="1"/>
+    <col min="5385" max="5632" width="8" style="114"/>
+    <col min="5633" max="5633" width="10.28515625" style="114" customWidth="1"/>
+    <col min="5634" max="5634" width="13.42578125" style="114" customWidth="1"/>
+    <col min="5635" max="5637" width="8" style="114"/>
+    <col min="5638" max="5638" width="61.7109375" style="114" customWidth="1"/>
+    <col min="5639" max="5639" width="8" style="114"/>
+    <col min="5640" max="5640" width="8" style="114" customWidth="1"/>
+    <col min="5641" max="5888" width="8" style="114"/>
+    <col min="5889" max="5889" width="10.28515625" style="114" customWidth="1"/>
+    <col min="5890" max="5890" width="13.42578125" style="114" customWidth="1"/>
+    <col min="5891" max="5893" width="8" style="114"/>
+    <col min="5894" max="5894" width="61.7109375" style="114" customWidth="1"/>
+    <col min="5895" max="5895" width="8" style="114"/>
+    <col min="5896" max="5896" width="8" style="114" customWidth="1"/>
+    <col min="5897" max="6144" width="8" style="114"/>
+    <col min="6145" max="6145" width="10.28515625" style="114" customWidth="1"/>
+    <col min="6146" max="6146" width="13.42578125" style="114" customWidth="1"/>
+    <col min="6147" max="6149" width="8" style="114"/>
+    <col min="6150" max="6150" width="61.7109375" style="114" customWidth="1"/>
+    <col min="6151" max="6151" width="8" style="114"/>
+    <col min="6152" max="6152" width="8" style="114" customWidth="1"/>
+    <col min="6153" max="6400" width="8" style="114"/>
+    <col min="6401" max="6401" width="10.28515625" style="114" customWidth="1"/>
+    <col min="6402" max="6402" width="13.42578125" style="114" customWidth="1"/>
+    <col min="6403" max="6405" width="8" style="114"/>
+    <col min="6406" max="6406" width="61.7109375" style="114" customWidth="1"/>
+    <col min="6407" max="6407" width="8" style="114"/>
+    <col min="6408" max="6408" width="8" style="114" customWidth="1"/>
+    <col min="6409" max="6656" width="8" style="114"/>
+    <col min="6657" max="6657" width="10.28515625" style="114" customWidth="1"/>
+    <col min="6658" max="6658" width="13.42578125" style="114" customWidth="1"/>
+    <col min="6659" max="6661" width="8" style="114"/>
+    <col min="6662" max="6662" width="61.7109375" style="114" customWidth="1"/>
+    <col min="6663" max="6663" width="8" style="114"/>
+    <col min="6664" max="6664" width="8" style="114" customWidth="1"/>
+    <col min="6665" max="6912" width="8" style="114"/>
+    <col min="6913" max="6913" width="10.28515625" style="114" customWidth="1"/>
+    <col min="6914" max="6914" width="13.42578125" style="114" customWidth="1"/>
+    <col min="6915" max="6917" width="8" style="114"/>
+    <col min="6918" max="6918" width="61.7109375" style="114" customWidth="1"/>
+    <col min="6919" max="6919" width="8" style="114"/>
+    <col min="6920" max="6920" width="8" style="114" customWidth="1"/>
+    <col min="6921" max="7168" width="8" style="114"/>
+    <col min="7169" max="7169" width="10.28515625" style="114" customWidth="1"/>
+    <col min="7170" max="7170" width="13.42578125" style="114" customWidth="1"/>
+    <col min="7171" max="7173" width="8" style="114"/>
+    <col min="7174" max="7174" width="61.7109375" style="114" customWidth="1"/>
+    <col min="7175" max="7175" width="8" style="114"/>
+    <col min="7176" max="7176" width="8" style="114" customWidth="1"/>
+    <col min="7177" max="7424" width="8" style="114"/>
+    <col min="7425" max="7425" width="10.28515625" style="114" customWidth="1"/>
+    <col min="7426" max="7426" width="13.42578125" style="114" customWidth="1"/>
+    <col min="7427" max="7429" width="8" style="114"/>
+    <col min="7430" max="7430" width="61.7109375" style="114" customWidth="1"/>
+    <col min="7431" max="7431" width="8" style="114"/>
+    <col min="7432" max="7432" width="8" style="114" customWidth="1"/>
+    <col min="7433" max="7680" width="8" style="114"/>
+    <col min="7681" max="7681" width="10.28515625" style="114" customWidth="1"/>
+    <col min="7682" max="7682" width="13.42578125" style="114" customWidth="1"/>
+    <col min="7683" max="7685" width="8" style="114"/>
+    <col min="7686" max="7686" width="61.7109375" style="114" customWidth="1"/>
+    <col min="7687" max="7687" width="8" style="114"/>
+    <col min="7688" max="7688" width="8" style="114" customWidth="1"/>
+    <col min="7689" max="7936" width="8" style="114"/>
+    <col min="7937" max="7937" width="10.28515625" style="114" customWidth="1"/>
+    <col min="7938" max="7938" width="13.42578125" style="114" customWidth="1"/>
+    <col min="7939" max="7941" width="8" style="114"/>
+    <col min="7942" max="7942" width="61.7109375" style="114" customWidth="1"/>
+    <col min="7943" max="7943" width="8" style="114"/>
+    <col min="7944" max="7944" width="8" style="114" customWidth="1"/>
+    <col min="7945" max="8192" width="8" style="114"/>
+    <col min="8193" max="8193" width="10.28515625" style="114" customWidth="1"/>
+    <col min="8194" max="8194" width="13.42578125" style="114" customWidth="1"/>
+    <col min="8195" max="8197" width="8" style="114"/>
+    <col min="8198" max="8198" width="61.7109375" style="114" customWidth="1"/>
+    <col min="8199" max="8199" width="8" style="114"/>
+    <col min="8200" max="8200" width="8" style="114" customWidth="1"/>
+    <col min="8201" max="8448" width="8" style="114"/>
+    <col min="8449" max="8449" width="10.28515625" style="114" customWidth="1"/>
+    <col min="8450" max="8450" width="13.42578125" style="114" customWidth="1"/>
+    <col min="8451" max="8453" width="8" style="114"/>
+    <col min="8454" max="8454" width="61.7109375" style="114" customWidth="1"/>
+    <col min="8455" max="8455" width="8" style="114"/>
+    <col min="8456" max="8456" width="8" style="114" customWidth="1"/>
+    <col min="8457" max="8704" width="8" style="114"/>
+    <col min="8705" max="8705" width="10.28515625" style="114" customWidth="1"/>
+    <col min="8706" max="8706" width="13.42578125" style="114" customWidth="1"/>
+    <col min="8707" max="8709" width="8" style="114"/>
+    <col min="8710" max="8710" width="61.7109375" style="114" customWidth="1"/>
+    <col min="8711" max="8711" width="8" style="114"/>
+    <col min="8712" max="8712" width="8" style="114" customWidth="1"/>
+    <col min="8713" max="8960" width="8" style="114"/>
+    <col min="8961" max="8961" width="10.28515625" style="114" customWidth="1"/>
+    <col min="8962" max="8962" width="13.42578125" style="114" customWidth="1"/>
+    <col min="8963" max="8965" width="8" style="114"/>
+    <col min="8966" max="8966" width="61.7109375" style="114" customWidth="1"/>
+    <col min="8967" max="8967" width="8" style="114"/>
+    <col min="8968" max="8968" width="8" style="114" customWidth="1"/>
+    <col min="8969" max="9216" width="8" style="114"/>
+    <col min="9217" max="9217" width="10.28515625" style="114" customWidth="1"/>
+    <col min="9218" max="9218" width="13.42578125" style="114" customWidth="1"/>
+    <col min="9219" max="9221" width="8" style="114"/>
+    <col min="9222" max="9222" width="61.7109375" style="114" customWidth="1"/>
+    <col min="9223" max="9223" width="8" style="114"/>
+    <col min="9224" max="9224" width="8" style="114" customWidth="1"/>
+    <col min="9225" max="9472" width="8" style="114"/>
+    <col min="9473" max="9473" width="10.28515625" style="114" customWidth="1"/>
+    <col min="9474" max="9474" width="13.42578125" style="114" customWidth="1"/>
+    <col min="9475" max="9477" width="8" style="114"/>
+    <col min="9478" max="9478" width="61.7109375" style="114" customWidth="1"/>
+    <col min="9479" max="9479" width="8" style="114"/>
+    <col min="9480" max="9480" width="8" style="114" customWidth="1"/>
+    <col min="9481" max="9728" width="8" style="114"/>
+    <col min="9729" max="9729" width="10.28515625" style="114" customWidth="1"/>
+    <col min="9730" max="9730" width="13.42578125" style="114" customWidth="1"/>
+    <col min="9731" max="9733" width="8" style="114"/>
+    <col min="9734" max="9734" width="61.7109375" style="114" customWidth="1"/>
+    <col min="9735" max="9735" width="8" style="114"/>
+    <col min="9736" max="9736" width="8" style="114" customWidth="1"/>
+    <col min="9737" max="9984" width="8" style="114"/>
+    <col min="9985" max="9985" width="10.28515625" style="114" customWidth="1"/>
+    <col min="9986" max="9986" width="13.42578125" style="114" customWidth="1"/>
+    <col min="9987" max="9989" width="8" style="114"/>
+    <col min="9990" max="9990" width="61.7109375" style="114" customWidth="1"/>
+    <col min="9991" max="9991" width="8" style="114"/>
+    <col min="9992" max="9992" width="8" style="114" customWidth="1"/>
+    <col min="9993" max="10240" width="8" style="114"/>
+    <col min="10241" max="10241" width="10.28515625" style="114" customWidth="1"/>
+    <col min="10242" max="10242" width="13.42578125" style="114" customWidth="1"/>
+    <col min="10243" max="10245" width="8" style="114"/>
+    <col min="10246" max="10246" width="61.7109375" style="114" customWidth="1"/>
+    <col min="10247" max="10247" width="8" style="114"/>
+    <col min="10248" max="10248" width="8" style="114" customWidth="1"/>
+    <col min="10249" max="10496" width="8" style="114"/>
+    <col min="10497" max="10497" width="10.28515625" style="114" customWidth="1"/>
+    <col min="10498" max="10498" width="13.42578125" style="114" customWidth="1"/>
+    <col min="10499" max="10501" width="8" style="114"/>
+    <col min="10502" max="10502" width="61.7109375" style="114" customWidth="1"/>
+    <col min="10503" max="10503" width="8" style="114"/>
+    <col min="10504" max="10504" width="8" style="114" customWidth="1"/>
+    <col min="10505" max="10752" width="8" style="114"/>
+    <col min="10753" max="10753" width="10.28515625" style="114" customWidth="1"/>
+    <col min="10754" max="10754" width="13.42578125" style="114" customWidth="1"/>
+    <col min="10755" max="10757" width="8" style="114"/>
+    <col min="10758" max="10758" width="61.7109375" style="114" customWidth="1"/>
+    <col min="10759" max="10759" width="8" style="114"/>
+    <col min="10760" max="10760" width="8" style="114" customWidth="1"/>
+    <col min="10761" max="11008" width="8" style="114"/>
+    <col min="11009" max="11009" width="10.28515625" style="114" customWidth="1"/>
+    <col min="11010" max="11010" width="13.42578125" style="114" customWidth="1"/>
+    <col min="11011" max="11013" width="8" style="114"/>
+    <col min="11014" max="11014" width="61.7109375" style="114" customWidth="1"/>
+    <col min="11015" max="11015" width="8" style="114"/>
+    <col min="11016" max="11016" width="8" style="114" customWidth="1"/>
+    <col min="11017" max="11264" width="8" style="114"/>
+    <col min="11265" max="11265" width="10.28515625" style="114" customWidth="1"/>
+    <col min="11266" max="11266" width="13.42578125" style="114" customWidth="1"/>
+    <col min="11267" max="11269" width="8" style="114"/>
+    <col min="11270" max="11270" width="61.7109375" style="114" customWidth="1"/>
+    <col min="11271" max="11271" width="8" style="114"/>
+    <col min="11272" max="11272" width="8" style="114" customWidth="1"/>
+    <col min="11273" max="11520" width="8" style="114"/>
+    <col min="11521" max="11521" width="10.28515625" style="114" customWidth="1"/>
+    <col min="11522" max="11522" width="13.42578125" style="114" customWidth="1"/>
+    <col min="11523" max="11525" width="8" style="114"/>
+    <col min="11526" max="11526" width="61.7109375" style="114" customWidth="1"/>
+    <col min="11527" max="11527" width="8" style="114"/>
+    <col min="11528" max="11528" width="8" style="114" customWidth="1"/>
+    <col min="11529" max="11776" width="8" style="114"/>
+    <col min="11777" max="11777" width="10.28515625" style="114" customWidth="1"/>
+    <col min="11778" max="11778" width="13.42578125" style="114" customWidth="1"/>
+    <col min="11779" max="11781" width="8" style="114"/>
+    <col min="11782" max="11782" width="61.7109375" style="114" customWidth="1"/>
+    <col min="11783" max="11783" width="8" style="114"/>
+    <col min="11784" max="11784" width="8" style="114" customWidth="1"/>
+    <col min="11785" max="12032" width="8" style="114"/>
+    <col min="12033" max="12033" width="10.28515625" style="114" customWidth="1"/>
+    <col min="12034" max="12034" width="13.42578125" style="114" customWidth="1"/>
+    <col min="12035" max="12037" width="8" style="114"/>
+    <col min="12038" max="12038" width="61.7109375" style="114" customWidth="1"/>
+    <col min="12039" max="12039" width="8" style="114"/>
+    <col min="12040" max="12040" width="8" style="114" customWidth="1"/>
+    <col min="12041" max="12288" width="8" style="114"/>
+    <col min="12289" max="12289" width="10.28515625" style="114" customWidth="1"/>
+    <col min="12290" max="12290" width="13.42578125" style="114" customWidth="1"/>
+    <col min="12291" max="12293" width="8" style="114"/>
+    <col min="12294" max="12294" width="61.7109375" style="114" customWidth="1"/>
+    <col min="12295" max="12295" width="8" style="114"/>
+    <col min="12296" max="12296" width="8" style="114" customWidth="1"/>
+    <col min="12297" max="12544" width="8" style="114"/>
+    <col min="12545" max="12545" width="10.28515625" style="114" customWidth="1"/>
+    <col min="12546" max="12546" width="13.42578125" style="114" customWidth="1"/>
+    <col min="12547" max="12549" width="8" style="114"/>
+    <col min="12550" max="12550" width="61.7109375" style="114" customWidth="1"/>
+    <col min="12551" max="12551" width="8" style="114"/>
+    <col min="12552" max="12552" width="8" style="114" customWidth="1"/>
+    <col min="12553" max="12800" width="8" style="114"/>
+    <col min="12801" max="12801" width="10.28515625" style="114" customWidth="1"/>
+    <col min="12802" max="12802" width="13.42578125" style="114" customWidth="1"/>
+    <col min="12803" max="12805" width="8" style="114"/>
+    <col min="12806" max="12806" width="61.7109375" style="114" customWidth="1"/>
+    <col min="12807" max="12807" width="8" style="114"/>
+    <col min="12808" max="12808" width="8" style="114" customWidth="1"/>
+    <col min="12809" max="13056" width="8" style="114"/>
+    <col min="13057" max="13057" width="10.28515625" style="114" customWidth="1"/>
+    <col min="13058" max="13058" width="13.42578125" style="114" customWidth="1"/>
+    <col min="13059" max="13061" width="8" style="114"/>
+    <col min="13062" max="13062" width="61.7109375" style="114" customWidth="1"/>
+    <col min="13063" max="13063" width="8" style="114"/>
+    <col min="13064" max="13064" width="8" style="114" customWidth="1"/>
+    <col min="13065" max="13312" width="8" style="114"/>
+    <col min="13313" max="13313" width="10.28515625" style="114" customWidth="1"/>
+    <col min="13314" max="13314" width="13.42578125" style="114" customWidth="1"/>
+    <col min="13315" max="13317" width="8" style="114"/>
+    <col min="13318" max="13318" width="61.7109375" style="114" customWidth="1"/>
+    <col min="13319" max="13319" width="8" style="114"/>
+    <col min="13320" max="13320" width="8" style="114" customWidth="1"/>
+    <col min="13321" max="13568" width="8" style="114"/>
+    <col min="13569" max="13569" width="10.28515625" style="114" customWidth="1"/>
+    <col min="13570" max="13570" width="13.42578125" style="114" customWidth="1"/>
+    <col min="13571" max="13573" width="8" style="114"/>
+    <col min="13574" max="13574" width="61.7109375" style="114" customWidth="1"/>
+    <col min="13575" max="13575" width="8" style="114"/>
+    <col min="13576" max="13576" width="8" style="114" customWidth="1"/>
+    <col min="13577" max="13824" width="8" style="114"/>
+    <col min="13825" max="13825" width="10.28515625" style="114" customWidth="1"/>
+    <col min="13826" max="13826" width="13.42578125" style="114" customWidth="1"/>
+    <col min="13827" max="13829" width="8" style="114"/>
+    <col min="13830" max="13830" width="61.7109375" style="114" customWidth="1"/>
+    <col min="13831" max="13831" width="8" style="114"/>
+    <col min="13832" max="13832" width="8" style="114" customWidth="1"/>
+    <col min="13833" max="14080" width="8" style="114"/>
+    <col min="14081" max="14081" width="10.28515625" style="114" customWidth="1"/>
+    <col min="14082" max="14082" width="13.42578125" style="114" customWidth="1"/>
+    <col min="14083" max="14085" width="8" style="114"/>
+    <col min="14086" max="14086" width="61.7109375" style="114" customWidth="1"/>
+    <col min="14087" max="14087" width="8" style="114"/>
+    <col min="14088" max="14088" width="8" style="114" customWidth="1"/>
+    <col min="14089" max="14336" width="8" style="114"/>
+    <col min="14337" max="14337" width="10.28515625" style="114" customWidth="1"/>
+    <col min="14338" max="14338" width="13.42578125" style="114" customWidth="1"/>
+    <col min="14339" max="14341" width="8" style="114"/>
+    <col min="14342" max="14342" width="61.7109375" style="114" customWidth="1"/>
+    <col min="14343" max="14343" width="8" style="114"/>
+    <col min="14344" max="14344" width="8" style="114" customWidth="1"/>
+    <col min="14345" max="14592" width="8" style="114"/>
+    <col min="14593" max="14593" width="10.28515625" style="114" customWidth="1"/>
+    <col min="14594" max="14594" width="13.42578125" style="114" customWidth="1"/>
+    <col min="14595" max="14597" width="8" style="114"/>
+    <col min="14598" max="14598" width="61.7109375" style="114" customWidth="1"/>
+    <col min="14599" max="14599" width="8" style="114"/>
+    <col min="14600" max="14600" width="8" style="114" customWidth="1"/>
+    <col min="14601" max="14848" width="8" style="114"/>
+    <col min="14849" max="14849" width="10.28515625" style="114" customWidth="1"/>
+    <col min="14850" max="14850" width="13.42578125" style="114" customWidth="1"/>
+    <col min="14851" max="14853" width="8" style="114"/>
+    <col min="14854" max="14854" width="61.7109375" style="114" customWidth="1"/>
+    <col min="14855" max="14855" width="8" style="114"/>
+    <col min="14856" max="14856" width="8" style="114" customWidth="1"/>
+    <col min="14857" max="15104" width="8" style="114"/>
+    <col min="15105" max="15105" width="10.28515625" style="114" customWidth="1"/>
+    <col min="15106" max="15106" width="13.42578125" style="114" customWidth="1"/>
+    <col min="15107" max="15109" width="8" style="114"/>
+    <col min="15110" max="15110" width="61.7109375" style="114" customWidth="1"/>
+    <col min="15111" max="15111" width="8" style="114"/>
+    <col min="15112" max="15112" width="8" style="114" customWidth="1"/>
+    <col min="15113" max="15360" width="8" style="114"/>
+    <col min="15361" max="15361" width="10.28515625" style="114" customWidth="1"/>
+    <col min="15362" max="15362" width="13.42578125" style="114" customWidth="1"/>
+    <col min="15363" max="15365" width="8" style="114"/>
+    <col min="15366" max="15366" width="61.7109375" style="114" customWidth="1"/>
+    <col min="15367" max="15367" width="8" style="114"/>
+    <col min="15368" max="15368" width="8" style="114" customWidth="1"/>
+    <col min="15369" max="15616" width="8" style="114"/>
+    <col min="15617" max="15617" width="10.28515625" style="114" customWidth="1"/>
+    <col min="15618" max="15618" width="13.42578125" style="114" customWidth="1"/>
+    <col min="15619" max="15621" width="8" style="114"/>
+    <col min="15622" max="15622" width="61.7109375" style="114" customWidth="1"/>
+    <col min="15623" max="15623" width="8" style="114"/>
+    <col min="15624" max="15624" width="8" style="114" customWidth="1"/>
+    <col min="15625" max="15872" width="8" style="114"/>
+    <col min="15873" max="15873" width="10.28515625" style="114" customWidth="1"/>
+    <col min="15874" max="15874" width="13.42578125" style="114" customWidth="1"/>
+    <col min="15875" max="15877" width="8" style="114"/>
+    <col min="15878" max="15878" width="61.7109375" style="114" customWidth="1"/>
+    <col min="15879" max="15879" width="8" style="114"/>
+    <col min="15880" max="15880" width="8" style="114" customWidth="1"/>
+    <col min="15881" max="16128" width="8" style="114"/>
+    <col min="16129" max="16129" width="10.28515625" style="114" customWidth="1"/>
+    <col min="16130" max="16130" width="13.42578125" style="114" customWidth="1"/>
+    <col min="16131" max="16133" width="8" style="114"/>
+    <col min="16134" max="16134" width="61.7109375" style="114" customWidth="1"/>
+    <col min="16135" max="16135" width="8" style="114"/>
+    <col min="16136" max="16136" width="8" style="114" customWidth="1"/>
+    <col min="16137" max="16384" width="8" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="H4" s="116"/>
+      <c r="H4" s="115"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
-      <c r="GM28" s="119"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
+      <c r="AY28" s="137"/>
+      <c r="AZ28" s="137"/>
+      <c r="BA28" s="137"/>
+      <c r="BB28" s="137"/>
+      <c r="BC28" s="137"/>
+      <c r="BD28" s="137"/>
+      <c r="BE28" s="137"/>
+      <c r="BF28" s="137"/>
+      <c r="BG28" s="137"/>
+      <c r="BH28" s="137"/>
+      <c r="BI28" s="137"/>
+      <c r="BJ28" s="137"/>
+      <c r="BK28" s="137"/>
+      <c r="BL28" s="137"/>
+      <c r="BM28" s="137"/>
+      <c r="BN28" s="137"/>
+      <c r="BO28" s="137"/>
+      <c r="BP28" s="137"/>
+      <c r="BQ28" s="137"/>
+      <c r="BR28" s="137"/>
+      <c r="BS28" s="137"/>
+      <c r="BT28" s="137"/>
+      <c r="BU28" s="137"/>
+      <c r="BV28" s="137"/>
+      <c r="BW28" s="137"/>
+      <c r="BX28" s="137"/>
+      <c r="BY28" s="137"/>
+      <c r="BZ28" s="137"/>
+      <c r="CA28" s="137"/>
+      <c r="CB28" s="137"/>
+      <c r="CC28" s="137"/>
+      <c r="CD28" s="137"/>
+      <c r="CE28" s="137"/>
+      <c r="CF28" s="137"/>
+      <c r="CG28" s="137"/>
+      <c r="CH28" s="137"/>
+      <c r="CI28" s="137"/>
+      <c r="CJ28" s="137"/>
+      <c r="CK28" s="137"/>
+      <c r="CL28" s="137"/>
+      <c r="CM28" s="137"/>
+      <c r="CN28" s="137"/>
+      <c r="CO28" s="137"/>
+      <c r="CP28" s="137"/>
+      <c r="CQ28" s="137"/>
+      <c r="CR28" s="137"/>
+      <c r="CS28" s="137"/>
+      <c r="CT28" s="137"/>
+      <c r="CU28" s="137"/>
+      <c r="CV28" s="137"/>
+      <c r="CW28" s="137"/>
+      <c r="CX28" s="137"/>
+      <c r="CY28" s="137"/>
+      <c r="CZ28" s="137"/>
+      <c r="DA28" s="137"/>
+      <c r="DB28" s="137"/>
+      <c r="DC28" s="137"/>
+      <c r="DD28" s="137"/>
+      <c r="DE28" s="137"/>
+      <c r="DF28" s="137"/>
+      <c r="DG28" s="137"/>
+      <c r="DH28" s="137"/>
+      <c r="DI28" s="137"/>
+      <c r="DJ28" s="137"/>
+      <c r="DK28" s="137"/>
+      <c r="DL28" s="137"/>
+      <c r="DM28" s="137"/>
+      <c r="DN28" s="137"/>
+      <c r="DO28" s="137"/>
+      <c r="DP28" s="137"/>
+      <c r="DQ28" s="137"/>
+      <c r="DR28" s="137"/>
+      <c r="DS28" s="137"/>
+      <c r="DT28" s="137"/>
+      <c r="DU28" s="137"/>
+      <c r="DV28" s="137"/>
+      <c r="DW28" s="137"/>
+      <c r="DX28" s="137"/>
+      <c r="DY28" s="137"/>
+      <c r="DZ28" s="137"/>
+      <c r="EA28" s="137"/>
+      <c r="EB28" s="137"/>
+      <c r="EC28" s="137"/>
+      <c r="ED28" s="137"/>
+      <c r="EE28" s="137"/>
+      <c r="EF28" s="137"/>
+      <c r="EG28" s="137"/>
+      <c r="EH28" s="137"/>
+      <c r="EI28" s="137"/>
+      <c r="EJ28" s="137"/>
+      <c r="EK28" s="137"/>
+      <c r="EL28" s="137"/>
+      <c r="EM28" s="137"/>
+      <c r="EN28" s="137"/>
+      <c r="EO28" s="137"/>
+      <c r="EP28" s="137"/>
+      <c r="EQ28" s="137"/>
+      <c r="ER28" s="137"/>
+      <c r="ES28" s="137"/>
+      <c r="ET28" s="137"/>
+      <c r="EU28" s="137"/>
+      <c r="EV28" s="137"/>
+      <c r="EW28" s="137"/>
+      <c r="EX28" s="137"/>
+      <c r="EY28" s="137"/>
+      <c r="EZ28" s="137"/>
+      <c r="FA28" s="137"/>
+      <c r="FB28" s="137"/>
+      <c r="FC28" s="137"/>
+      <c r="FD28" s="137"/>
+      <c r="FE28" s="137"/>
+      <c r="FF28" s="137"/>
+      <c r="FG28" s="137"/>
+      <c r="FH28" s="137"/>
+      <c r="FI28" s="137"/>
+      <c r="FJ28" s="137"/>
+      <c r="FK28" s="137"/>
+      <c r="FL28" s="137"/>
+      <c r="FM28" s="137"/>
+      <c r="FN28" s="137"/>
+      <c r="FO28" s="137"/>
+      <c r="FP28" s="137"/>
+      <c r="FQ28" s="137"/>
+      <c r="FR28" s="137"/>
+      <c r="FS28" s="137"/>
+      <c r="FT28" s="137"/>
+      <c r="FU28" s="137"/>
+      <c r="FV28" s="137"/>
+      <c r="FW28" s="137"/>
+      <c r="FX28" s="137"/>
+      <c r="FY28" s="137"/>
+      <c r="FZ28" s="137"/>
+      <c r="GA28" s="137"/>
+      <c r="GB28" s="137"/>
+      <c r="GC28" s="137"/>
+      <c r="GD28" s="137"/>
+      <c r="GE28" s="137"/>
+      <c r="GF28" s="137"/>
+      <c r="GG28" s="137"/>
+      <c r="GH28" s="137"/>
+      <c r="GI28" s="137"/>
+      <c r="GJ28" s="137"/>
+      <c r="GK28" s="137"/>
+      <c r="GL28" s="137"/>
+      <c r="GM28" s="118"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4964,6 +4943,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4990,14 +4991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5190,11 +5191,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="204" t="s">
+      <c r="E27" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="208"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5412,82 +5413,82 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="107" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="107" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="107" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5518,10 +5519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5537,7 +5538,7 @@
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="98" t="s">
         <v>160</v>
       </c>
       <c r="I1" s="31" t="s">
@@ -5548,8 +5549,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5588,39 +5589,39 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="126">
+      <c r="A5" s="125">
         <v>1</v>
       </c>
-      <c r="B5" s="127">
+      <c r="B5" s="126">
         <v>1</v>
       </c>
       <c r="C5" s="37">
         <v>42401</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="90">
+      <c r="A6" s="89">
         <v>2</v>
       </c>
       <c r="B6" s="41">
@@ -5628,15 +5629,15 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
-      <c r="A7" s="91">
+      <c r="A7" s="90">
         <v>3</v>
       </c>
       <c r="B7" s="41">
@@ -5644,15 +5645,15 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
-      <c r="A8" s="92">
+      <c r="A8" s="91">
         <v>4</v>
       </c>
       <c r="B8" s="41">
@@ -5660,15 +5661,15 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
-      <c r="A9" s="93">
+      <c r="A9" s="92">
         <v>5</v>
       </c>
       <c r="B9" s="41">
@@ -5676,15 +5677,15 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
-      <c r="A10" s="94">
+      <c r="A10" s="93">
         <v>6</v>
       </c>
       <c r="B10" s="41">
@@ -5692,15 +5693,15 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
-      <c r="A11" s="95">
+      <c r="A11" s="94">
         <v>7</v>
       </c>
       <c r="B11" s="41">
@@ -5708,15 +5709,15 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
-      <c r="A12" s="96">
+      <c r="A12" s="95">
         <v>8</v>
       </c>
       <c r="B12" s="41">
@@ -5724,15 +5725,15 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
-      <c r="A13" s="97">
+      <c r="A13" s="96">
         <v>9</v>
       </c>
       <c r="B13" s="41">
@@ -5740,15 +5741,15 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
-      <c r="A14" s="98">
+      <c r="A14" s="97">
         <v>10</v>
       </c>
       <c r="B14" s="41">
@@ -5756,12 +5757,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5772,15 +5773,15 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
-      <c r="A16" s="90">
+      <c r="A16" s="89">
         <v>12</v>
       </c>
       <c r="B16" s="41">
@@ -5788,15 +5789,15 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
-      <c r="A17" s="91">
+      <c r="A17" s="90">
         <v>13</v>
       </c>
       <c r="B17" s="41">
@@ -5804,15 +5805,15 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
-      <c r="A18" s="92">
+      <c r="A18" s="91">
         <v>14</v>
       </c>
       <c r="B18" s="41">
@@ -5820,15 +5821,15 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
-      <c r="A19" s="93">
+      <c r="A19" s="92">
         <v>15</v>
       </c>
       <c r="B19" s="41">
@@ -5836,15 +5837,15 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="93">
         <v>16</v>
       </c>
       <c r="B20" s="41">
@@ -5852,15 +5853,15 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
-      <c r="A21" s="95">
+      <c r="A21" s="94">
         <v>17</v>
       </c>
       <c r="B21" s="41">
@@ -5868,15 +5869,15 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
-      <c r="A22" s="96">
+      <c r="A22" s="95">
         <v>18</v>
       </c>
       <c r="B22" s="41">
@@ -5884,15 +5885,15 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
-      <c r="A23" s="97">
+      <c r="A23" s="96">
         <v>19</v>
       </c>
       <c r="B23" s="41">
@@ -5900,15 +5901,15 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
-      <c r="A24" s="98">
+      <c r="A24" s="97">
         <v>20</v>
       </c>
       <c r="B24" s="41">
@@ -5916,12 +5917,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5932,12 +5933,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5948,15 +5949,15 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
-      <c r="A27" s="90">
+      <c r="A27" s="89">
         <v>23</v>
       </c>
       <c r="B27" s="41">
@@ -5964,15 +5965,15 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
-      <c r="A28" s="91">
+      <c r="A28" s="90">
         <v>24</v>
       </c>
       <c r="B28" s="41">
@@ -5980,15 +5981,15 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
-      <c r="A29" s="92">
+      <c r="A29" s="91">
         <v>25</v>
       </c>
       <c r="B29" s="41">
@@ -5996,15 +5997,15 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
-      <c r="A30" s="93">
+      <c r="A30" s="92">
         <v>26</v>
       </c>
       <c r="B30" s="41">
@@ -6012,15 +6013,15 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
-      <c r="A31" s="94">
+      <c r="A31" s="93">
         <v>27</v>
       </c>
       <c r="B31" s="41">
@@ -6028,15 +6029,15 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
-      <c r="A32" s="95">
+      <c r="A32" s="94">
         <v>28</v>
       </c>
       <c r="B32" s="41">
@@ -6044,15 +6045,15 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
-      <c r="A33" s="96">
+      <c r="A33" s="95">
         <v>29</v>
       </c>
       <c r="B33" s="41">
@@ -6060,15 +6061,15 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
-      <c r="A34" s="97">
+      <c r="A34" s="96">
         <v>30</v>
       </c>
       <c r="B34" s="41">
@@ -6076,15 +6077,15 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
-      <c r="A35" s="98">
+      <c r="A35" s="97">
         <v>31</v>
       </c>
       <c r="B35" s="41">
@@ -6092,12 +6093,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6108,15 +6109,15 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
-      <c r="A37" s="90">
+      <c r="A37" s="89">
         <v>33</v>
       </c>
       <c r="B37" s="41">
@@ -6124,15 +6125,15 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="A38" s="91">
+      <c r="A38" s="90">
         <v>34</v>
       </c>
       <c r="B38" s="41">
@@ -6140,15 +6141,15 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="A39" s="92">
+      <c r="A39" s="91">
         <v>35</v>
       </c>
       <c r="B39" s="41">
@@ -6156,15 +6157,15 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
-      <c r="A40" s="93">
+      <c r="A40" s="92">
         <v>36</v>
       </c>
       <c r="B40" s="41">
@@ -6172,15 +6173,15 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="A41" s="94">
+      <c r="A41" s="93">
         <v>37</v>
       </c>
       <c r="B41" s="41">
@@ -6188,15 +6189,15 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="A42" s="95">
+      <c r="A42" s="94">
         <v>38</v>
       </c>
       <c r="B42" s="41">
@@ -6204,32 +6205,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6245,14 +6237,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6297,10 +6298,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6330,8 +6331,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6474,7 +6475,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="175" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="J12" s="176"/>
     </row>
@@ -6876,13 +6877,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:P15"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6890,16 +6891,16 @@
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
     <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.5703125" style="22" customWidth="1"/>
@@ -6907,13 +6908,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6945,11 +6946,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6985,7 +6986,7 @@
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>206</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7080,10 +7081,10 @@
       <c r="E6" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="135"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="40" t="s">
         <v>169</v>
       </c>
@@ -7093,12 +7094,12 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135">
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134">
         <v>1</v>
       </c>
-      <c r="P6" s="135"/>
+      <c r="P6" s="134"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
@@ -7116,10 +7117,10 @@
       <c r="E7" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="134" t="s">
         <v>171</v>
       </c>
       <c r="H7" s="40" t="s">
@@ -7133,12 +7134,12 @@
       <c r="L7" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135" t="s">
-        <v>216</v>
-      </c>
-      <c r="P7" s="135"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" s="134"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -7156,10 +7157,10 @@
       <c r="E8" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="135" t="s">
+      <c r="F8" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="135" t="s">
+      <c r="G8" s="134" t="s">
         <v>172</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -7173,12 +7174,12 @@
       <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="135"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="134"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -7196,10 +7197,10 @@
       <c r="E9" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="135" t="s">
+      <c r="F9" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="135"/>
+      <c r="G9" s="134"/>
       <c r="H9" s="40" t="s">
         <v>169</v>
       </c>
@@ -7209,12 +7210,12 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135">
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134">
         <v>0</v>
       </c>
-      <c r="P9" s="135"/>
+      <c r="P9" s="134"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -7232,10 +7233,10 @@
       <c r="E10" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="134" t="s">
         <v>174</v>
       </c>
       <c r="H10" s="40" t="s">
@@ -7244,19 +7245,17 @@
       <c r="I10" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J10" s="62">
-        <v>50</v>
-      </c>
+      <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="135" t="s">
-        <v>217</v>
-      </c>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
+      <c r="M10" s="134" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -7274,32 +7273,30 @@
       <c r="E11" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="134" t="s">
         <v>175</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>193</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
       <c r="L11" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="P11" s="135" t="s">
-        <v>220</v>
+      <c r="M11" s="134" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7318,10 +7315,10 @@
       <c r="E12" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -7330,17 +7327,15 @@
       <c r="I12" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J12" s="62">
-        <v>50</v>
-      </c>
+      <c r="J12" s="62"/>
       <c r="K12" s="62"/>
       <c r="L12" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -7358,10 +7353,10 @@
       <c r="E13" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="135" t="s">
+      <c r="F13" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="135" t="s">
+      <c r="G13" s="134" t="s">
         <v>196</v>
       </c>
       <c r="H13" s="40" t="s">
@@ -7370,17 +7365,15 @@
       <c r="I13" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J13" s="62">
-        <v>50</v>
-      </c>
+      <c r="J13" s="62"/>
       <c r="K13" s="62"/>
       <c r="L13" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -7398,10 +7391,10 @@
       <c r="E14" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="135"/>
+      <c r="G14" s="134"/>
       <c r="H14" s="40" t="s">
         <v>168</v>
       </c>
@@ -7409,10 +7402,10 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7428,12 +7421,12 @@
         <v>11</v>
       </c>
       <c r="E15" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="134" t="s">
         <v>213</v>
       </c>
-      <c r="F15" s="135" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="135"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="40" t="s">
         <v>168</v>
       </c>
@@ -7441,10 +7434,10 @@
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="134"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -7454,766 +7447,17 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-    </row>
-    <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="33">
-        <v>13</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-    </row>
-    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A18" s="33">
-        <v>14</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="88"/>
-    </row>
-    <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="33">
-        <v>15</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="88"/>
-    </row>
-    <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A20" s="33">
-        <v>16</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="88"/>
-    </row>
-    <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="33">
-        <v>17</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-    </row>
-    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="33">
-        <v>18</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="88"/>
-    </row>
-    <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="33">
-        <v>19</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="33">
-        <v>20</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A25" s="33">
-        <v>21</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="33">
-        <v>23</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="33">
-        <v>24</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="33">
-        <v>25</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A29" s="33">
-        <v>26</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="32"/>
-    </row>
-    <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A30" s="33">
-        <v>27</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A31" s="33">
-        <v>28</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A32" s="33">
-        <v>29</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A33" s="33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A34" s="33">
-        <v>31</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A35" s="33">
-        <v>32</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="33">
-        <v>33</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="32"/>
-    </row>
-    <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="33">
-        <v>34</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="32"/>
-    </row>
-    <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="33">
-        <v>35</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="32"/>
-    </row>
-    <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="33">
-        <v>36</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="32"/>
-    </row>
-    <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="33">
-        <v>37</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="32"/>
-    </row>
-    <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="33">
-        <v>38</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="32"/>
-    </row>
-    <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="33">
-        <v>39</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="32"/>
-    </row>
-    <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="33">
-        <v>40</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="32"/>
-    </row>
-    <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="33">
-        <v>41</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="32"/>
-    </row>
-    <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="33">
-        <v>42</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="32"/>
-    </row>
-    <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A46" s="33">
-        <v>43</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="32"/>
-    </row>
-    <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="33">
-        <v>44</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="32"/>
-    </row>
-    <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="33">
-        <v>45</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="32"/>
-    </row>
-    <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="33">
-        <v>46</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="32"/>
-    </row>
-    <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="33">
-        <v>47</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="32"/>
-    </row>
-    <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="33">
-        <v>48</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="32"/>
-    </row>
-    <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="33">
-        <v>49</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="32"/>
-    </row>
-    <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="33">
-        <v>50</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="32"/>
-    </row>
-    <row r="54" spans="1:16" ht="12" customHeight="1">
-      <c r="B54" s="33"/>
-    </row>
-    <row r="55" spans="1:16" ht="12" customHeight="1">
-      <c r="B55" s="33"/>
-    </row>
-    <row r="56" spans="1:16" ht="12" customHeight="1">
-      <c r="B56" s="33"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8223,21 +7467,18 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24:O53 M23:N23">
-      <formula1>"   ,l"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21:I53 I5:I18">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G25:G53 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H53 H5:H9">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H16 H5:H9">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
       <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L16">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13">
@@ -8254,7 +7495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
@@ -8284,25 +7525,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="30"/>
-      <c r="C1" s="104" t="str">
+      <c r="C1" s="103" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="104" t="str">
+      <c r="E1" s="103" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3040</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="111" t="str">
+      <c r="G1" s="110" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="67" t="s">
@@ -8315,14 +7556,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="30"/>
-      <c r="C2" s="104" t="str">
+      <c r="C2" s="103" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="104" t="str">
+      <c r="E2" s="103" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng không phát sinh đơn hàng</v>
       </c>
@@ -8333,7 +7574,7 @@
         <f>'Update History'!H2</f>
         <v>42401</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="102" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="67">
@@ -8383,12 +7624,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="40"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
       <c r="I5" s="63"/>
       <c r="J5" s="69"/>
     </row>
@@ -8397,12 +7638,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="40"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
       <c r="I6" s="63"/>
       <c r="J6" s="69"/>
     </row>
@@ -8411,40 +7652,40 @@
         <v>3</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="40"/>
       <c r="F7" s="62"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="63"/>
-      <c r="J7" s="88"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="113"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="40"/>
       <c r="F8" s="62"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="88"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="40"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="114"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="63"/>
       <c r="J9" s="84"/>
     </row>
@@ -8453,11 +7694,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
-      <c r="C10" s="88"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="84"/>
       <c r="E10" s="40"/>
       <c r="F10" s="62"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="84"/>
       <c r="I10" s="82"/>
       <c r="J10" s="84"/>
@@ -8489,7 +7730,7 @@
       <c r="H12" s="84"/>
       <c r="I12" s="82"/>
       <c r="J12" s="69"/>
-      <c r="K12" s="109"/>
+      <c r="K12" s="108"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8504,7 +7745,7 @@
       <c r="H13" s="84"/>
       <c r="I13" s="82"/>
       <c r="J13" s="69"/>
-      <c r="K13" s="109"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8519,7 +7760,7 @@
       <c r="H14" s="84"/>
       <c r="I14" s="82"/>
       <c r="J14" s="69"/>
-      <c r="K14" s="109"/>
+      <c r="K14" s="108"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8534,7 +7775,7 @@
       <c r="H15" s="84"/>
       <c r="I15" s="82"/>
       <c r="J15" s="69"/>
-      <c r="K15" s="109"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8549,7 +7790,7 @@
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
-      <c r="K16" s="109"/>
+      <c r="K16" s="108"/>
     </row>
     <row r="17" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
@@ -8564,7 +7805,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="109"/>
+      <c r="K17" s="108"/>
     </row>
     <row r="18" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8579,7 +7820,7 @@
       <c r="H18" s="69"/>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
-      <c r="K18" s="109"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8594,7 +7835,7 @@
       <c r="H19" s="69"/>
       <c r="I19" s="69"/>
       <c r="J19" s="69"/>
-      <c r="K19" s="109"/>
+      <c r="K19" s="108"/>
     </row>
     <row r="20" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8609,7 +7850,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
       <c r="J20" s="69"/>
-      <c r="K20" s="109"/>
+      <c r="K20" s="108"/>
     </row>
     <row r="21" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
@@ -8624,7 +7865,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
-      <c r="K21" s="109"/>
+      <c r="K21" s="108"/>
     </row>
     <row r="22" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8639,7 +7880,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
-      <c r="K22" s="109"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8654,7 +7895,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
       <c r="J23" s="69"/>
-      <c r="K23" s="109"/>
+      <c r="K23" s="108"/>
     </row>
     <row r="24" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8669,7 +7910,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
       <c r="J24" s="69"/>
-      <c r="K24" s="109"/>
+      <c r="K24" s="108"/>
     </row>
     <row r="25" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -8684,7 +7925,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="109"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -8699,7 +7940,7 @@
       <c r="H26" s="62"/>
       <c r="I26" s="61"/>
       <c r="J26" s="62"/>
-      <c r="K26" s="110"/>
+      <c r="K26" s="109"/>
     </row>
     <row r="27" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -8714,7 +7955,7 @@
       <c r="H27" s="62"/>
       <c r="I27" s="61"/>
       <c r="J27" s="62"/>
-      <c r="K27" s="110"/>
+      <c r="K27" s="109"/>
     </row>
     <row r="28" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -8729,7 +7970,7 @@
       <c r="H28" s="62"/>
       <c r="I28" s="61"/>
       <c r="J28" s="62"/>
-      <c r="K28" s="110"/>
+      <c r="K28" s="109"/>
     </row>
     <row r="29" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -8744,7 +7985,7 @@
       <c r="H29" s="62"/>
       <c r="I29" s="61"/>
       <c r="J29" s="62"/>
-      <c r="K29" s="110"/>
+      <c r="K29" s="109"/>
     </row>
     <row r="30" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
@@ -8759,7 +8000,7 @@
       <c r="H30" s="62"/>
       <c r="I30" s="61"/>
       <c r="J30" s="62"/>
-      <c r="K30" s="110"/>
+      <c r="K30" s="109"/>
     </row>
     <row r="31" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
@@ -8774,7 +8015,7 @@
       <c r="H31" s="62"/>
       <c r="I31" s="61"/>
       <c r="J31" s="62"/>
-      <c r="K31" s="110"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
@@ -8789,7 +8030,7 @@
       <c r="H32" s="62"/>
       <c r="I32" s="61"/>
       <c r="J32" s="62"/>
-      <c r="K32" s="110"/>
+      <c r="K32" s="109"/>
     </row>
     <row r="33" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
@@ -8804,7 +8045,7 @@
       <c r="H33" s="62"/>
       <c r="I33" s="61"/>
       <c r="J33" s="62"/>
-      <c r="K33" s="110"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
@@ -8819,7 +8060,7 @@
       <c r="H34" s="62"/>
       <c r="I34" s="61"/>
       <c r="J34" s="62"/>
-      <c r="K34" s="110"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
@@ -8834,7 +8075,7 @@
       <c r="H35" s="62"/>
       <c r="I35" s="61"/>
       <c r="J35" s="62"/>
-      <c r="K35" s="110"/>
+      <c r="K35" s="109"/>
     </row>
     <row r="36" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
@@ -8849,7 +8090,7 @@
       <c r="H36" s="62"/>
       <c r="I36" s="61"/>
       <c r="J36" s="62"/>
-      <c r="K36" s="110"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
@@ -8864,7 +8105,7 @@
       <c r="H37" s="62"/>
       <c r="I37" s="61"/>
       <c r="J37" s="62"/>
-      <c r="K37" s="110"/>
+      <c r="K37" s="109"/>
     </row>
     <row r="38" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
@@ -8879,7 +8120,7 @@
       <c r="H38" s="62"/>
       <c r="I38" s="61"/>
       <c r="J38" s="62"/>
-      <c r="K38" s="110"/>
+      <c r="K38" s="109"/>
     </row>
     <row r="39" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
@@ -8894,7 +8135,7 @@
       <c r="H39" s="62"/>
       <c r="I39" s="61"/>
       <c r="J39" s="62"/>
-      <c r="K39" s="110"/>
+      <c r="K39" s="109"/>
     </row>
     <row r="40" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
@@ -8909,7 +8150,7 @@
       <c r="H40" s="62"/>
       <c r="I40" s="61"/>
       <c r="J40" s="62"/>
-      <c r="K40" s="110"/>
+      <c r="K40" s="109"/>
     </row>
     <row r="41" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
@@ -8924,7 +8165,7 @@
       <c r="H41" s="62"/>
       <c r="I41" s="61"/>
       <c r="J41" s="62"/>
-      <c r="K41" s="110"/>
+      <c r="K41" s="109"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
@@ -8944,7 +8185,7 @@
       <c r="H42" s="62"/>
       <c r="I42" s="61"/>
       <c r="J42" s="62"/>
-      <c r="K42" s="110"/>
+      <c r="K42" s="109"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
@@ -8964,7 +8205,7 @@
       <c r="H43" s="62"/>
       <c r="I43" s="61"/>
       <c r="J43" s="62"/>
-      <c r="K43" s="110"/>
+      <c r="K43" s="109"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
@@ -8984,7 +8225,7 @@
       <c r="H44" s="62"/>
       <c r="I44" s="61"/>
       <c r="J44" s="62"/>
-      <c r="K44" s="110"/>
+      <c r="K44" s="109"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
@@ -9004,7 +8245,7 @@
       <c r="H45" s="62"/>
       <c r="I45" s="61"/>
       <c r="J45" s="62"/>
-      <c r="K45" s="110"/>
+      <c r="K45" s="109"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
@@ -9024,7 +8265,7 @@
       <c r="H46" s="62"/>
       <c r="I46" s="61"/>
       <c r="J46" s="62"/>
-      <c r="K46" s="110"/>
+      <c r="K46" s="109"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
@@ -9044,7 +8285,7 @@
       <c r="H47" s="62"/>
       <c r="I47" s="61"/>
       <c r="J47" s="62"/>
-      <c r="K47" s="110"/>
+      <c r="K47" s="109"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
@@ -9064,7 +8305,7 @@
       <c r="H48" s="62"/>
       <c r="I48" s="61"/>
       <c r="J48" s="62"/>
-      <c r="K48" s="110"/>
+      <c r="K48" s="109"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
@@ -9084,7 +8325,7 @@
       <c r="H49" s="62"/>
       <c r="I49" s="61"/>
       <c r="J49" s="62"/>
-      <c r="K49" s="110"/>
+      <c r="K49" s="109"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -9104,7 +8345,7 @@
       <c r="H50" s="62"/>
       <c r="I50" s="61"/>
       <c r="J50" s="62"/>
-      <c r="K50" s="110"/>
+      <c r="K50" s="109"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
@@ -9124,7 +8365,7 @@
       <c r="H51" s="62"/>
       <c r="I51" s="61"/>
       <c r="J51" s="62"/>
-      <c r="K51" s="110"/>
+      <c r="K51" s="109"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
@@ -9144,7 +8385,7 @@
       <c r="H52" s="62"/>
       <c r="I52" s="61"/>
       <c r="J52" s="62"/>
-      <c r="K52" s="110"/>
+      <c r="K52" s="109"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
@@ -9164,7 +8405,7 @@
       <c r="H53" s="62"/>
       <c r="I53" s="61"/>
       <c r="J53" s="62"/>
-      <c r="K53" s="110"/>
+      <c r="K53" s="109"/>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
@@ -9184,7 +8425,7 @@
       <c r="H54" s="62"/>
       <c r="I54" s="61"/>
       <c r="J54" s="62"/>
-      <c r="K54" s="110"/>
+      <c r="K54" s="109"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
@@ -9219,7 +8460,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9245,33 +8486,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="104" t="str">
+      <c r="E1" s="103" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="101" t="str">
+      <c r="G1" s="100" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3040</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="112" t="str">
+      <c r="I1" s="111" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="101" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="67" t="s">
@@ -9281,31 +8522,31 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="124"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="104" t="str">
+      <c r="E2" s="103" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="101" t="str">
+      <c r="G2" s="100" t="str">
         <f>'Update History'!F2</f>
         <v>Khách hàng không phát sinh đơn hàng</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="101" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="51">
         <f>'Update History'!H2</f>
         <v>42401</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="67">
@@ -9315,13 +8556,13 @@
       <c r="M2" s="52"/>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1" ht="11.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -9330,18 +8571,18 @@
       <c r="E4" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -9354,19 +8595,19 @@
         <v>161</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="128" t="s">
         <v>205</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="195" t="s">
+      <c r="G5" s="192" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="193"/>
+      <c r="I5" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="192" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -9375,13 +8616,13 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="129"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9392,11 +8633,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9407,11 +8648,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9422,11 +8663,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9437,11 +8678,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9452,11 +8693,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9467,11 +8708,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9482,11 +8723,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9497,11 +8738,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9512,11 +8753,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="194"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9527,11 +8768,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9542,11 +8783,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9557,11 +8798,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9572,11 +8813,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9587,11 +8828,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9602,11 +8843,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9617,11 +8858,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9632,11 +8873,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9647,11 +8888,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9662,11 +8903,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9677,11 +8918,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="194"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9692,11 +8933,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="194"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9707,11 +8948,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9722,11 +8963,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="194"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9737,11 +8978,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9752,11 +8993,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="194"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9767,11 +9008,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="194"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9789,11 +9030,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="194"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9811,11 +9052,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9833,11 +9074,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="194"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9855,11 +9096,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="194"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9877,11 +9118,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="194"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9899,11 +9140,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="194"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9921,11 +9162,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="194"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9943,11 +9184,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9965,11 +9206,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9987,11 +9228,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="194"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -10009,11 +9250,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="194"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="198"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -10031,11 +9272,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="194"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -10053,11 +9294,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="194"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -10075,11 +9316,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="194"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -10097,11 +9338,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="194"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="198"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -10119,11 +9360,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="192"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="194"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="198"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -10141,11 +9382,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="194"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="198"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -10163,11 +9404,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="192"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="194"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="198"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -10185,11 +9426,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="192"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="194"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="198"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -10207,11 +9448,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="194"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="198"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -10229,11 +9470,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="192"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="194"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="198"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -10251,11 +9492,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="192"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="194"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="198"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -10273,11 +9514,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="194"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
+      <c r="K55" s="198"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -10295,11 +9536,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="194"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="198"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -10311,25 +9552,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -10344,80 +9640,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -10435,8 +9676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10444,19 +9685,19 @@
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.140625" style="23" customWidth="1"/>
     <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
     <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
@@ -10465,16 +9706,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10509,14 +9750,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -10554,10 +9795,10 @@
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="121" t="s">
         <v>162</v>
       </c>
       <c r="D4" s="68" t="s">
@@ -10618,16 +9859,16 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="135" t="s">
-        <v>221</v>
+      <c r="G5" s="134" t="s">
+        <v>218</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="129" t="s">
         <v>181</v>
       </c>
       <c r="K5" s="199" t="s">
@@ -10636,19 +9877,19 @@
       <c r="L5" s="200"/>
       <c r="M5" s="200"/>
       <c r="N5" s="201"/>
-      <c r="O5" s="125" t="s">
+      <c r="O5" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="P5" s="125" t="s">
+      <c r="P5" s="124" t="s">
         <v>188</v>
       </c>
       <c r="Q5" s="76" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="R5" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="S5" s="135" t="s">
+      <c r="S5" s="134" t="s">
         <v>208</v>
       </c>
       <c r="T5" s="64"/>
@@ -10667,16 +9908,16 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="135" t="s">
-        <v>223</v>
+      <c r="G6" s="134" t="s">
+        <v>220</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>183</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="129" t="s">
         <v>182</v>
       </c>
       <c r="K6" s="199" t="s">
@@ -10685,10 +9926,10 @@
       <c r="L6" s="200"/>
       <c r="M6" s="200"/>
       <c r="N6" s="201"/>
-      <c r="O6" s="125" t="s">
+      <c r="O6" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="125" t="s">
+      <c r="P6" s="124" t="s">
         <v>186</v>
       </c>
       <c r="Q6" s="76" t="s">
@@ -10697,8 +9938,8 @@
       <c r="R6" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="S6" s="135" t="s">
-        <v>224</v>
+      <c r="S6" s="134" t="s">
+        <v>221</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -10716,7 +9957,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="135" t="s">
+      <c r="G7" s="134" t="s">
         <v>199</v>
       </c>
       <c r="H7" s="63" t="s">
@@ -10725,7 +9966,7 @@
       <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="130" t="s">
+      <c r="J7" s="129" t="s">
         <v>200</v>
       </c>
       <c r="K7" s="199" t="s">
@@ -10734,18 +9975,20 @@
       <c r="L7" s="200"/>
       <c r="M7" s="200"/>
       <c r="N7" s="201"/>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="125" t="s">
+      <c r="P7" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="76"/>
+      <c r="Q7" s="76" t="s">
+        <v>228</v>
+      </c>
       <c r="R7" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="S7" s="82" t="s">
-        <v>225</v>
+      <c r="S7" s="135" t="s">
+        <v>227</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -10759,16 +10002,16 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="131"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="130"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="199"/>
       <c r="L8" s="200"/>
       <c r="M8" s="200"/>
       <c r="N8" s="201"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
       <c r="Q8" s="76"/>
       <c r="R8" s="75"/>
       <c r="S8" s="82"/>
@@ -10784,7 +10027,7 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="88"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="82"/>
@@ -10792,8 +10035,8 @@
       <c r="L9" s="200"/>
       <c r="M9" s="200"/>
       <c r="N9" s="201"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
       <c r="Q9" s="76"/>
       <c r="R9" s="75"/>
       <c r="S9" s="82"/>
@@ -10809,7 +10052,7 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="88"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="82"/>
@@ -10817,8 +10060,8 @@
       <c r="L10" s="200"/>
       <c r="M10" s="200"/>
       <c r="N10" s="201"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
       <c r="Q10" s="76"/>
       <c r="R10" s="75"/>
       <c r="S10" s="82"/>
@@ -10834,7 +10077,7 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="88"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="82"/>
@@ -10842,8 +10085,8 @@
       <c r="L11" s="200"/>
       <c r="M11" s="200"/>
       <c r="N11" s="201"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
       <c r="Q11" s="76"/>
       <c r="R11" s="75"/>
       <c r="S11" s="82"/>
@@ -10859,7 +10102,7 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="88"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="82"/>
@@ -10884,7 +10127,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="88"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
@@ -10921,7 +10164,7 @@
       <c r="P14" s="81"/>
       <c r="Q14" s="76"/>
       <c r="R14" s="75"/>
-      <c r="S14" s="88"/>
+      <c r="S14" s="87"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
@@ -10946,7 +10189,7 @@
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="88"/>
+      <c r="S15" s="87"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
@@ -10971,7 +10214,7 @@
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
       <c r="R16" s="75"/>
-      <c r="S16" s="88"/>
+      <c r="S16" s="87"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
@@ -10996,7 +10239,7 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
       <c r="R17" s="75"/>
-      <c r="S17" s="88"/>
+      <c r="S17" s="87"/>
       <c r="T17" s="64"/>
       <c r="U17" s="64"/>
     </row>
@@ -11021,7 +10264,7 @@
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
       <c r="R18" s="75"/>
-      <c r="S18" s="88"/>
+      <c r="S18" s="87"/>
       <c r="T18" s="64"/>
       <c r="U18" s="64"/>
     </row>
@@ -11046,7 +10289,7 @@
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
       <c r="R19" s="75"/>
-      <c r="S19" s="88"/>
+      <c r="S19" s="87"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
     </row>
@@ -11071,7 +10314,7 @@
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
       <c r="R20" s="75"/>
-      <c r="S20" s="88"/>
+      <c r="S20" s="87"/>
       <c r="T20" s="64"/>
       <c r="U20" s="64"/>
     </row>
@@ -11096,7 +10339,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
       <c r="R21" s="75"/>
-      <c r="S21" s="88"/>
+      <c r="S21" s="87"/>
       <c r="T21" s="64"/>
       <c r="U21" s="64"/>
     </row>
@@ -11121,7 +10364,7 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
       <c r="R22" s="75"/>
-      <c r="S22" s="88"/>
+      <c r="S22" s="87"/>
       <c r="T22" s="64"/>
       <c r="U22" s="64"/>
     </row>
@@ -11146,7 +10389,7 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="88"/>
+      <c r="S23" s="87"/>
       <c r="T23" s="64"/>
       <c r="U23" s="64"/>
     </row>
@@ -11171,7 +10414,7 @@
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="88"/>
+      <c r="S24" s="87"/>
       <c r="T24" s="64"/>
       <c r="U24" s="64"/>
     </row>
@@ -11196,7 +10439,7 @@
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="88"/>
+      <c r="S25" s="87"/>
       <c r="T25" s="64"/>
       <c r="U25" s="64"/>
     </row>
@@ -11221,7 +10464,7 @@
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="88"/>
+      <c r="S26" s="87"/>
       <c r="T26" s="64"/>
       <c r="U26" s="64"/>
     </row>
@@ -11246,7 +10489,7 @@
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
       <c r="R27" s="75"/>
-      <c r="S27" s="88"/>
+      <c r="S27" s="87"/>
       <c r="T27" s="64"/>
       <c r="U27" s="64"/>
     </row>
@@ -11271,7 +10514,7 @@
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="88"/>
+      <c r="S28" s="87"/>
       <c r="T28" s="64"/>
       <c r="U28" s="64"/>
     </row>
@@ -11296,7 +10539,7 @@
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="88"/>
+      <c r="S29" s="87"/>
       <c r="T29" s="64"/>
       <c r="U29" s="64"/>
     </row>
@@ -11321,7 +10564,7 @@
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="88"/>
+      <c r="S30" s="87"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
     </row>
@@ -11346,7 +10589,7 @@
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
       <c r="R31" s="75"/>
-      <c r="S31" s="88"/>
+      <c r="S31" s="87"/>
       <c r="T31" s="64"/>
       <c r="U31" s="64"/>
     </row>
@@ -11371,7 +10614,7 @@
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
       <c r="R32" s="75"/>
-      <c r="S32" s="88"/>
+      <c r="S32" s="87"/>
       <c r="T32" s="64"/>
       <c r="U32" s="64"/>
     </row>
@@ -11396,7 +10639,7 @@
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="75"/>
-      <c r="S33" s="88"/>
+      <c r="S33" s="87"/>
       <c r="T33" s="64"/>
       <c r="U33" s="64"/>
     </row>
@@ -11421,7 +10664,7 @@
       <c r="P34" s="85"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="75"/>
-      <c r="S34" s="88"/>
+      <c r="S34" s="87"/>
       <c r="T34" s="64"/>
       <c r="U34" s="64"/>
     </row>
@@ -11446,7 +10689,7 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
       <c r="R35" s="75"/>
-      <c r="S35" s="88"/>
+      <c r="S35" s="87"/>
       <c r="T35" s="64"/>
       <c r="U35" s="64"/>
     </row>
@@ -11471,7 +10714,7 @@
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="75"/>
-      <c r="S36" s="88"/>
+      <c r="S36" s="87"/>
       <c r="T36" s="64"/>
       <c r="U36" s="64"/>
     </row>
@@ -11496,7 +10739,7 @@
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
       <c r="R37" s="75"/>
-      <c r="S37" s="88"/>
+      <c r="S37" s="87"/>
       <c r="T37" s="64"/>
       <c r="U37" s="64"/>
     </row>
@@ -11521,7 +10764,7 @@
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
       <c r="R38" s="75"/>
-      <c r="S38" s="88"/>
+      <c r="S38" s="87"/>
       <c r="T38" s="64"/>
       <c r="U38" s="64"/>
     </row>
@@ -11546,7 +10789,7 @@
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
       <c r="R39" s="75"/>
-      <c r="S39" s="88"/>
+      <c r="S39" s="87"/>
       <c r="T39" s="64"/>
       <c r="U39" s="64"/>
     </row>
@@ -11571,7 +10814,7 @@
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
       <c r="R40" s="75"/>
-      <c r="S40" s="88"/>
+      <c r="S40" s="87"/>
       <c r="T40" s="64"/>
       <c r="U40" s="64"/>
     </row>
@@ -11596,7 +10839,7 @@
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
       <c r="R41" s="75"/>
-      <c r="S41" s="88"/>
+      <c r="S41" s="87"/>
       <c r="T41" s="64"/>
       <c r="U41" s="64"/>
     </row>
@@ -11621,7 +10864,7 @@
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
       <c r="R42" s="75"/>
-      <c r="S42" s="88"/>
+      <c r="S42" s="87"/>
       <c r="T42" s="64"/>
       <c r="U42" s="64"/>
     </row>
@@ -11646,7 +10889,7 @@
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
       <c r="R43" s="75"/>
-      <c r="S43" s="88"/>
+      <c r="S43" s="87"/>
       <c r="T43" s="64"/>
       <c r="U43" s="64"/>
     </row>
@@ -11671,7 +10914,7 @@
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
       <c r="R44" s="75"/>
-      <c r="S44" s="88"/>
+      <c r="S44" s="87"/>
       <c r="T44" s="64"/>
       <c r="U44" s="64"/>
     </row>
@@ -11696,7 +10939,7 @@
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
       <c r="R45" s="75"/>
-      <c r="S45" s="88"/>
+      <c r="S45" s="87"/>
       <c r="T45" s="64"/>
       <c r="U45" s="64"/>
     </row>
@@ -11721,7 +10964,7 @@
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
       <c r="R46" s="75"/>
-      <c r="S46" s="88"/>
+      <c r="S46" s="87"/>
       <c r="T46" s="64"/>
       <c r="U46" s="64"/>
     </row>
@@ -11746,7 +10989,7 @@
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
       <c r="R47" s="75"/>
-      <c r="S47" s="88"/>
+      <c r="S47" s="87"/>
       <c r="T47" s="64"/>
       <c r="U47" s="64"/>
     </row>
@@ -11771,7 +11014,7 @@
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="75"/>
-      <c r="S48" s="88"/>
+      <c r="S48" s="87"/>
       <c r="T48" s="64"/>
       <c r="U48" s="64"/>
     </row>
@@ -11796,7 +11039,7 @@
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="75"/>
-      <c r="S49" s="88"/>
+      <c r="S49" s="87"/>
       <c r="T49" s="64"/>
       <c r="U49" s="64"/>
     </row>
@@ -11821,7 +11064,7 @@
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
       <c r="R50" s="75"/>
-      <c r="S50" s="88"/>
+      <c r="S50" s="87"/>
       <c r="T50" s="64"/>
       <c r="U50" s="64"/>
     </row>
@@ -11846,7 +11089,7 @@
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
       <c r="R51" s="75"/>
-      <c r="S51" s="88"/>
+      <c r="S51" s="87"/>
       <c r="T51" s="64"/>
       <c r="U51" s="64"/>
     </row>
@@ -11871,7 +11114,7 @@
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
       <c r="R52" s="75"/>
-      <c r="S52" s="88"/>
+      <c r="S52" s="87"/>
       <c r="T52" s="64"/>
       <c r="U52" s="64"/>
     </row>
@@ -11896,7 +11139,7 @@
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
       <c r="R53" s="75"/>
-      <c r="S53" s="88"/>
+      <c r="S53" s="87"/>
       <c r="T53" s="64"/>
       <c r="U53" s="64"/>
     </row>
@@ -11921,7 +11164,7 @@
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
       <c r="R54" s="75"/>
-      <c r="S54" s="88"/>
+      <c r="S54" s="87"/>
       <c r="T54" s="64"/>
       <c r="U54" s="64"/>
     </row>
@@ -11946,7 +11189,7 @@
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
       <c r="R55" s="75"/>
-      <c r="S55" s="88"/>
+      <c r="S55" s="87"/>
       <c r="T55" s="64"/>
       <c r="U55" s="64"/>
     </row>
@@ -11971,7 +11214,7 @@
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
       <c r="R56" s="75"/>
-      <c r="S56" s="88"/>
+      <c r="S56" s="87"/>
       <c r="T56" s="64"/>
       <c r="U56" s="64"/>
     </row>
@@ -11996,7 +11239,7 @@
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
       <c r="R57" s="75"/>
-      <c r="S57" s="88"/>
+      <c r="S57" s="87"/>
       <c r="T57" s="64"/>
       <c r="U57" s="64"/>
     </row>
@@ -12021,7 +11264,7 @@
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
       <c r="R58" s="75"/>
-      <c r="S58" s="88"/>
+      <c r="S58" s="87"/>
       <c r="T58" s="64"/>
       <c r="U58" s="64"/>
     </row>
@@ -12046,7 +11289,7 @@
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
       <c r="R59" s="75"/>
-      <c r="S59" s="88"/>
+      <c r="S59" s="87"/>
       <c r="T59" s="64"/>
       <c r="U59" s="64"/>
     </row>
@@ -12071,7 +11314,7 @@
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
       <c r="R60" s="75"/>
-      <c r="S60" s="88"/>
+      <c r="S60" s="87"/>
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
@@ -12096,7 +11339,7 @@
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
       <c r="R61" s="75"/>
-      <c r="S61" s="88"/>
+      <c r="S61" s="87"/>
       <c r="T61" s="64"/>
       <c r="U61" s="64"/>
     </row>
@@ -12121,7 +11364,7 @@
       <c r="P62" s="84"/>
       <c r="Q62" s="76"/>
       <c r="R62" s="75"/>
-      <c r="S62" s="88"/>
+      <c r="S62" s="87"/>
       <c r="T62" s="64"/>
       <c r="U62" s="64"/>
     </row>
@@ -12146,7 +11389,7 @@
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
       <c r="R63" s="75"/>
-      <c r="S63" s="88"/>
+      <c r="S63" s="87"/>
       <c r="T63" s="64"/>
       <c r="U63" s="64"/>
     </row>
@@ -12170,7 +11413,7 @@
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
       <c r="R64" s="75"/>
-      <c r="S64" s="88"/>
+      <c r="S64" s="87"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
@@ -12192,7 +11435,7 @@
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
       <c r="R65" s="75"/>
-      <c r="S65" s="88"/>
+      <c r="S65" s="87"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
@@ -12214,7 +11457,7 @@
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
       <c r="R66" s="75"/>
-      <c r="S66" s="88"/>
+      <c r="S66" s="87"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
@@ -12236,7 +11479,7 @@
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
       <c r="R67" s="75"/>
-      <c r="S67" s="88"/>
+      <c r="S67" s="87"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
@@ -12258,7 +11501,7 @@
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
       <c r="R68" s="75"/>
-      <c r="S68" s="88"/>
+      <c r="S68" s="87"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
@@ -12280,7 +11523,7 @@
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
       <c r="R69" s="75"/>
-      <c r="S69" s="88"/>
+      <c r="S69" s="87"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
@@ -12302,7 +11545,7 @@
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
       <c r="R70" s="75"/>
-      <c r="S70" s="88"/>
+      <c r="S70" s="87"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
@@ -12324,7 +11567,7 @@
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
       <c r="R71" s="75"/>
-      <c r="S71" s="88"/>
+      <c r="S71" s="87"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
@@ -12346,7 +11589,7 @@
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
       <c r="R72" s="75"/>
-      <c r="S72" s="88"/>
+      <c r="S72" s="87"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
@@ -12368,7 +11611,7 @@
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
       <c r="R73" s="75"/>
-      <c r="S73" s="88"/>
+      <c r="S73" s="87"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
@@ -12390,7 +11633,7 @@
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
       <c r="R74" s="75"/>
-      <c r="S74" s="88"/>
+      <c r="S74" s="87"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
@@ -12412,7 +11655,7 @@
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
       <c r="R75" s="75"/>
-      <c r="S75" s="88"/>
+      <c r="S75" s="87"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
@@ -12434,7 +11677,7 @@
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
       <c r="R76" s="75"/>
-      <c r="S76" s="88"/>
+      <c r="S76" s="87"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
@@ -12456,7 +11699,7 @@
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
       <c r="R77" s="75"/>
-      <c r="S77" s="88"/>
+      <c r="S77" s="87"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
@@ -12478,7 +11721,7 @@
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
       <c r="R78" s="75"/>
-      <c r="S78" s="88"/>
+      <c r="S78" s="87"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
@@ -12500,7 +11743,7 @@
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
       <c r="R79" s="75"/>
-      <c r="S79" s="88"/>
+      <c r="S79" s="87"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
@@ -12522,7 +11765,7 @@
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
       <c r="R80" s="75"/>
-      <c r="S80" s="88"/>
+      <c r="S80" s="87"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
@@ -12544,7 +11787,7 @@
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
       <c r="R81" s="75"/>
-      <c r="S81" s="88"/>
+      <c r="S81" s="87"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
@@ -12566,7 +11809,7 @@
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
       <c r="R82" s="75"/>
-      <c r="S82" s="88"/>
+      <c r="S82" s="87"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
@@ -12588,7 +11831,7 @@
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
       <c r="R83" s="75"/>
-      <c r="S83" s="88"/>
+      <c r="S83" s="87"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
@@ -12610,7 +11853,7 @@
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
       <c r="R84" s="75"/>
-      <c r="S84" s="88"/>
+      <c r="S84" s="87"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
@@ -12632,7 +11875,7 @@
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
       <c r="R85" s="75"/>
-      <c r="S85" s="88"/>
+      <c r="S85" s="87"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
@@ -12654,7 +11897,7 @@
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
       <c r="R86" s="75"/>
-      <c r="S86" s="88"/>
+      <c r="S86" s="87"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
@@ -12676,7 +11919,7 @@
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
       <c r="R87" s="75"/>
-      <c r="S87" s="88"/>
+      <c r="S87" s="87"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
@@ -12698,7 +11941,7 @@
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
       <c r="R88" s="75"/>
-      <c r="S88" s="88"/>
+      <c r="S88" s="87"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
@@ -12720,7 +11963,7 @@
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
       <c r="R89" s="75"/>
-      <c r="S89" s="88"/>
+      <c r="S89" s="87"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
@@ -12742,7 +11985,7 @@
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
       <c r="R90" s="75"/>
-      <c r="S90" s="88"/>
+      <c r="S90" s="87"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
@@ -12764,7 +12007,7 @@
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
       <c r="R91" s="75"/>
-      <c r="S91" s="88"/>
+      <c r="S91" s="87"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
@@ -12786,7 +12029,7 @@
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
       <c r="R92" s="75"/>
-      <c r="S92" s="88"/>
+      <c r="S92" s="87"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
@@ -12808,7 +12051,7 @@
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
       <c r="R93" s="75"/>
-      <c r="S93" s="88"/>
+      <c r="S93" s="87"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="33">
@@ -12830,7 +12073,7 @@
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
       <c r="R94" s="75"/>
-      <c r="S94" s="88"/>
+      <c r="S94" s="87"/>
     </row>
     <row r="1048467" spans="17:17" ht="12" customHeight="1">
       <c r="Q1048467" s="76"/>
@@ -12838,11 +12081,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K60:N60"/>
     <mergeCell ref="K87:N87"/>
@@ -12859,79 +12170,11 @@
     <mergeCell ref="K74:N74"/>
     <mergeCell ref="K75:N75"/>
     <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12960,8 +12203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12977,10 +12220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13010,8 +12253,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13069,7 +12312,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -13150,7 +12393,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -13201,7 +12444,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -13214,7 +12457,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -13325,7 +12568,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -13594,26 +12837,26 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="207" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="208"/>
-      <c r="D49" s="208"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
-      <c r="H49" s="208"/>
+      <c r="B49" s="203" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="204"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
       <c r="I49" s="43"/>
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="B50" s="208"/>
-      <c r="C50" s="208"/>
-      <c r="D50" s="208"/>
-      <c r="E50" s="208"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="208"/>
-      <c r="H50" s="208"/>
+      <c r="B50" s="204"/>
+      <c r="C50" s="204"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
       <c r="I50" s="43"/>
       <c r="J50" s="46"/>
     </row>
@@ -14094,10 +13337,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -14127,8 +13370,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Item Screen'!$A$1:$P$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="RB">#REF!</definedName>
     <definedName name="RMG">#REF!</definedName>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>Chọn kỳ</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
   </si>
   <si>
@@ -2191,9 +2188,6 @@
     <t>Button</t>
   </si>
   <si>
-    <t>RadioButton</t>
-  </si>
-  <si>
     <t>ComboBox</t>
   </si>
   <si>
@@ -2203,12 +2197,6 @@
     <t>ToDate</t>
   </si>
   <si>
-    <t>RadioBttn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period </t>
-  </si>
-  <si>
     <t>DivisionID</t>
   </si>
   <si>
@@ -2219,9 +2207,6 @@
   </si>
   <si>
     <t>DateTime</t>
-  </si>
-  <si>
-    <t>Boolean</t>
   </si>
   <si>
     <t>SQL_CMN_000002</t>
@@ -2332,9 +2317,6 @@
   </si>
   <si>
     <t>GetDate()</t>
-  </si>
-  <si>
-    <t>MM/YYYY</t>
   </si>
   <si>
     <t>DD/MM/YYYY</t>
@@ -3248,114 +3230,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3417,6 +3399,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3427,15 +3418,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3547,20 +3529,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3580,8 +3562,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2628900" y="1571625"/>
-          <a:ext cx="4905375" cy="2847975"/>
+          <a:off x="3086100" y="1714500"/>
+          <a:ext cx="4438650" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4392,65 +4374,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="147"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="149" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="148" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="148" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="144" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="145"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="115"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="146"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="116"/>
       <c r="L13" s="116"/>
       <c r="M13" s="116"/>
@@ -4461,56 +4443,56 @@
       <c r="R13" s="116"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="140"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="117"/>
       <c r="L16" s="117"/>
       <c r="M16" s="117"/>
@@ -4521,384 +4503,384 @@
       <c r="R16" s="117"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="140"/>
-      <c r="R21" s="140"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="137"/>
-      <c r="BE28" s="137"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="137"/>
-      <c r="BL28" s="137"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="137"/>
-      <c r="BP28" s="137"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="137"/>
-      <c r="BS28" s="137"/>
-      <c r="BT28" s="137"/>
-      <c r="BU28" s="137"/>
-      <c r="BV28" s="137"/>
-      <c r="BW28" s="137"/>
-      <c r="BX28" s="137"/>
-      <c r="BY28" s="137"/>
-      <c r="BZ28" s="137"/>
-      <c r="CA28" s="137"/>
-      <c r="CB28" s="137"/>
-      <c r="CC28" s="137"/>
-      <c r="CD28" s="137"/>
-      <c r="CE28" s="137"/>
-      <c r="CF28" s="137"/>
-      <c r="CG28" s="137"/>
-      <c r="CH28" s="137"/>
-      <c r="CI28" s="137"/>
-      <c r="CJ28" s="137"/>
-      <c r="CK28" s="137"/>
-      <c r="CL28" s="137"/>
-      <c r="CM28" s="137"/>
-      <c r="CN28" s="137"/>
-      <c r="CO28" s="137"/>
-      <c r="CP28" s="137"/>
-      <c r="CQ28" s="137"/>
-      <c r="CR28" s="137"/>
-      <c r="CS28" s="137"/>
-      <c r="CT28" s="137"/>
-      <c r="CU28" s="137"/>
-      <c r="CV28" s="137"/>
-      <c r="CW28" s="137"/>
-      <c r="CX28" s="137"/>
-      <c r="CY28" s="137"/>
-      <c r="CZ28" s="137"/>
-      <c r="DA28" s="137"/>
-      <c r="DB28" s="137"/>
-      <c r="DC28" s="137"/>
-      <c r="DD28" s="137"/>
-      <c r="DE28" s="137"/>
-      <c r="DF28" s="137"/>
-      <c r="DG28" s="137"/>
-      <c r="DH28" s="137"/>
-      <c r="DI28" s="137"/>
-      <c r="DJ28" s="137"/>
-      <c r="DK28" s="137"/>
-      <c r="DL28" s="137"/>
-      <c r="DM28" s="137"/>
-      <c r="DN28" s="137"/>
-      <c r="DO28" s="137"/>
-      <c r="DP28" s="137"/>
-      <c r="DQ28" s="137"/>
-      <c r="DR28" s="137"/>
-      <c r="DS28" s="137"/>
-      <c r="DT28" s="137"/>
-      <c r="DU28" s="137"/>
-      <c r="DV28" s="137"/>
-      <c r="DW28" s="137"/>
-      <c r="DX28" s="137"/>
-      <c r="DY28" s="137"/>
-      <c r="DZ28" s="137"/>
-      <c r="EA28" s="137"/>
-      <c r="EB28" s="137"/>
-      <c r="EC28" s="137"/>
-      <c r="ED28" s="137"/>
-      <c r="EE28" s="137"/>
-      <c r="EF28" s="137"/>
-      <c r="EG28" s="137"/>
-      <c r="EH28" s="137"/>
-      <c r="EI28" s="137"/>
-      <c r="EJ28" s="137"/>
-      <c r="EK28" s="137"/>
-      <c r="EL28" s="137"/>
-      <c r="EM28" s="137"/>
-      <c r="EN28" s="137"/>
-      <c r="EO28" s="137"/>
-      <c r="EP28" s="137"/>
-      <c r="EQ28" s="137"/>
-      <c r="ER28" s="137"/>
-      <c r="ES28" s="137"/>
-      <c r="ET28" s="137"/>
-      <c r="EU28" s="137"/>
-      <c r="EV28" s="137"/>
-      <c r="EW28" s="137"/>
-      <c r="EX28" s="137"/>
-      <c r="EY28" s="137"/>
-      <c r="EZ28" s="137"/>
-      <c r="FA28" s="137"/>
-      <c r="FB28" s="137"/>
-      <c r="FC28" s="137"/>
-      <c r="FD28" s="137"/>
-      <c r="FE28" s="137"/>
-      <c r="FF28" s="137"/>
-      <c r="FG28" s="137"/>
-      <c r="FH28" s="137"/>
-      <c r="FI28" s="137"/>
-      <c r="FJ28" s="137"/>
-      <c r="FK28" s="137"/>
-      <c r="FL28" s="137"/>
-      <c r="FM28" s="137"/>
-      <c r="FN28" s="137"/>
-      <c r="FO28" s="137"/>
-      <c r="FP28" s="137"/>
-      <c r="FQ28" s="137"/>
-      <c r="FR28" s="137"/>
-      <c r="FS28" s="137"/>
-      <c r="FT28" s="137"/>
-      <c r="FU28" s="137"/>
-      <c r="FV28" s="137"/>
-      <c r="FW28" s="137"/>
-      <c r="FX28" s="137"/>
-      <c r="FY28" s="137"/>
-      <c r="FZ28" s="137"/>
-      <c r="GA28" s="137"/>
-      <c r="GB28" s="137"/>
-      <c r="GC28" s="137"/>
-      <c r="GD28" s="137"/>
-      <c r="GE28" s="137"/>
-      <c r="GF28" s="137"/>
-      <c r="GG28" s="137"/>
-      <c r="GH28" s="137"/>
-      <c r="GI28" s="137"/>
-      <c r="GJ28" s="137"/>
-      <c r="GK28" s="137"/>
-      <c r="GL28" s="137"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="118"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="119"/>
       <c r="L30" s="119"/>
       <c r="M30" s="119"/>
@@ -4909,16 +4891,16 @@
       <c r="R30" s="119"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="119"/>
       <c r="L31" s="119"/>
       <c r="M31" s="119"/>
@@ -4930,6 +4912,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4943,28 +4947,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5519,10 +5501,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5533,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5549,8 +5531,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5561,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5589,14 +5571,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="125">
@@ -5611,14 +5593,14 @@
       <c r="D5" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="167" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
+      <c r="E5" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5629,12 +5611,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5645,12 +5627,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5661,12 +5643,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5677,12 +5659,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5693,12 +5675,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="161"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5709,12 +5691,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5725,12 +5707,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="161"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5741,12 +5723,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="161"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5757,12 +5739,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="161"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5773,12 +5755,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5789,12 +5771,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5805,12 +5787,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5821,12 +5803,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5837,12 +5819,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5853,12 +5835,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5869,12 +5851,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -5885,12 +5867,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -5901,12 +5883,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -5917,12 +5899,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5933,12 +5915,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5949,12 +5931,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -5965,12 +5947,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -5981,12 +5963,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -5997,12 +5979,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -6013,12 +5995,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6029,12 +6011,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6045,12 +6027,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6061,12 +6043,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6077,12 +6059,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6093,12 +6075,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6109,12 +6091,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6125,12 +6107,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6141,12 +6123,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6157,12 +6139,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6173,12 +6155,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6189,12 +6171,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6205,23 +6187,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6237,23 +6228,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6298,10 +6280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6331,8 +6313,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6387,7 +6369,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="181" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J5" s="182"/>
     </row>
@@ -6475,7 +6457,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="175" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J12" s="176"/>
     </row>
@@ -6877,13 +6859,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6908,13 +6890,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6927,7 +6909,7 @@
       </c>
       <c r="I1" s="188"/>
       <c r="J1" s="189" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K1" s="190"/>
       <c r="L1" s="191"/>
@@ -6946,11 +6928,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6987,7 +6969,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>162</v>
@@ -7046,7 +7028,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7067,7 +7049,7 @@
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="33">
         <v>51</v>
@@ -7082,28 +7064,32 @@
         <v>163</v>
       </c>
       <c r="F6" s="134" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="134"/>
+        <v>169</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>169</v>
+      </c>
       <c r="H6" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M6" s="134"/>
       <c r="N6" s="134"/>
-      <c r="O6" s="134">
-        <v>1</v>
+      <c r="O6" s="134" t="s">
+        <v>209</v>
       </c>
       <c r="P6" s="134"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="33">
         <v>51</v>
@@ -7115,19 +7101,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
@@ -7137,13 +7123,13 @@
       <c r="M7" s="134"/>
       <c r="N7" s="134"/>
       <c r="O7" s="134" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P7" s="134"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="33">
         <v>51</v>
@@ -7155,35 +7141,37 @@
         <v>4</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="134"/>
+      <c r="M8" s="134" t="s">
+        <v>210</v>
+      </c>
       <c r="N8" s="134"/>
-      <c r="O8" s="134" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="33">
         <v>51</v>
@@ -7195,31 +7183,33 @@
         <v>5</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F9" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>179</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
-      <c r="L9" s="40"/>
+      <c r="L9" s="40" t="s">
+        <v>150</v>
+      </c>
       <c r="M9" s="134"/>
       <c r="N9" s="134"/>
-      <c r="O9" s="134">
-        <v>0</v>
-      </c>
+      <c r="O9" s="134"/>
       <c r="P9" s="134"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="33">
         <v>51</v>
@@ -7231,35 +7221,33 @@
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="134" t="s">
-        <v>215</v>
-      </c>
+      <c r="M10" s="134"/>
       <c r="N10" s="134"/>
       <c r="O10" s="134"/>
       <c r="P10" s="134"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="33">
         <v>51</v>
@@ -7274,34 +7262,24 @@
         <v>166</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="134" t="s">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G11" s="134"/>
       <c r="H11" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>211</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
-      <c r="L11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="134" t="s">
-        <v>216</v>
-      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="134"/>
       <c r="N11" s="134"/>
       <c r="O11" s="134"/>
-      <c r="P11" s="134" t="s">
-        <v>217</v>
-      </c>
+      <c r="P11" s="134"/>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="33">
         <v>51</v>
@@ -7313,25 +7291,19 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="134" t="s">
-        <v>196</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G12" s="134"/>
       <c r="H12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="62"/>
       <c r="K12" s="62"/>
-      <c r="L12" s="40" t="s">
-        <v>150</v>
-      </c>
+      <c r="L12" s="40"/>
       <c r="M12" s="134"/>
       <c r="N12" s="134"/>
       <c r="O12" s="134"/>
@@ -7339,125 +7311,23 @@
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33">
-        <v>51</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="33">
-        <v>9</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="134" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>177</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="33">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33">
-        <v>51</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="33">
-        <v>10</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-    </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="33">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33">
-        <v>51</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="33">
-        <v>11</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="134" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="134"/>
-      <c r="H15" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-    </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="33">
-        <v>12</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7468,21 +7338,21 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H13 H5:H7">
+      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H10">
+      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
+      <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I13">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H16 H5:H9">
-      <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H11">
-      <formula1>"Caption,Textbox,DropdownChecklist,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L13">
       <formula1>"I,O,I/O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13">
-      <formula1>"Caption,Textbox,DropDownCheckList, DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8486,7 +8356,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="132"/>
@@ -8522,7 +8392,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="195"/>
+      <c r="A2" s="198"/>
       <c r="B2" s="133"/>
       <c r="C2" s="123"/>
       <c r="D2" s="31" t="s">
@@ -8560,7 +8430,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C4" s="120" t="s">
         <v>32</v>
@@ -8574,15 +8444,15 @@
       <c r="F4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -8596,18 +8466,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="128" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="192" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="198"/>
+      <c r="G5" s="195" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="196"/>
+      <c r="I5" s="192" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="193"/>
+      <c r="K5" s="194"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -8618,11 +8488,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="128"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="198"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="194"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8633,11 +8503,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="198"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="194"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8648,11 +8518,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="198"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="194"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8663,11 +8533,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="194"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8678,11 +8548,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8693,11 +8563,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8708,11 +8578,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8723,11 +8593,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8738,11 +8608,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8753,11 +8623,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8768,11 +8638,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8783,11 +8653,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8798,11 +8668,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8813,11 +8683,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8828,11 +8698,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8843,11 +8713,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8858,11 +8728,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8873,11 +8743,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8888,11 +8758,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -8903,11 +8773,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -8918,11 +8788,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -8933,11 +8803,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -8948,11 +8818,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -8963,11 +8833,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -8978,11 +8848,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -8993,11 +8863,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -9008,11 +8878,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9030,11 +8900,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9052,11 +8922,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="194"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9074,11 +8944,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="198"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="194"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9096,11 +8966,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="198"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="194"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9118,11 +8988,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="198"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="193"/>
+      <c r="K37" s="194"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9140,11 +9010,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="198"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="193"/>
+      <c r="K38" s="194"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9162,11 +9032,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="198"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="193"/>
+      <c r="K39" s="194"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9184,11 +9054,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="198"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
+      <c r="K40" s="194"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9206,11 +9076,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="198"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="193"/>
+      <c r="K41" s="194"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9228,11 +9098,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="198"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="194"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9250,11 +9120,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="198"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="194"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9272,11 +9142,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="198"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="194"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9294,11 +9164,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="196"/>
-      <c r="J45" s="197"/>
-      <c r="K45" s="198"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
+      <c r="K45" s="194"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9316,11 +9186,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="196"/>
-      <c r="J46" s="197"/>
-      <c r="K46" s="198"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
+      <c r="K46" s="194"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9338,11 +9208,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="198"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="194"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9360,11 +9230,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="198"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="194"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9382,11 +9252,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="197"/>
-      <c r="K49" s="198"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="194"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9404,11 +9274,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
-      <c r="K50" s="198"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="193"/>
+      <c r="K50" s="194"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9426,11 +9296,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="192"/>
+      <c r="J51" s="193"/>
+      <c r="K51" s="194"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9448,11 +9318,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="193"/>
+      <c r="K52" s="194"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9470,11 +9340,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="196"/>
-      <c r="J53" s="197"/>
-      <c r="K53" s="198"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="193"/>
+      <c r="K53" s="194"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9492,11 +9362,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="198"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="193"/>
+      <c r="K54" s="194"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9514,11 +9384,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="197"/>
-      <c r="K55" s="198"/>
+      <c r="G55" s="158"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="193"/>
+      <c r="K55" s="194"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9536,11 +9406,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="196"/>
-      <c r="J56" s="197"/>
-      <c r="K56" s="198"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="194"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9552,6 +9422,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -9566,99 +9529,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9706,16 +9576,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9750,14 +9620,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9796,7 +9666,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>162</v>
@@ -9855,42 +9725,42 @@
         <v>161</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="134" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J5" s="129" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K5" s="199" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L5" s="200"/>
       <c r="M5" s="200"/>
       <c r="N5" s="201"/>
       <c r="O5" s="124" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P5" s="124" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="76" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9909,19 +9779,19 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="134" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K6" s="199" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="200"/>
@@ -9930,16 +9800,16 @@
         <v>134</v>
       </c>
       <c r="P6" s="124" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9958,19 +9828,19 @@
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="134" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="129" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K7" s="199" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L7" s="200"/>
       <c r="M7" s="200"/>
@@ -9979,16 +9849,16 @@
         <v>134</v>
       </c>
       <c r="P7" s="124" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="76" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="R7" s="75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S7" s="135" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -12081,47 +11951,43 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
@@ -12138,43 +12004,47 @@
     <mergeCell ref="K57:N57"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12203,8 +12073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12220,10 +12090,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12253,8 +12123,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12312,7 +12182,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12393,7 +12263,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -12444,7 +12314,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -12457,7 +12327,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -12517,7 +12387,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -12568,7 +12438,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -12838,7 +12708,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="203" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C49" s="204"/>
       <c r="D49" s="204"/>
@@ -13337,10 +13207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13370,8 +13240,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$Q$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="219">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2209,15 +2209,9 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>SQL_CMN_000002</t>
-  </si>
-  <si>
     <t>@SQL0001</t>
   </si>
   <si>
-    <t>@SQL0002</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -2227,9 +2221,6 @@
     <t>AT1411</t>
   </si>
   <si>
-    <t>@@DivisionID</t>
-  </si>
-  <si>
     <t>@UserID</t>
   </si>
   <si>
@@ -2237,9 +2228,6 @@
   </si>
   <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>Click RadioBttn</t>
   </si>
   <si>
     <t>Báo cáo thống kê thời gian giao hàng</t>
@@ -2329,12 +2317,6 @@
   </si>
   <si>
     <t>ID SQL</t>
-  </si>
-  <si>
-    <t>Đổ nguồn combobox chọn kỳ</t>
-  </si>
-  <si>
-    <t>Đổ nguồn Combobox chọn kỳ</t>
   </si>
   <si>
     <t>Tham khảo sheet Code Standar</t>
@@ -3230,9 +3212,27 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3278,23 +3278,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3335,9 +3320,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3399,6 +3381,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,18 +3400,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4374,65 +4356,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="141"/>
-      <c r="B1" s="141"/>
-      <c r="C1" s="143" t="s">
+      <c r="A1" s="147"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="142"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="138" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="139"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="115"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
       <c r="K13" s="116"/>
       <c r="L13" s="116"/>
       <c r="M13" s="116"/>
@@ -4443,56 +4425,56 @@
       <c r="R13" s="116"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="117"/>
       <c r="L16" s="117"/>
       <c r="M16" s="117"/>
@@ -4503,384 +4485,384 @@
       <c r="R16" s="117"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="153"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="153"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="152"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="155"/>
-      <c r="AO28" s="155"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="155"/>
-      <c r="AV28" s="155"/>
-      <c r="AW28" s="155"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="155"/>
-      <c r="BC28" s="155"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="155"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="155"/>
-      <c r="BO28" s="155"/>
-      <c r="BP28" s="155"/>
-      <c r="BQ28" s="155"/>
-      <c r="BR28" s="155"/>
-      <c r="BS28" s="155"/>
-      <c r="BT28" s="155"/>
-      <c r="BU28" s="155"/>
-      <c r="BV28" s="155"/>
-      <c r="BW28" s="155"/>
-      <c r="BX28" s="155"/>
-      <c r="BY28" s="155"/>
-      <c r="BZ28" s="155"/>
-      <c r="CA28" s="155"/>
-      <c r="CB28" s="155"/>
-      <c r="CC28" s="155"/>
-      <c r="CD28" s="155"/>
-      <c r="CE28" s="155"/>
-      <c r="CF28" s="155"/>
-      <c r="CG28" s="155"/>
-      <c r="CH28" s="155"/>
-      <c r="CI28" s="155"/>
-      <c r="CJ28" s="155"/>
-      <c r="CK28" s="155"/>
-      <c r="CL28" s="155"/>
-      <c r="CM28" s="155"/>
-      <c r="CN28" s="155"/>
-      <c r="CO28" s="155"/>
-      <c r="CP28" s="155"/>
-      <c r="CQ28" s="155"/>
-      <c r="CR28" s="155"/>
-      <c r="CS28" s="155"/>
-      <c r="CT28" s="155"/>
-      <c r="CU28" s="155"/>
-      <c r="CV28" s="155"/>
-      <c r="CW28" s="155"/>
-      <c r="CX28" s="155"/>
-      <c r="CY28" s="155"/>
-      <c r="CZ28" s="155"/>
-      <c r="DA28" s="155"/>
-      <c r="DB28" s="155"/>
-      <c r="DC28" s="155"/>
-      <c r="DD28" s="155"/>
-      <c r="DE28" s="155"/>
-      <c r="DF28" s="155"/>
-      <c r="DG28" s="155"/>
-      <c r="DH28" s="155"/>
-      <c r="DI28" s="155"/>
-      <c r="DJ28" s="155"/>
-      <c r="DK28" s="155"/>
-      <c r="DL28" s="155"/>
-      <c r="DM28" s="155"/>
-      <c r="DN28" s="155"/>
-      <c r="DO28" s="155"/>
-      <c r="DP28" s="155"/>
-      <c r="DQ28" s="155"/>
-      <c r="DR28" s="155"/>
-      <c r="DS28" s="155"/>
-      <c r="DT28" s="155"/>
-      <c r="DU28" s="155"/>
-      <c r="DV28" s="155"/>
-      <c r="DW28" s="155"/>
-      <c r="DX28" s="155"/>
-      <c r="DY28" s="155"/>
-      <c r="DZ28" s="155"/>
-      <c r="EA28" s="155"/>
-      <c r="EB28" s="155"/>
-      <c r="EC28" s="155"/>
-      <c r="ED28" s="155"/>
-      <c r="EE28" s="155"/>
-      <c r="EF28" s="155"/>
-      <c r="EG28" s="155"/>
-      <c r="EH28" s="155"/>
-      <c r="EI28" s="155"/>
-      <c r="EJ28" s="155"/>
-      <c r="EK28" s="155"/>
-      <c r="EL28" s="155"/>
-      <c r="EM28" s="155"/>
-      <c r="EN28" s="155"/>
-      <c r="EO28" s="155"/>
-      <c r="EP28" s="155"/>
-      <c r="EQ28" s="155"/>
-      <c r="ER28" s="155"/>
-      <c r="ES28" s="155"/>
-      <c r="ET28" s="155"/>
-      <c r="EU28" s="155"/>
-      <c r="EV28" s="155"/>
-      <c r="EW28" s="155"/>
-      <c r="EX28" s="155"/>
-      <c r="EY28" s="155"/>
-      <c r="EZ28" s="155"/>
-      <c r="FA28" s="155"/>
-      <c r="FB28" s="155"/>
-      <c r="FC28" s="155"/>
-      <c r="FD28" s="155"/>
-      <c r="FE28" s="155"/>
-      <c r="FF28" s="155"/>
-      <c r="FG28" s="155"/>
-      <c r="FH28" s="155"/>
-      <c r="FI28" s="155"/>
-      <c r="FJ28" s="155"/>
-      <c r="FK28" s="155"/>
-      <c r="FL28" s="155"/>
-      <c r="FM28" s="155"/>
-      <c r="FN28" s="155"/>
-      <c r="FO28" s="155"/>
-      <c r="FP28" s="155"/>
-      <c r="FQ28" s="155"/>
-      <c r="FR28" s="155"/>
-      <c r="FS28" s="155"/>
-      <c r="FT28" s="155"/>
-      <c r="FU28" s="155"/>
-      <c r="FV28" s="155"/>
-      <c r="FW28" s="155"/>
-      <c r="FX28" s="155"/>
-      <c r="FY28" s="155"/>
-      <c r="FZ28" s="155"/>
-      <c r="GA28" s="155"/>
-      <c r="GB28" s="155"/>
-      <c r="GC28" s="155"/>
-      <c r="GD28" s="155"/>
-      <c r="GE28" s="155"/>
-      <c r="GF28" s="155"/>
-      <c r="GG28" s="155"/>
-      <c r="GH28" s="155"/>
-      <c r="GI28" s="155"/>
-      <c r="GJ28" s="155"/>
-      <c r="GK28" s="155"/>
-      <c r="GL28" s="155"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
+      <c r="AU28" s="137"/>
+      <c r="AV28" s="137"/>
+      <c r="AW28" s="137"/>
+      <c r="AX28" s="137"/>
+      <c r="AY28" s="137"/>
+      <c r="AZ28" s="137"/>
+      <c r="BA28" s="137"/>
+      <c r="BB28" s="137"/>
+      <c r="BC28" s="137"/>
+      <c r="BD28" s="137"/>
+      <c r="BE28" s="137"/>
+      <c r="BF28" s="137"/>
+      <c r="BG28" s="137"/>
+      <c r="BH28" s="137"/>
+      <c r="BI28" s="137"/>
+      <c r="BJ28" s="137"/>
+      <c r="BK28" s="137"/>
+      <c r="BL28" s="137"/>
+      <c r="BM28" s="137"/>
+      <c r="BN28" s="137"/>
+      <c r="BO28" s="137"/>
+      <c r="BP28" s="137"/>
+      <c r="BQ28" s="137"/>
+      <c r="BR28" s="137"/>
+      <c r="BS28" s="137"/>
+      <c r="BT28" s="137"/>
+      <c r="BU28" s="137"/>
+      <c r="BV28" s="137"/>
+      <c r="BW28" s="137"/>
+      <c r="BX28" s="137"/>
+      <c r="BY28" s="137"/>
+      <c r="BZ28" s="137"/>
+      <c r="CA28" s="137"/>
+      <c r="CB28" s="137"/>
+      <c r="CC28" s="137"/>
+      <c r="CD28" s="137"/>
+      <c r="CE28" s="137"/>
+      <c r="CF28" s="137"/>
+      <c r="CG28" s="137"/>
+      <c r="CH28" s="137"/>
+      <c r="CI28" s="137"/>
+      <c r="CJ28" s="137"/>
+      <c r="CK28" s="137"/>
+      <c r="CL28" s="137"/>
+      <c r="CM28" s="137"/>
+      <c r="CN28" s="137"/>
+      <c r="CO28" s="137"/>
+      <c r="CP28" s="137"/>
+      <c r="CQ28" s="137"/>
+      <c r="CR28" s="137"/>
+      <c r="CS28" s="137"/>
+      <c r="CT28" s="137"/>
+      <c r="CU28" s="137"/>
+      <c r="CV28" s="137"/>
+      <c r="CW28" s="137"/>
+      <c r="CX28" s="137"/>
+      <c r="CY28" s="137"/>
+      <c r="CZ28" s="137"/>
+      <c r="DA28" s="137"/>
+      <c r="DB28" s="137"/>
+      <c r="DC28" s="137"/>
+      <c r="DD28" s="137"/>
+      <c r="DE28" s="137"/>
+      <c r="DF28" s="137"/>
+      <c r="DG28" s="137"/>
+      <c r="DH28" s="137"/>
+      <c r="DI28" s="137"/>
+      <c r="DJ28" s="137"/>
+      <c r="DK28" s="137"/>
+      <c r="DL28" s="137"/>
+      <c r="DM28" s="137"/>
+      <c r="DN28" s="137"/>
+      <c r="DO28" s="137"/>
+      <c r="DP28" s="137"/>
+      <c r="DQ28" s="137"/>
+      <c r="DR28" s="137"/>
+      <c r="DS28" s="137"/>
+      <c r="DT28" s="137"/>
+      <c r="DU28" s="137"/>
+      <c r="DV28" s="137"/>
+      <c r="DW28" s="137"/>
+      <c r="DX28" s="137"/>
+      <c r="DY28" s="137"/>
+      <c r="DZ28" s="137"/>
+      <c r="EA28" s="137"/>
+      <c r="EB28" s="137"/>
+      <c r="EC28" s="137"/>
+      <c r="ED28" s="137"/>
+      <c r="EE28" s="137"/>
+      <c r="EF28" s="137"/>
+      <c r="EG28" s="137"/>
+      <c r="EH28" s="137"/>
+      <c r="EI28" s="137"/>
+      <c r="EJ28" s="137"/>
+      <c r="EK28" s="137"/>
+      <c r="EL28" s="137"/>
+      <c r="EM28" s="137"/>
+      <c r="EN28" s="137"/>
+      <c r="EO28" s="137"/>
+      <c r="EP28" s="137"/>
+      <c r="EQ28" s="137"/>
+      <c r="ER28" s="137"/>
+      <c r="ES28" s="137"/>
+      <c r="ET28" s="137"/>
+      <c r="EU28" s="137"/>
+      <c r="EV28" s="137"/>
+      <c r="EW28" s="137"/>
+      <c r="EX28" s="137"/>
+      <c r="EY28" s="137"/>
+      <c r="EZ28" s="137"/>
+      <c r="FA28" s="137"/>
+      <c r="FB28" s="137"/>
+      <c r="FC28" s="137"/>
+      <c r="FD28" s="137"/>
+      <c r="FE28" s="137"/>
+      <c r="FF28" s="137"/>
+      <c r="FG28" s="137"/>
+      <c r="FH28" s="137"/>
+      <c r="FI28" s="137"/>
+      <c r="FJ28" s="137"/>
+      <c r="FK28" s="137"/>
+      <c r="FL28" s="137"/>
+      <c r="FM28" s="137"/>
+      <c r="FN28" s="137"/>
+      <c r="FO28" s="137"/>
+      <c r="FP28" s="137"/>
+      <c r="FQ28" s="137"/>
+      <c r="FR28" s="137"/>
+      <c r="FS28" s="137"/>
+      <c r="FT28" s="137"/>
+      <c r="FU28" s="137"/>
+      <c r="FV28" s="137"/>
+      <c r="FW28" s="137"/>
+      <c r="FX28" s="137"/>
+      <c r="FY28" s="137"/>
+      <c r="FZ28" s="137"/>
+      <c r="GA28" s="137"/>
+      <c r="GB28" s="137"/>
+      <c r="GC28" s="137"/>
+      <c r="GD28" s="137"/>
+      <c r="GE28" s="137"/>
+      <c r="GF28" s="137"/>
+      <c r="GG28" s="137"/>
+      <c r="GH28" s="137"/>
+      <c r="GI28" s="137"/>
+      <c r="GJ28" s="137"/>
+      <c r="GK28" s="137"/>
+      <c r="GL28" s="137"/>
       <c r="GM28" s="118"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
       <c r="K30" s="119"/>
       <c r="L30" s="119"/>
       <c r="M30" s="119"/>
@@ -4891,16 +4873,16 @@
       <c r="R30" s="119"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
       <c r="K31" s="119"/>
       <c r="L31" s="119"/>
       <c r="M31" s="119"/>
@@ -4912,28 +4894,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4947,6 +4907,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5501,10 +5483,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5515,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5531,8 +5513,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5543,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5571,14 +5553,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="165" t="s">
+      <c r="E4" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="125">
@@ -5593,14 +5575,14 @@
       <c r="D5" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
+      <c r="E5" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="89">
@@ -5611,12 +5593,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="90">
@@ -5627,12 +5609,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="91">
@@ -5643,12 +5625,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="92">
@@ -5659,12 +5641,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="93">
@@ -5675,12 +5657,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="161"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="94">
@@ -5691,12 +5673,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="95">
@@ -5707,12 +5689,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="96">
@@ -5723,12 +5705,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="161"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="97">
@@ -5739,12 +5721,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="161"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5755,12 +5737,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="89">
@@ -5771,12 +5753,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="90">
@@ -5787,12 +5769,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="91">
@@ -5803,12 +5785,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="92">
@@ -5819,12 +5801,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="93">
@@ -5835,12 +5817,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="94">
@@ -5851,12 +5833,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="95">
@@ -5867,12 +5849,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="96">
@@ -5883,12 +5865,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="97">
@@ -5899,12 +5881,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5915,12 +5897,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5931,12 +5913,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="89">
@@ -5947,12 +5929,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="90">
@@ -5963,12 +5945,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="91">
@@ -5979,12 +5961,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="92">
@@ -5995,12 +5977,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="93">
@@ -6011,12 +5993,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="94">
@@ -6027,12 +6009,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="95">
@@ -6043,12 +6025,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="96">
@@ -6059,12 +6041,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="97">
@@ -6075,12 +6057,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -6091,12 +6073,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="89">
@@ -6107,12 +6089,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="90">
@@ -6123,12 +6105,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="91">
@@ -6139,12 +6121,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="158"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="92">
@@ -6155,12 +6137,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="158"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="93">
@@ -6171,12 +6153,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="94">
@@ -6187,32 +6169,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6228,14 +6201,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6280,10 +6262,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6313,8 +6295,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6369,7 +6351,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="181" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J5" s="182"/>
     </row>
@@ -6457,7 +6439,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="175" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J12" s="176"/>
     </row>
@@ -6861,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="124" zoomScaleNormal="100" zoomScaleSheetLayoutView="124" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -6890,13 +6872,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6909,7 +6891,7 @@
       </c>
       <c r="I1" s="188"/>
       <c r="J1" s="189" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K1" s="190"/>
       <c r="L1" s="191"/>
@@ -6928,11 +6910,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6969,7 +6951,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>162</v>
@@ -7028,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="83" t="str">
         <f>'Update History'!F1</f>
@@ -7083,7 +7065,7 @@
       <c r="M6" s="134"/>
       <c r="N6" s="134"/>
       <c r="O6" s="134" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P6" s="134"/>
     </row>
@@ -7123,7 +7105,7 @@
       <c r="M7" s="134"/>
       <c r="N7" s="134"/>
       <c r="O7" s="134" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P7" s="134"/>
     </row>
@@ -7150,10 +7132,10 @@
         <v>171</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
@@ -7161,12 +7143,12 @@
         <v>150</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N8" s="134"/>
       <c r="O8" s="134"/>
       <c r="P8" s="134" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -7183,13 +7165,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>168</v>
@@ -7221,13 +7203,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>168</v>
@@ -7291,10 +7273,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G12" s="134"/>
       <c r="H12" s="40" t="s">
@@ -8356,7 +8338,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="132"/>
@@ -8392,7 +8374,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198"/>
+      <c r="A2" s="195"/>
       <c r="B2" s="133"/>
       <c r="C2" s="123"/>
       <c r="D2" s="31" t="s">
@@ -8430,7 +8412,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" s="120" t="s">
         <v>32</v>
@@ -8444,15 +8426,15 @@
       <c r="F4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33">
@@ -8466,18 +8448,18 @@
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="192" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="193"/>
+      <c r="I5" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="195" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="192" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="33">
@@ -8488,11 +8470,11 @@
       <c r="D6" s="33"/>
       <c r="E6" s="128"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8503,11 +8485,11 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="198"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8518,11 +8500,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8533,11 +8515,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -8548,11 +8530,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -8563,11 +8545,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -8578,11 +8560,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -8593,11 +8575,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -8608,11 +8590,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -8623,11 +8605,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="194"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -8638,11 +8620,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -8653,11 +8635,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -8668,11 +8650,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -8683,11 +8665,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -8698,11 +8680,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -8713,11 +8695,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -8728,11 +8710,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -8743,11 +8725,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -8758,11 +8740,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -8773,11 +8755,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -8788,11 +8770,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="194"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -8803,11 +8785,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="194"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -8818,11 +8800,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -8833,11 +8815,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="194"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -8848,11 +8830,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -8863,11 +8845,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="194"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
     </row>
     <row r="32" spans="1:19" ht="11.25">
       <c r="A32" s="33">
@@ -8878,11 +8860,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="194"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -8900,11 +8882,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="194"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8922,11 +8904,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8944,11 +8926,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="194"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="196"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8966,11 +8948,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="194"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8988,11 +8970,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="194"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="196"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9010,11 +8992,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="194"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9032,11 +9014,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="194"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="196"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9054,11 +9036,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9076,11 +9058,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9098,11 +9080,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="194"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9120,11 +9102,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="194"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="198"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9142,11 +9124,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="194"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9164,11 +9146,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="194"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9186,11 +9168,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="194"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="196"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9208,11 +9190,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="158"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="192"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="194"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="196"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="198"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9230,11 +9212,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="192"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="194"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="196"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="198"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9252,11 +9234,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="192"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="194"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="196"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="198"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9274,11 +9256,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="192"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="194"/>
+      <c r="G50" s="159"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="198"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9296,11 +9278,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="192"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="194"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="198"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9318,11 +9300,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="194"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="198"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9340,11 +9322,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="192"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="194"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="196"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="198"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9362,11 +9344,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="192"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="194"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="198"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9384,11 +9366,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="194"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="196"/>
+      <c r="J55" s="197"/>
+      <c r="K55" s="198"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9406,11 +9388,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="194"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="196"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="198"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9422,25 +9404,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -9455,80 +9492,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9544,10 +9526,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048467"/>
+  <dimension ref="A1:U1048466"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9576,16 +9558,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9620,14 +9602,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9666,7 +9648,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>162</v>
@@ -9725,47 +9707,47 @@
         <v>161</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
       <c r="G5" s="134" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J5" s="129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" s="199" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L5" s="200"/>
       <c r="M5" s="200"/>
       <c r="N5" s="201"/>
       <c r="O5" s="124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P5" s="124" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="76" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="11.25" customHeight="1">
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="70.5" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -9779,19 +9761,19 @@
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
       <c r="G6" s="134" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="J6" s="129" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K6" s="199" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="200"/>
@@ -9800,66 +9782,42 @@
         <v>134</v>
       </c>
       <c r="P6" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="R6" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="R6" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="134" t="s">
+      <c r="S6" s="135" t="s">
         <v>215</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="70.5" customHeight="1">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="33">
-        <v>51</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>161</v>
-      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="K7" s="199" t="s">
-        <v>202</v>
-      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="199"/>
       <c r="L7" s="200"/>
       <c r="M7" s="200"/>
       <c r="N7" s="201"/>
-      <c r="O7" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="R7" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" s="135" t="s">
-        <v>221</v>
-      </c>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="82"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
@@ -9872,23 +9830,23 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="130"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="129"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="199"/>
       <c r="L8" s="200"/>
       <c r="M8" s="200"/>
       <c r="N8" s="201"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
       <c r="Q8" s="76"/>
       <c r="R8" s="75"/>
       <c r="S8" s="82"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
@@ -9955,15 +9913,15 @@
       <c r="L11" s="200"/>
       <c r="M11" s="200"/>
       <c r="N11" s="201"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="76"/>
       <c r="R11" s="75"/>
       <c r="S11" s="82"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -9988,7 +9946,7 @@
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
@@ -9997,7 +9955,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="87"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="82"/>
@@ -10005,11 +9963,11 @@
       <c r="L13" s="200"/>
       <c r="M13" s="200"/>
       <c r="N13" s="201"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="76"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="82"/>
+      <c r="S13" s="87"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
@@ -10045,18 +10003,18 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="32"/>
       <c r="G15" s="84"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
-      <c r="J15" s="82"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="199"/>
       <c r="L15" s="200"/>
       <c r="M15" s="200"/>
       <c r="N15" s="201"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="60"/>
       <c r="Q15" s="76"/>
       <c r="R15" s="75"/>
       <c r="S15" s="87"/>
@@ -10070,8 +10028,8 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="84"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -10080,7 +10038,7 @@
       <c r="L16" s="200"/>
       <c r="M16" s="200"/>
       <c r="N16" s="201"/>
-      <c r="O16" s="72"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
       <c r="R16" s="75"/>
@@ -10165,7 +10123,7 @@
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -10190,7 +10148,7 @@
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -10215,7 +10173,7 @@
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -10240,7 +10198,7 @@
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -10265,7 +10223,7 @@
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -10290,7 +10248,7 @@
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -10315,7 +10273,7 @@
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -10340,7 +10298,7 @@
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -10365,7 +10323,7 @@
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -10390,7 +10348,7 @@
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -10415,7 +10373,7 @@
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -10440,7 +10398,7 @@
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -10465,7 +10423,7 @@
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -10490,23 +10448,23 @@
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="84"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="82"/>
       <c r="K33" s="199"/>
       <c r="L33" s="200"/>
       <c r="M33" s="200"/>
       <c r="N33" s="201"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="75"/>
       <c r="S33" s="87"/>
@@ -10515,23 +10473,23 @@
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="84"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
-      <c r="J34" s="82"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="199"/>
       <c r="L34" s="200"/>
       <c r="M34" s="200"/>
       <c r="N34" s="201"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="75"/>
       <c r="S34" s="87"/>
@@ -10540,7 +10498,7 @@
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -10565,7 +10523,7 @@
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -10590,7 +10548,7 @@
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -10615,7 +10573,7 @@
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -10640,7 +10598,7 @@
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -10655,8 +10613,8 @@
       <c r="L39" s="200"/>
       <c r="M39" s="200"/>
       <c r="N39" s="201"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
       <c r="Q39" s="76"/>
       <c r="R39" s="75"/>
       <c r="S39" s="87"/>
@@ -10665,7 +10623,7 @@
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -10690,7 +10648,7 @@
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -10715,7 +10673,7 @@
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -10740,7 +10698,7 @@
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -10765,7 +10723,7 @@
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -10790,7 +10748,7 @@
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -10815,7 +10773,7 @@
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -10840,7 +10798,7 @@
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -10865,7 +10823,7 @@
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -10890,7 +10848,7 @@
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -10915,7 +10873,7 @@
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -10940,7 +10898,7 @@
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -10965,7 +10923,7 @@
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -10990,7 +10948,7 @@
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -11015,7 +10973,7 @@
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -11040,7 +10998,7 @@
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -11065,9 +11023,9 @@
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
-        <v>52</v>
-      </c>
-      <c r="B56" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="22"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
@@ -11090,7 +11048,7 @@
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="33"/>
@@ -11115,7 +11073,7 @@
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="33"/>
@@ -11140,7 +11098,7 @@
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="33"/>
@@ -11165,7 +11123,7 @@
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="33"/>
@@ -11188,9 +11146,9 @@
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
-    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A61" s="33">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="33"/>
@@ -11205,8 +11163,8 @@
       <c r="L61" s="200"/>
       <c r="M61" s="200"/>
       <c r="N61" s="201"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
       <c r="Q61" s="76"/>
       <c r="R61" s="75"/>
       <c r="S61" s="87"/>
@@ -11215,7 +11173,7 @@
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="33"/>
@@ -11238,11 +11196,10 @@
       <c r="T62" s="64"/>
       <c r="U62" s="64"/>
     </row>
-    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
+    <row r="63" spans="1:21" ht="24.75" customHeight="1">
       <c r="A63" s="33">
-        <v>59</v>
-      </c>
-      <c r="B63" s="22"/>
+        <v>60</v>
+      </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
@@ -11260,12 +11217,10 @@
       <c r="Q63" s="76"/>
       <c r="R63" s="75"/>
       <c r="S63" s="87"/>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-    </row>
-    <row r="64" spans="1:21" ht="24.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1">
       <c r="A64" s="33">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -11287,7 +11242,7 @@
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -11309,7 +11264,7 @@
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
@@ -11331,7 +11286,7 @@
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
@@ -11353,7 +11308,7 @@
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -11375,7 +11330,7 @@
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -11397,7 +11352,7 @@
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -11419,7 +11374,7 @@
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
@@ -11441,7 +11396,7 @@
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
@@ -11463,7 +11418,7 @@
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -11485,7 +11440,7 @@
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
@@ -11507,7 +11462,7 @@
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -11529,7 +11484,7 @@
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -11551,7 +11506,7 @@
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -11573,7 +11528,7 @@
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -11595,7 +11550,7 @@
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
@@ -11617,7 +11572,7 @@
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
@@ -11639,7 +11594,7 @@
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
@@ -11661,7 +11616,7 @@
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
@@ -11683,7 +11638,7 @@
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
@@ -11705,7 +11660,7 @@
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
@@ -11727,7 +11682,7 @@
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
@@ -11749,7 +11704,7 @@
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
@@ -11771,7 +11726,7 @@
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
@@ -11793,7 +11748,7 @@
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
@@ -11815,7 +11770,7 @@
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
@@ -11837,7 +11792,7 @@
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
@@ -11859,7 +11814,7 @@
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
@@ -11881,7 +11836,7 @@
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
@@ -11903,7 +11858,7 @@
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
@@ -11923,59 +11878,73 @@
       <c r="R93" s="75"/>
       <c r="S93" s="87"/>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="33">
-        <v>90</v>
-      </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="63"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="199"/>
-      <c r="L94" s="200"/>
-      <c r="M94" s="200"/>
-      <c r="N94" s="201"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="87"/>
-    </row>
-    <row r="1048467" spans="17:17" ht="12" customHeight="1">
-      <c r="Q1048467" s="76"/>
+    <row r="1048466" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048466" s="76"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
+  <mergeCells count="93">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
     <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
     <mergeCell ref="K78:N78"/>
     <mergeCell ref="K79:N79"/>
     <mergeCell ref="K80:N80"/>
@@ -11984,77 +11953,40 @@
     <mergeCell ref="K83:N83"/>
     <mergeCell ref="K84:N84"/>
     <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K68:N68"/>
     <mergeCell ref="K69:N69"/>
     <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
     <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048466:Q1048576 Q5:Q93"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H93">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I93">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R93">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12090,10 +12022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12123,8 +12055,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12182,7 +12114,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12263,7 +12195,7 @@
       <c r="A12" s="80"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -12314,7 +12246,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -12327,7 +12259,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
       <c r="C18" s="43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -12387,7 +12319,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="B23" s="80"/>
       <c r="C23" s="43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
@@ -12438,7 +12370,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="43"/>
@@ -12708,7 +12640,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="203" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C49" s="204"/>
       <c r="D49" s="204"/>
@@ -13207,10 +13139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13240,8 +13172,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Khach hang khong phat sinh don hang/CRMF3040_Khach hang khong phat sinh don hang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang khong phat sinh don hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Khach hang khong phat sinh don hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="218">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2323,9 +2323,6 @@
   </si>
   <si>
     <t>thực thi @SQL0001 đổ nguồn cho Dropdownchecklist</t>
-  </si>
-  <si>
-    <t>thực thi @SQL0002 đổ nguồn cho Combobox</t>
   </si>
   <si>
     <t>Menu [Báo cáo] -&gt; Page[Báo cáo biểu đồ _CRMF3000] 
@@ -6439,7 +6436,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J12" s="176"/>
     </row>
@@ -8452,7 +8449,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="192" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="193"/>
       <c r="I5" s="196" t="s">
@@ -9736,7 +9733,7 @@
         <v>180</v>
       </c>
       <c r="Q5" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R5" s="75" t="s">
         <v>181</v>
@@ -9785,13 +9782,13 @@
         <v>180</v>
       </c>
       <c r="Q6" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R6" s="75" t="s">
         <v>181</v>
       </c>
       <c r="S6" s="135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -12006,7 +12003,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12114,7 +12111,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12258,9 +12255,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
-        <v>212</v>
-      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -12640,7 +12635,7 @@
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="B49" s="203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="204"/>
       <c r="D49" s="204"/>
@@ -13123,7 +13118,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
